--- a/docs/6课题/课题一览.xlsx
+++ b/docs/6课题/课题一览.xlsx
@@ -744,168 +744,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1278,10 +1117,10 @@
   <dimension ref="A1:P98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1384,7 +1223,10 @@
       <c r="I2" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="21"/>
+      <c r="J2" s="21" t="str">
+        <f ca="1">IF(P2&lt;&gt;"","完成",IF(L2="-","调整中",IF(K2="超过","需确认","")))</f>
+        <v/>
+      </c>
       <c r="K2" s="21" t="str">
         <f t="shared" ref="K2:K29" ca="1" si="0">IF(L2="-","",IF(L2&lt;&gt;"",IF(P2&lt;&gt;"","",IF(AND((L2-TODAY())&gt;=1,(L2-TODAY())&lt;=3),"注意",IF((L2-TODAY())&lt;0,"超过",IF(L2=TODAY(),"当日",L2-TODAY())))),""))</f>
         <v>注意</v>
@@ -1426,7 +1268,10 @@
       <c r="I3" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="27"/>
+      <c r="J3" s="27" t="str">
+        <f ca="1">IF(P3&lt;&gt;"","完成",IF(L3="-","调整中",IF(K3="超过","需确认","")))</f>
+        <v/>
+      </c>
       <c r="K3" s="27" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>注意</v>
@@ -1464,10 +1309,13 @@
       <c r="I4" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="27"/>
+      <c r="J4" s="27" t="str">
+        <f>IF(P4&lt;&gt;"","完成",IF(L4="-","调整中",IF(K4="超过","需确认","")))</f>
+        <v>完成</v>
+      </c>
       <c r="K4" s="27" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>注意</v>
+        <v/>
       </c>
       <c r="L4" s="32">
         <v>43132</v>
@@ -1477,7 +1325,9 @@
       <c r="O4" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="P4" s="25"/>
+      <c r="P4" s="25">
+        <v>43129</v>
+      </c>
     </row>
     <row r="5" spans="1:16" ht="97.5" customHeight="1">
       <c r="A5" s="22">
@@ -1504,7 +1354,10 @@
       <c r="I5" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="27"/>
+      <c r="J5" s="27" t="str">
+        <f t="shared" ref="J5:J19" ca="1" si="1">IF(P5&lt;&gt;"","完成",IF(L5="-","调整中",IF(K5="超过","需确认","")))</f>
+        <v/>
+      </c>
       <c r="K5" s="27" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>注意</v>
@@ -1544,7 +1397,10 @@
       <c r="I6" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="J6" s="27"/>
+      <c r="J6" s="27" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
       <c r="K6" s="27" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>注意</v>
@@ -1582,9 +1438,12 @@
       <c r="I7" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="J7" s="27"/>
+      <c r="J7" s="27" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
       <c r="K7" s="27" t="str">
-        <f t="shared" ref="K7" ca="1" si="1">IF(L7="-","",IF(L7&lt;&gt;"",IF(P7&lt;&gt;"","",IF(AND((L7-TODAY())&gt;=1,(L7-TODAY())&lt;=3),"注意",IF((L7-TODAY())&lt;0,"超过",IF(L7=TODAY(),"当日",L7-TODAY())))),""))</f>
+        <f t="shared" ref="K7" ca="1" si="2">IF(L7="-","",IF(L7&lt;&gt;"",IF(P7&lt;&gt;"","",IF(AND((L7-TODAY())&gt;=1,(L7-TODAY())&lt;=3),"注意",IF((L7-TODAY())&lt;0,"超过",IF(L7=TODAY(),"当日",L7-TODAY())))),""))</f>
         <v>注意</v>
       </c>
       <c r="L7" s="32">
@@ -1620,7 +1479,10 @@
       <c r="I8" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="27"/>
+      <c r="J8" s="27" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
       <c r="K8" s="27" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>注意</v>
@@ -1658,7 +1520,10 @@
       <c r="I9" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="J9" s="27"/>
+      <c r="J9" s="27" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
       <c r="K9" s="27" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>注意</v>
@@ -1696,7 +1561,10 @@
       <c r="I10" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="J10" s="27"/>
+      <c r="J10" s="27" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
       <c r="K10" s="27" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>注意</v>
@@ -1734,7 +1602,10 @@
       <c r="I11" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="J11" s="27"/>
+      <c r="J11" s="27" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
       <c r="K11" s="27" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>注意</v>
@@ -1772,7 +1643,10 @@
       <c r="I12" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="J12" s="27"/>
+      <c r="J12" s="27" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
       <c r="K12" s="27" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>注意</v>
@@ -1810,7 +1684,10 @@
       <c r="I13" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="J13" s="27"/>
+      <c r="J13" s="27" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
       <c r="K13" s="27" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>注意</v>
@@ -1848,7 +1725,10 @@
       <c r="I14" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="J14" s="27"/>
+      <c r="J14" s="27" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
       <c r="K14" s="27" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>注意</v>
@@ -1887,7 +1767,7 @@
         <v>87</v>
       </c>
       <c r="J15" s="27" t="str">
-        <f t="shared" ref="J15:J61" ca="1" si="2">IF(P15&lt;&gt;"","完成",IF(L15="-","调整中",IF(K15="超过","需确认","")))</f>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="K15" s="27">
@@ -1928,7 +1808,7 @@
         <v>86</v>
       </c>
       <c r="J16" s="27" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="K16" s="27">
@@ -1969,7 +1849,7 @@
         <v>80</v>
       </c>
       <c r="J17" s="27" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="K17" s="27">
@@ -2010,7 +1890,7 @@
         <v>85</v>
       </c>
       <c r="J18" s="27" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="K18" s="27">
@@ -2051,7 +1931,7 @@
         <v>88</v>
       </c>
       <c r="J19" s="27" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="K19" s="27">
@@ -2080,7 +1960,7 @@
       <c r="H20" s="24"/>
       <c r="I20" s="26"/>
       <c r="J20" s="27" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ref="J15:J61" ca="1" si="3">IF(P20&lt;&gt;"","完成",IF(L20="-","调整中",IF(K20="超过","需确认","")))</f>
         <v/>
       </c>
       <c r="K20" s="27" t="str">
@@ -2107,7 +1987,7 @@
       <c r="H21" s="24"/>
       <c r="I21" s="26"/>
       <c r="J21" s="27" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K21" s="27" t="str">
@@ -2134,11 +2014,11 @@
       <c r="H22" s="24"/>
       <c r="I22" s="26"/>
       <c r="J22" s="27" t="str">
-        <f t="shared" ref="J22:J23" ca="1" si="3">IF(P22&lt;&gt;"","完成",IF(L22="-","调整中",IF(K22="超过","需确认","")))</f>
+        <f t="shared" ref="J22:J23" ca="1" si="4">IF(P22&lt;&gt;"","完成",IF(L22="-","调整中",IF(K22="超过","需确认","")))</f>
         <v/>
       </c>
       <c r="K22" s="27" t="str">
-        <f t="shared" ref="K22:K23" ca="1" si="4">IF(L22="-","",IF(L22&lt;&gt;"",IF(P22&lt;&gt;"","",IF(AND((L22-TODAY())&gt;=1,(L22-TODAY())&lt;=3),"注意",IF((L22-TODAY())&lt;0,"超过",IF(L22=TODAY(),"当日",L22-TODAY())))),""))</f>
+        <f t="shared" ref="K22:K23" ca="1" si="5">IF(L22="-","",IF(L22&lt;&gt;"",IF(P22&lt;&gt;"","",IF(AND((L22-TODAY())&gt;=1,(L22-TODAY())&lt;=3),"注意",IF((L22-TODAY())&lt;0,"超过",IF(L22=TODAY(),"当日",L22-TODAY())))),""))</f>
         <v/>
       </c>
       <c r="L22" s="32"/>
@@ -2161,11 +2041,11 @@
       <c r="H23" s="24"/>
       <c r="I23" s="26"/>
       <c r="J23" s="27" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="K23" s="27" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="L23" s="32"/>
@@ -2188,7 +2068,7 @@
       <c r="H24" s="24"/>
       <c r="I24" s="26"/>
       <c r="J24" s="27" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K24" s="27" t="str">
@@ -2215,7 +2095,7 @@
       <c r="H25" s="24"/>
       <c r="I25" s="26"/>
       <c r="J25" s="27" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K25" s="27" t="str">
@@ -2242,7 +2122,7 @@
       <c r="H26" s="24"/>
       <c r="I26" s="26"/>
       <c r="J26" s="27" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K26" s="27" t="str">
@@ -2269,7 +2149,7 @@
       <c r="H27" s="24"/>
       <c r="I27" s="34"/>
       <c r="J27" s="27" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K27" s="27" t="str">
@@ -2296,7 +2176,7 @@
       <c r="H28" s="24"/>
       <c r="I28" s="34"/>
       <c r="J28" s="27" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K28" s="27" t="str">
@@ -2323,7 +2203,7 @@
       <c r="H29" s="24"/>
       <c r="I29" s="26"/>
       <c r="J29" s="27" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K29" s="27" t="str">
@@ -2350,11 +2230,11 @@
       <c r="H30" s="24"/>
       <c r="I30" s="26"/>
       <c r="J30" s="27" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K30" s="27" t="str">
-        <f t="shared" ref="K30:K61" ca="1" si="5">IF(L30="-","",IF(L30&lt;&gt;"",IF(P30&lt;&gt;"","",IF(AND((L30-TODAY())&gt;=1,(L30-TODAY())&lt;=3),"注意",IF((L30-TODAY())&lt;0,"超过",IF(L30=TODAY(),"当日",L30-TODAY())))),""))</f>
+        <f t="shared" ref="K30:K61" ca="1" si="6">IF(L30="-","",IF(L30&lt;&gt;"",IF(P30&lt;&gt;"","",IF(AND((L30-TODAY())&gt;=1,(L30-TODAY())&lt;=3),"注意",IF((L30-TODAY())&lt;0,"超过",IF(L30=TODAY(),"当日",L30-TODAY())))),""))</f>
         <v/>
       </c>
       <c r="L30" s="32"/>
@@ -2377,11 +2257,11 @@
       <c r="H31" s="24"/>
       <c r="I31" s="26"/>
       <c r="J31" s="27" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K31" s="27" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L31" s="32"/>
@@ -2404,11 +2284,11 @@
       <c r="H32" s="24"/>
       <c r="I32" s="26"/>
       <c r="J32" s="27" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K32" s="27" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L32" s="32"/>
@@ -2431,11 +2311,11 @@
       <c r="H33" s="24"/>
       <c r="I33" s="26"/>
       <c r="J33" s="27" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K33" s="27" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L33" s="32"/>
@@ -2458,11 +2338,11 @@
       <c r="H34" s="24"/>
       <c r="I34" s="26"/>
       <c r="J34" s="27" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K34" s="27" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L34" s="32"/>
@@ -2485,11 +2365,11 @@
       <c r="H35" s="24"/>
       <c r="I35" s="26"/>
       <c r="J35" s="27" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K35" s="27" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L35" s="32"/>
@@ -2512,11 +2392,11 @@
       <c r="H36" s="24"/>
       <c r="I36" s="26"/>
       <c r="J36" s="27" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K36" s="27" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L36" s="32"/>
@@ -2539,11 +2419,11 @@
       <c r="H37" s="24"/>
       <c r="I37" s="26"/>
       <c r="J37" s="27" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K37" s="27" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L37" s="32"/>
@@ -2566,11 +2446,11 @@
       <c r="H38" s="24"/>
       <c r="I38" s="26"/>
       <c r="J38" s="27" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K38" s="27" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L38" s="32"/>
@@ -2593,11 +2473,11 @@
       <c r="H39" s="24"/>
       <c r="I39" s="26"/>
       <c r="J39" s="27" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K39" s="27" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L39" s="32"/>
@@ -2620,11 +2500,11 @@
       <c r="H40" s="24"/>
       <c r="I40" s="26"/>
       <c r="J40" s="27" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K40" s="27" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L40" s="32"/>
@@ -2647,11 +2527,11 @@
       <c r="H41" s="24"/>
       <c r="I41" s="26"/>
       <c r="J41" s="27" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K41" s="27" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L41" s="32"/>
@@ -2674,11 +2554,11 @@
       <c r="H42" s="24"/>
       <c r="I42" s="26"/>
       <c r="J42" s="27" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K42" s="27" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L42" s="32"/>
@@ -2701,11 +2581,11 @@
       <c r="H43" s="24"/>
       <c r="I43" s="26"/>
       <c r="J43" s="27" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K43" s="27" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L43" s="32"/>
@@ -2728,11 +2608,11 @@
       <c r="H44" s="24"/>
       <c r="I44" s="26"/>
       <c r="J44" s="27" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K44" s="27" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L44" s="32"/>
@@ -2755,11 +2635,11 @@
       <c r="H45" s="24"/>
       <c r="I45" s="26"/>
       <c r="J45" s="27" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K45" s="27" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L45" s="32"/>
@@ -2782,11 +2662,11 @@
       <c r="H46" s="24"/>
       <c r="I46" s="26"/>
       <c r="J46" s="27" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K46" s="27" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L46" s="32"/>
@@ -2809,11 +2689,11 @@
       <c r="H47" s="24"/>
       <c r="I47" s="26"/>
       <c r="J47" s="27" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K47" s="27" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L47" s="32"/>
@@ -2836,11 +2716,11 @@
       <c r="H48" s="24"/>
       <c r="I48" s="26"/>
       <c r="J48" s="27" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K48" s="27" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L48" s="32"/>
@@ -2863,11 +2743,11 @@
       <c r="H49" s="24"/>
       <c r="I49" s="26"/>
       <c r="J49" s="27" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K49" s="27" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L49" s="32"/>
@@ -2890,11 +2770,11 @@
       <c r="H50" s="24"/>
       <c r="I50" s="26"/>
       <c r="J50" s="27" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K50" s="27" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L50" s="32"/>
@@ -2917,11 +2797,11 @@
       <c r="H51" s="24"/>
       <c r="I51" s="26"/>
       <c r="J51" s="27" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K51" s="27" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L51" s="32"/>
@@ -2944,11 +2824,11 @@
       <c r="H52" s="24"/>
       <c r="I52" s="34"/>
       <c r="J52" s="27" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K52" s="27" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L52" s="39"/>
@@ -2971,11 +2851,11 @@
       <c r="H53" s="24"/>
       <c r="I53" s="34"/>
       <c r="J53" s="27" t="str">
-        <f t="shared" ref="J53:J56" ca="1" si="6">IF(P53&lt;&gt;"","完成",IF(L53="-","调整中",IF(K53="超过","需确认","")))</f>
+        <f t="shared" ref="J53:J56" ca="1" si="7">IF(P53&lt;&gt;"","完成",IF(L53="-","调整中",IF(K53="超过","需确认","")))</f>
         <v/>
       </c>
       <c r="K53" s="27" t="str">
-        <f t="shared" ref="K53:K56" ca="1" si="7">IF(L53="-","",IF(L53&lt;&gt;"",IF(P53&lt;&gt;"","",IF(AND((L53-TODAY())&gt;=1,(L53-TODAY())&lt;=3),"注意",IF((L53-TODAY())&lt;0,"超过",IF(L53=TODAY(),"当日",L53-TODAY())))),""))</f>
+        <f t="shared" ref="K53:K56" ca="1" si="8">IF(L53="-","",IF(L53&lt;&gt;"",IF(P53&lt;&gt;"","",IF(AND((L53-TODAY())&gt;=1,(L53-TODAY())&lt;=3),"注意",IF((L53-TODAY())&lt;0,"超过",IF(L53=TODAY(),"当日",L53-TODAY())))),""))</f>
         <v/>
       </c>
       <c r="L53" s="39"/>
@@ -2998,11 +2878,11 @@
       <c r="H54" s="24"/>
       <c r="I54" s="34"/>
       <c r="J54" s="27" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="K54" s="27" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="L54" s="39"/>
@@ -3025,11 +2905,11 @@
       <c r="H55" s="24"/>
       <c r="I55" s="34"/>
       <c r="J55" s="27" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="K55" s="27" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="L55" s="39"/>
@@ -3052,11 +2932,11 @@
       <c r="H56" s="24"/>
       <c r="I56" s="34"/>
       <c r="J56" s="27" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="K56" s="27" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="L56" s="39"/>
@@ -3079,11 +2959,11 @@
       <c r="H57" s="24"/>
       <c r="I57" s="26"/>
       <c r="J57" s="27" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K57" s="27" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L57" s="32"/>
@@ -3106,11 +2986,11 @@
       <c r="H58" s="24"/>
       <c r="I58" s="26"/>
       <c r="J58" s="27" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K58" s="27" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L58" s="32"/>
@@ -3133,11 +3013,11 @@
       <c r="H59" s="24"/>
       <c r="I59" s="26"/>
       <c r="J59" s="27" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K59" s="27" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L59" s="32"/>
@@ -3160,11 +3040,11 @@
       <c r="H60" s="24"/>
       <c r="I60" s="26"/>
       <c r="J60" s="27" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K60" s="27" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L60" s="32"/>
@@ -3187,11 +3067,11 @@
       <c r="H61" s="24"/>
       <c r="I61" s="26"/>
       <c r="J61" s="27" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K61" s="27" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="L61" s="32"/>
@@ -3214,11 +3094,11 @@
       <c r="H62" s="24"/>
       <c r="I62" s="26"/>
       <c r="J62" s="27" t="str">
-        <f t="shared" ref="J62:J64" ca="1" si="8">IF(P62&lt;&gt;"","完成",IF(L62="-","调整中",IF(K62="超过","需确认","")))</f>
+        <f t="shared" ref="J62:J64" ca="1" si="9">IF(P62&lt;&gt;"","完成",IF(L62="-","调整中",IF(K62="超过","需确认","")))</f>
         <v/>
       </c>
       <c r="K62" s="27" t="str">
-        <f t="shared" ref="K62:K64" ca="1" si="9">IF(L62="-","",IF(L62&lt;&gt;"",IF(P62&lt;&gt;"","",IF(AND((L62-TODAY())&gt;=1,(L62-TODAY())&lt;=3),"注意",IF((L62-TODAY())&lt;0,"超过",IF(L62=TODAY(),"当日",L62-TODAY())))),""))</f>
+        <f t="shared" ref="K62:K64" ca="1" si="10">IF(L62="-","",IF(L62&lt;&gt;"",IF(P62&lt;&gt;"","",IF(AND((L62-TODAY())&gt;=1,(L62-TODAY())&lt;=3),"注意",IF((L62-TODAY())&lt;0,"超过",IF(L62=TODAY(),"当日",L62-TODAY())))),""))</f>
         <v/>
       </c>
       <c r="L62" s="32"/>
@@ -3241,11 +3121,11 @@
       <c r="H63" s="24"/>
       <c r="I63" s="26"/>
       <c r="J63" s="27" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="K63" s="27" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="L63" s="32"/>
@@ -3268,11 +3148,11 @@
       <c r="H64" s="24"/>
       <c r="I64" s="26"/>
       <c r="J64" s="27" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="K64" s="27" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="L64" s="32"/>
@@ -3295,11 +3175,11 @@
       <c r="H65" s="24"/>
       <c r="I65" s="26"/>
       <c r="J65" s="27" t="str">
-        <f t="shared" ref="J65:J98" ca="1" si="10">IF(P65&lt;&gt;"","完成",IF(L65="-","调整中",IF(K65="超过","需确认","")))</f>
+        <f t="shared" ref="J65:J98" ca="1" si="11">IF(P65&lt;&gt;"","完成",IF(L65="-","调整中",IF(K65="超过","需确认","")))</f>
         <v/>
       </c>
       <c r="K65" s="27" t="str">
-        <f t="shared" ref="K65:K93" ca="1" si="11">IF(L65="-","",IF(L65&lt;&gt;"",IF(P65&lt;&gt;"","",IF(AND((L65-TODAY())&gt;=1,(L65-TODAY())&lt;=3),"注意",IF((L65-TODAY())&lt;0,"超过",IF(L65=TODAY(),"当日",L65-TODAY())))),""))</f>
+        <f t="shared" ref="K65:K93" ca="1" si="12">IF(L65="-","",IF(L65&lt;&gt;"",IF(P65&lt;&gt;"","",IF(AND((L65-TODAY())&gt;=1,(L65-TODAY())&lt;=3),"注意",IF((L65-TODAY())&lt;0,"超过",IF(L65=TODAY(),"当日",L65-TODAY())))),""))</f>
         <v/>
       </c>
       <c r="L65" s="32"/>
@@ -3322,11 +3202,11 @@
       <c r="H66" s="24"/>
       <c r="I66" s="26"/>
       <c r="J66" s="27" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K66" s="27" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="L66" s="32"/>
@@ -3349,11 +3229,11 @@
       <c r="H67" s="24"/>
       <c r="I67" s="26"/>
       <c r="J67" s="27" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K67" s="27" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="L67" s="32"/>
@@ -3376,11 +3256,11 @@
       <c r="H68" s="24"/>
       <c r="I68" s="26"/>
       <c r="J68" s="27" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K68" s="27" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="L68" s="32"/>
@@ -3403,11 +3283,11 @@
       <c r="H69" s="24"/>
       <c r="I69" s="26"/>
       <c r="J69" s="27" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K69" s="27" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="L69" s="32"/>
@@ -3430,11 +3310,11 @@
       <c r="H70" s="24"/>
       <c r="I70" s="26"/>
       <c r="J70" s="27" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K70" s="27" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="L70" s="32"/>
@@ -3457,11 +3337,11 @@
       <c r="H71" s="23"/>
       <c r="I71" s="26"/>
       <c r="J71" s="27" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K71" s="27" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="L71" s="32"/>
@@ -3484,11 +3364,11 @@
       <c r="H72" s="23"/>
       <c r="I72" s="26"/>
       <c r="J72" s="27" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K72" s="27" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="L72" s="32"/>
@@ -3511,11 +3391,11 @@
       <c r="H73" s="23"/>
       <c r="I73" s="26"/>
       <c r="J73" s="27" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K73" s="27" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="L73" s="32"/>
@@ -3538,11 +3418,11 @@
       <c r="H74" s="23"/>
       <c r="I74" s="26"/>
       <c r="J74" s="27" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K74" s="27" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="L74" s="32"/>
@@ -3565,11 +3445,11 @@
       <c r="H75" s="24"/>
       <c r="I75" s="26"/>
       <c r="J75" s="27" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K75" s="27" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="L75" s="32"/>
@@ -3592,11 +3472,11 @@
       <c r="H76" s="24"/>
       <c r="I76" s="26"/>
       <c r="J76" s="27" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K76" s="27" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="L76" s="32"/>
@@ -3619,11 +3499,11 @@
       <c r="H77" s="24"/>
       <c r="I77" s="26"/>
       <c r="J77" s="27" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K77" s="27" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="L77" s="32"/>
@@ -3646,11 +3526,11 @@
       <c r="H78" s="24"/>
       <c r="I78" s="26"/>
       <c r="J78" s="27" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K78" s="27" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="L78" s="32"/>
@@ -3673,11 +3553,11 @@
       <c r="H79" s="24"/>
       <c r="I79" s="26"/>
       <c r="J79" s="27" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K79" s="27" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="L79" s="32"/>
@@ -3700,11 +3580,11 @@
       <c r="H80" s="24"/>
       <c r="I80" s="26"/>
       <c r="J80" s="27" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K80" s="27" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="L80" s="32"/>
@@ -3727,11 +3607,11 @@
       <c r="H81" s="24"/>
       <c r="I81" s="26"/>
       <c r="J81" s="27" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K81" s="27" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="L81" s="32"/>
@@ -3754,11 +3634,11 @@
       <c r="H82" s="24"/>
       <c r="I82" s="26"/>
       <c r="J82" s="27" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K82" s="27" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="L82" s="32"/>
@@ -3781,11 +3661,11 @@
       <c r="H83" s="24"/>
       <c r="I83" s="26"/>
       <c r="J83" s="27" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K83" s="27" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="L83" s="32"/>
@@ -3808,11 +3688,11 @@
       <c r="H84" s="24"/>
       <c r="I84" s="26"/>
       <c r="J84" s="27" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K84" s="27" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="L84" s="32"/>
@@ -3835,11 +3715,11 @@
       <c r="H85" s="24"/>
       <c r="I85" s="26"/>
       <c r="J85" s="27" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K85" s="27" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="L85" s="32"/>
@@ -3862,11 +3742,11 @@
       <c r="H86" s="24"/>
       <c r="I86" s="26"/>
       <c r="J86" s="27" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K86" s="27" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="L86" s="32"/>
@@ -3889,11 +3769,11 @@
       <c r="H87" s="24"/>
       <c r="I87" s="26"/>
       <c r="J87" s="27" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K87" s="27" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="L87" s="32"/>
@@ -3916,11 +3796,11 @@
       <c r="H88" s="24"/>
       <c r="I88" s="26"/>
       <c r="J88" s="27" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K88" s="27" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="L88" s="32"/>
@@ -3943,11 +3823,11 @@
       <c r="H89" s="24"/>
       <c r="I89" s="26"/>
       <c r="J89" s="27" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K89" s="27" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="L89" s="32"/>
@@ -3970,11 +3850,11 @@
       <c r="H90" s="24"/>
       <c r="I90" s="26"/>
       <c r="J90" s="27" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K90" s="27" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="L90" s="32"/>
@@ -3997,11 +3877,11 @@
       <c r="H91" s="24"/>
       <c r="I91" s="26"/>
       <c r="J91" s="27" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K91" s="27" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="L91" s="32"/>
@@ -4024,11 +3904,11 @@
       <c r="H92" s="24"/>
       <c r="I92" s="26"/>
       <c r="J92" s="27" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K92" s="27" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="L92" s="32"/>
@@ -4051,11 +3931,11 @@
       <c r="H93" s="24"/>
       <c r="I93" s="26"/>
       <c r="J93" s="27" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K93" s="27" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="L93" s="32"/>
@@ -4078,11 +3958,11 @@
       <c r="H94" s="24"/>
       <c r="I94" s="26"/>
       <c r="J94" s="27" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K94" s="27" t="str">
-        <f t="shared" ref="K94:K98" ca="1" si="12">IF(L94="-","",IF(L94&lt;&gt;"",IF(P94&lt;&gt;"","",IF(AND((L94-TODAY())&gt;=1,(L94-TODAY())&lt;=3),"注意",IF((L94-TODAY())&lt;0,"超过",IF(L94=TODAY(),"当日",L94-TODAY())))),""))</f>
+        <f t="shared" ref="K94:K98" ca="1" si="13">IF(L94="-","",IF(L94&lt;&gt;"",IF(P94&lt;&gt;"","",IF(AND((L94-TODAY())&gt;=1,(L94-TODAY())&lt;=3),"注意",IF((L94-TODAY())&lt;0,"超过",IF(L94=TODAY(),"当日",L94-TODAY())))),""))</f>
         <v/>
       </c>
       <c r="L94" s="32"/>
@@ -4105,11 +3985,11 @@
       <c r="H95" s="24"/>
       <c r="I95" s="26"/>
       <c r="J95" s="27" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K95" s="27" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="L95" s="32"/>
@@ -4132,11 +4012,11 @@
       <c r="H96" s="24"/>
       <c r="I96" s="26"/>
       <c r="J96" s="27" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K96" s="27" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="L96" s="32"/>
@@ -4159,11 +4039,11 @@
       <c r="H97" s="24"/>
       <c r="I97" s="26"/>
       <c r="J97" s="27" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K97" s="27" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="L97" s="32"/>
@@ -4186,11 +4066,11 @@
       <c r="H98" s="24"/>
       <c r="I98" s="26"/>
       <c r="J98" s="27" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K98" s="27" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="L98" s="32"/>
@@ -4206,12 +4086,12 @@
   </autoFilter>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="A2:P98">
-    <cfRule type="expression" dxfId="23" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
       <formula>AND($J2="完成")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="24" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
       <formula>AND($J14="完成")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>

--- a/docs/6课题/课题一览.xlsx
+++ b/docs/6课题/课题一览.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="96">
   <si>
     <t>课题
 编号</t>
@@ -199,9 +199,6 @@
   <si>
     <t>关于上市公司</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>新闻查询的数据，portal使用的新闻服务器的应用服务接口。，不是portal数据库，那现在这些接口我们能使用吗，还是说需要开发图形数据库的应用服务接口</t>
   </si>
   <si>
     <t>portal使用的是图形数据库的应用服务接口，不是portal数据库，那现在这些接口我们能使用吗，还是说需要开发图形数据库的应用服务接口</t>
@@ -383,6 +380,35 @@
   <si>
     <t>1.新三版的统计是否需要显示
 2.上市公司即是主板（包括A,B,C股）？</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻查询的数据，portal使用的新闻服务器的应用服务接口。，不是portal数据库，那现在这些接口我们能使用吗，还是说需要开发新闻查询接口</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能取消</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示公司数量</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1=&gt;新三版的统计不要
+2=&gt;主板、中小板、创业板</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>与portal公告预警一样，但需要前10轮播</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里只显示关注的公司的监测预警，这个与V1.0的监测预警风险一致吗，只是看关注的公司。那关注按钮如果有的话，只会显示“取消关注”</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>按设计稿样式，按时间展示</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -744,7 +770,14 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1117,10 +1150,10 @@
   <dimension ref="A1:P98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="G11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
+      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1149,13 +1182,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>66</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>1</v>
@@ -1194,19 +1227,19 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="48">
+    <row r="2" spans="1:16" ht="36">
       <c r="A2" s="17">
         <f ca="1">IF(H2&lt;&gt;"",IF(AND(A1&lt;&gt;"",ISNUMBER(A1)=TRUE),A1+1,IF(AND(OR(A1="",AND(A1&lt;&gt;"",ISNUMBER(A1)=FALSE))),MAX(OFFSET(A2,1-ROW(),0):OFFSET(A2,-1,0))+1)),"")</f>
         <v>1</v>
       </c>
       <c r="B2" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>67</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>68</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>13</v>
@@ -1221,7 +1254,7 @@
         <v>51</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="J2" s="21" t="str">
         <f ca="1">IF(P2&lt;&gt;"","完成",IF(L2="-","调整中",IF(K2="超过","需确认","")))</f>
@@ -1229,7 +1262,7 @@
       </c>
       <c r="K2" s="21" t="str">
         <f t="shared" ref="K2:K29" ca="1" si="0">IF(L2="-","",IF(L2&lt;&gt;"",IF(P2&lt;&gt;"","",IF(AND((L2-TODAY())&gt;=1,(L2-TODAY())&lt;=3),"注意",IF((L2-TODAY())&lt;0,"超过",IF(L2=TODAY(),"当日",L2-TODAY())))),""))</f>
-        <v>注意</v>
+        <v>当日</v>
       </c>
       <c r="L2" s="30">
         <v>43132</v>
@@ -1245,10 +1278,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>47</v>
@@ -1266,7 +1299,7 @@
         <v>51</v>
       </c>
       <c r="I3" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J3" s="27" t="str">
         <f ca="1">IF(P3&lt;&gt;"","完成",IF(L3="-","调整中",IF(K3="超过","需确认","")))</f>
@@ -1274,7 +1307,7 @@
       </c>
       <c r="K3" s="27" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>注意</v>
+        <v>当日</v>
       </c>
       <c r="L3" s="32">
         <v>43132</v>
@@ -1290,10 +1323,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>48</v>
@@ -1335,10 +1368,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>52</v>
@@ -1352,7 +1385,7 @@
         <v>46</v>
       </c>
       <c r="I5" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J5" s="27" t="str">
         <f t="shared" ref="J5:J19" ca="1" si="1">IF(P5&lt;&gt;"","完成",IF(L5="-","调整中",IF(K5="超过","需确认","")))</f>
@@ -1360,7 +1393,7 @@
       </c>
       <c r="K5" s="27" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>注意</v>
+        <v>当日</v>
       </c>
       <c r="L5" s="32">
         <v>43132</v>
@@ -1368,7 +1401,7 @@
       <c r="M5" s="24"/>
       <c r="N5" s="23"/>
       <c r="O5" s="33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P5" s="25"/>
     </row>
@@ -1378,13 +1411,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="23" t="s">
         <v>69</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>70</v>
       </c>
       <c r="E6" s="24"/>
       <c r="F6" s="24"/>
@@ -1395,23 +1428,27 @@
         <v>51</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J6" s="27" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>完成</v>
       </c>
       <c r="K6" s="27" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>注意</v>
+        <v/>
       </c>
       <c r="L6" s="32">
         <v>43132</v>
       </c>
       <c r="M6" s="24"/>
       <c r="N6" s="23"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="25"/>
+      <c r="O6" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="P6" s="25">
+        <v>43132</v>
+      </c>
     </row>
     <row r="7" spans="1:16" ht="48">
       <c r="A7" s="22">
@@ -1419,13 +1456,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="23" t="s">
         <v>69</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>70</v>
       </c>
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
@@ -1436,7 +1473,7 @@
         <v>46</v>
       </c>
       <c r="I7" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J7" s="27" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1444,7 +1481,7 @@
       </c>
       <c r="K7" s="27" t="str">
         <f t="shared" ref="K7" ca="1" si="2">IF(L7="-","",IF(L7&lt;&gt;"",IF(P7&lt;&gt;"","",IF(AND((L7-TODAY())&gt;=1,(L7-TODAY())&lt;=3),"注意",IF((L7-TODAY())&lt;0,"超过",IF(L7=TODAY(),"当日",L7-TODAY())))),""))</f>
-        <v>注意</v>
+        <v>当日</v>
       </c>
       <c r="L7" s="32">
         <v>43132</v>
@@ -1460,13 +1497,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E8" s="24"/>
       <c r="F8" s="24"/>
@@ -1477,23 +1514,27 @@
         <v>51</v>
       </c>
       <c r="I8" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J8" s="27" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>完成</v>
       </c>
       <c r="K8" s="27" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>注意</v>
+        <v/>
       </c>
       <c r="L8" s="32">
         <v>43132</v>
       </c>
       <c r="M8" s="24"/>
       <c r="N8" s="23"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="25"/>
+      <c r="O8" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="P8" s="25">
+        <v>43132</v>
+      </c>
     </row>
     <row r="9" spans="1:16" ht="24">
       <c r="A9" s="22">
@@ -1501,13 +1542,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
@@ -1518,23 +1559,27 @@
         <v>51</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J9" s="27" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>完成</v>
       </c>
       <c r="K9" s="27" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>注意</v>
+        <v/>
       </c>
       <c r="L9" s="32">
         <v>43132</v>
       </c>
       <c r="M9" s="24"/>
       <c r="N9" s="23"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="25"/>
+      <c r="O9" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="P9" s="25">
+        <v>43132</v>
+      </c>
     </row>
     <row r="10" spans="1:16" ht="48">
       <c r="A10" s="22">
@@ -1542,13 +1587,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
@@ -1559,7 +1604,7 @@
         <v>46</v>
       </c>
       <c r="I10" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J10" s="27" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1567,7 +1612,7 @@
       </c>
       <c r="K10" s="27" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>注意</v>
+        <v>当日</v>
       </c>
       <c r="L10" s="32">
         <v>43132</v>
@@ -1583,13 +1628,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
@@ -1600,23 +1645,27 @@
         <v>51</v>
       </c>
       <c r="I11" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J11" s="27" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>完成</v>
       </c>
       <c r="K11" s="27" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>注意</v>
+        <v/>
       </c>
       <c r="L11" s="32">
         <v>43132</v>
       </c>
       <c r="M11" s="24"/>
       <c r="N11" s="23"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="25"/>
+      <c r="O11" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="P11" s="25">
+        <v>43132</v>
+      </c>
     </row>
     <row r="12" spans="1:16" ht="36">
       <c r="A12" s="22">
@@ -1624,13 +1673,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
@@ -1641,7 +1690,7 @@
         <v>46</v>
       </c>
       <c r="I12" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J12" s="27" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1649,7 +1698,7 @@
       </c>
       <c r="K12" s="27" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>注意</v>
+        <v>当日</v>
       </c>
       <c r="L12" s="32">
         <v>43132</v>
@@ -1665,13 +1714,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
@@ -1682,7 +1731,7 @@
         <v>46</v>
       </c>
       <c r="I13" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J13" s="27" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1690,7 +1739,7 @@
       </c>
       <c r="K13" s="27" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>注意</v>
+        <v>当日</v>
       </c>
       <c r="L13" s="32">
         <v>43132</v>
@@ -1706,13 +1755,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E14" s="24"/>
       <c r="F14" s="24"/>
@@ -1723,7 +1772,7 @@
         <v>46</v>
       </c>
       <c r="I14" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J14" s="27" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1731,7 +1780,7 @@
       </c>
       <c r="K14" s="27" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>注意</v>
+        <v>当日</v>
       </c>
       <c r="L14" s="32">
         <v>43132</v>
@@ -1741,19 +1790,19 @@
       <c r="O14" s="33"/>
       <c r="P14" s="25"/>
     </row>
-    <row r="15" spans="1:16" ht="36">
+    <row r="15" spans="1:16" ht="48">
       <c r="A15" s="22">
         <f ca="1">IF(H15&lt;&gt;"",IF(AND(A14&lt;&gt;"",ISNUMBER(A14)=TRUE),A14+1,IF(AND(OR(A14="",AND(A14&lt;&gt;"",ISNUMBER(A14)=FALSE))),MAX(OFFSET(A15,1-ROW(),0):OFFSET(A15,-1,0))+1)),"")</f>
         <v>14</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C15" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="23" t="s">
         <v>77</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>78</v>
       </c>
       <c r="E15" s="24"/>
       <c r="F15" s="24"/>
@@ -1764,23 +1813,27 @@
         <v>51</v>
       </c>
       <c r="I15" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J15" s="27" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K15" s="27">
+        <f t="shared" si="1"/>
+        <v>完成</v>
+      </c>
+      <c r="K15" s="27" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v/>
       </c>
       <c r="L15" s="32">
         <v>43140</v>
       </c>
       <c r="M15" s="24"/>
       <c r="N15" s="23"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="25"/>
+      <c r="O15" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="P15" s="25">
+        <v>43132</v>
+      </c>
     </row>
     <row r="16" spans="1:16" ht="24">
       <c r="A16" s="22">
@@ -1788,13 +1841,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C16" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
@@ -1805,23 +1858,27 @@
         <v>51</v>
       </c>
       <c r="I16" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J16" s="27" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K16" s="27">
+        <f t="shared" si="1"/>
+        <v>完成</v>
+      </c>
+      <c r="K16" s="27" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v/>
       </c>
       <c r="L16" s="32">
         <v>43140</v>
       </c>
       <c r="M16" s="24"/>
       <c r="N16" s="23"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="25"/>
+      <c r="O16" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="P16" s="25">
+        <v>43132</v>
+      </c>
     </row>
     <row r="17" spans="1:16" ht="24">
       <c r="A17" s="22">
@@ -1829,13 +1886,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="23" t="s">
         <v>81</v>
-      </c>
-      <c r="C17" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>82</v>
       </c>
       <c r="E17" s="24"/>
       <c r="F17" s="24"/>
@@ -1846,23 +1903,27 @@
         <v>51</v>
       </c>
       <c r="I17" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J17" s="27" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K17" s="27">
+        <f t="shared" si="1"/>
+        <v>完成</v>
+      </c>
+      <c r="K17" s="27" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v/>
       </c>
       <c r="L17" s="32">
         <v>43140</v>
       </c>
       <c r="M17" s="24"/>
       <c r="N17" s="23"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="25"/>
+      <c r="O17" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="P17" s="25">
+        <v>43132</v>
+      </c>
     </row>
     <row r="18" spans="1:16" ht="24">
       <c r="A18" s="22">
@@ -1870,13 +1931,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
@@ -1887,23 +1948,27 @@
         <v>51</v>
       </c>
       <c r="I18" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J18" s="27" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K18" s="27">
+        <f t="shared" si="1"/>
+        <v>完成</v>
+      </c>
+      <c r="K18" s="27" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v/>
       </c>
       <c r="L18" s="32">
         <v>43140</v>
       </c>
       <c r="M18" s="24"/>
       <c r="N18" s="23"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="25"/>
+      <c r="O18" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="P18" s="25">
+        <v>43132</v>
+      </c>
     </row>
     <row r="19" spans="1:16" ht="24">
       <c r="A19" s="22">
@@ -1911,13 +1976,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
@@ -1928,23 +1993,27 @@
         <v>51</v>
       </c>
       <c r="I19" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J19" s="27" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K19" s="27">
+        <f t="shared" si="1"/>
+        <v>完成</v>
+      </c>
+      <c r="K19" s="27" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v/>
       </c>
       <c r="L19" s="32">
         <v>43140</v>
       </c>
       <c r="M19" s="24"/>
       <c r="N19" s="23"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="25"/>
+      <c r="O19" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="P19" s="25">
+        <v>43132</v>
+      </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="22" t="str">
@@ -1960,7 +2029,7 @@
       <c r="H20" s="24"/>
       <c r="I20" s="26"/>
       <c r="J20" s="27" t="str">
-        <f t="shared" ref="J15:J61" ca="1" si="3">IF(P20&lt;&gt;"","完成",IF(L20="-","调整中",IF(K20="超过","需确认","")))</f>
+        <f t="shared" ref="J20:J61" ca="1" si="3">IF(P20&lt;&gt;"","完成",IF(L20="-","调整中",IF(K20="超过","需确认","")))</f>
         <v/>
       </c>
       <c r="K20" s="27" t="str">
@@ -4086,17 +4155,17 @@
   </autoFilter>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="A2:P98">
-    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
       <formula>AND($J2="完成")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
       <formula>AND($J14="完成")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H99:H65532 M99:M65532 I3:I65532 D1:F1 A1:C1048576 N1:P1048576 M1 H1:I1 G1:G1048576 L1:L1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H99:H65532 M99:M65532 I3:I65532 D1:F1 A1:C1048576 L1:L1048576 M1 H1:I1 G1:G1048576 N1:P1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F99:F65532 E2:E65532">
       <formula1>w02_紧急性</formula1>
     </dataValidation>

--- a/docs/6课题/课题一览.xlsx
+++ b/docs/6课题/课题一览.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="102">
   <si>
     <t>课题
 编号</t>
@@ -313,9 +313,6 @@
     <t>地理分布一览 - 6个数据统计计算</t>
   </si>
   <si>
-    <t>监测预警风险TOP5 - 列表显示</t>
-  </si>
-  <si>
     <t>新闻事件事件趋势</t>
   </si>
   <si>
@@ -409,6 +406,34 @@
   </si>
   <si>
     <t>按设计稿样式，按时间展示</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看更多，是本页面全部显示，弹出画面显示所有，还是开浏览器新标签查看。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>监测预警风险TOP5 - 列表显示</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>监测预警风险趋势图</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>经营风险，市场风险，法律法规风险在哪取？</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件公告风险</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件公告与舆情公告不同的话，那么数据条件是什么</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2.0</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -770,7 +795,21 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1150,10 +1189,10 @@
   <dimension ref="A1:P98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="G11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1254,7 +1293,7 @@
         <v>51</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J2" s="21" t="str">
         <f ca="1">IF(P2&lt;&gt;"","完成",IF(L2="-","调整中",IF(K2="超过","需确认","")))</f>
@@ -1444,7 +1483,7 @@
       <c r="M6" s="24"/>
       <c r="N6" s="23"/>
       <c r="O6" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P6" s="25">
         <v>43132</v>
@@ -1503,7 +1542,7 @@
         <v>68</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E8" s="24"/>
       <c r="F8" s="24"/>
@@ -1530,7 +1569,7 @@
       <c r="M8" s="24"/>
       <c r="N8" s="23"/>
       <c r="O8" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P8" s="25">
         <v>43132</v>
@@ -1559,7 +1598,7 @@
         <v>51</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J9" s="27" t="str">
         <f t="shared" si="1"/>
@@ -1575,7 +1614,7 @@
       <c r="M9" s="24"/>
       <c r="N9" s="23"/>
       <c r="O9" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P9" s="25">
         <v>43132</v>
@@ -1634,7 +1673,7 @@
         <v>68</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
@@ -1661,7 +1700,7 @@
       <c r="M11" s="24"/>
       <c r="N11" s="23"/>
       <c r="O11" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P11" s="25">
         <v>43132</v>
@@ -1679,7 +1718,7 @@
         <v>68</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
@@ -1720,7 +1759,7 @@
         <v>68</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
@@ -1761,7 +1800,7 @@
         <v>68</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E14" s="24"/>
       <c r="F14" s="24"/>
@@ -1796,13 +1835,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C15" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="23" t="s">
         <v>76</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>77</v>
       </c>
       <c r="E15" s="24"/>
       <c r="F15" s="24"/>
@@ -1813,7 +1852,7 @@
         <v>51</v>
       </c>
       <c r="I15" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J15" s="27" t="str">
         <f t="shared" si="1"/>
@@ -1829,7 +1868,7 @@
       <c r="M15" s="24"/>
       <c r="N15" s="23"/>
       <c r="O15" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P15" s="25">
         <v>43132</v>
@@ -1841,13 +1880,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C16" s="43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
@@ -1858,7 +1897,7 @@
         <v>51</v>
       </c>
       <c r="I16" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J16" s="27" t="str">
         <f t="shared" si="1"/>
@@ -1874,7 +1913,7 @@
       <c r="M16" s="24"/>
       <c r="N16" s="23"/>
       <c r="O16" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P16" s="25">
         <v>43132</v>
@@ -1886,13 +1925,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="23" t="s">
         <v>80</v>
-      </c>
-      <c r="C17" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>81</v>
       </c>
       <c r="E17" s="24"/>
       <c r="F17" s="24"/>
@@ -1903,7 +1942,7 @@
         <v>51</v>
       </c>
       <c r="I17" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J17" s="27" t="str">
         <f t="shared" si="1"/>
@@ -1919,7 +1958,7 @@
       <c r="M17" s="24"/>
       <c r="N17" s="23"/>
       <c r="O17" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P17" s="25">
         <v>43132</v>
@@ -1931,13 +1970,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
@@ -1948,7 +1987,7 @@
         <v>51</v>
       </c>
       <c r="I18" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J18" s="27" t="str">
         <f t="shared" si="1"/>
@@ -1964,7 +2003,7 @@
       <c r="M18" s="24"/>
       <c r="N18" s="23"/>
       <c r="O18" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P18" s="25">
         <v>43132</v>
@@ -1976,13 +2015,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
@@ -1993,7 +2032,7 @@
         <v>51</v>
       </c>
       <c r="I19" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J19" s="27" t="str">
         <f t="shared" si="1"/>
@@ -2009,25 +2048,37 @@
       <c r="M19" s="24"/>
       <c r="N19" s="23"/>
       <c r="O19" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P19" s="25">
         <v>43132</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="22" t="str">
+    <row r="20" spans="1:16" ht="24">
+      <c r="A20" s="22">
         <f ca="1">IF(H20&lt;&gt;"",IF(AND(A19&lt;&gt;"",ISNUMBER(A19)=TRUE),A19+1,IF(AND(OR(A19="",AND(A19&lt;&gt;"",ISNUMBER(A19)=FALSE))),MAX(OFFSET(A20,1-ROW(),0):OFFSET(A20,-1,0))+1)),"")</f>
-        <v/>
-      </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="23"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>96</v>
+      </c>
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="26"/>
+      <c r="G20" s="25">
+        <v>43132</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="I20" s="26" t="s">
+        <v>95</v>
+      </c>
       <c r="J20" s="27" t="str">
         <f t="shared" ref="J20:J61" ca="1" si="3">IF(P20&lt;&gt;"","完成",IF(L20="-","调整中",IF(K20="超过","需确认","")))</f>
         <v/>
@@ -2042,19 +2093,27 @@
       <c r="O20" s="33"/>
       <c r="P20" s="25"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" ht="24">
       <c r="A21" s="22" t="str">
         <f ca="1">IF(H21&lt;&gt;"",IF(AND(A20&lt;&gt;"",ISNUMBER(A20)=TRUE),A20+1,IF(AND(OR(A20="",AND(A20&lt;&gt;"",ISNUMBER(A20)=FALSE))),MAX(OFFSET(A21,1-ROW(),0):OFFSET(A21,-1,0))+1)),"")</f>
         <v/>
       </c>
       <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="23"/>
+      <c r="C21" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>97</v>
+      </c>
       <c r="E21" s="24"/>
       <c r="F21" s="24"/>
-      <c r="G21" s="25"/>
+      <c r="G21" s="25">
+        <v>43132</v>
+      </c>
       <c r="H21" s="24"/>
-      <c r="I21" s="26"/>
+      <c r="I21" s="26" t="s">
+        <v>98</v>
+      </c>
       <c r="J21" s="27" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
@@ -2069,19 +2128,27 @@
       <c r="O21" s="33"/>
       <c r="P21" s="25"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" ht="24">
       <c r="A22" s="22" t="str">
         <f ca="1">IF(H22&lt;&gt;"",IF(AND(A21&lt;&gt;"",ISNUMBER(A21)=TRUE),A21+1,IF(AND(OR(A21="",AND(A21&lt;&gt;"",ISNUMBER(A21)=FALSE))),MAX(OFFSET(A22,1-ROW(),0):OFFSET(A22,-1,0))+1)),"")</f>
         <v/>
       </c>
       <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="23"/>
+      <c r="C22" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>99</v>
+      </c>
       <c r="E22" s="24"/>
       <c r="F22" s="24"/>
-      <c r="G22" s="25"/>
+      <c r="G22" s="25">
+        <v>43132</v>
+      </c>
       <c r="H22" s="24"/>
-      <c r="I22" s="26"/>
+      <c r="I22" s="26" t="s">
+        <v>100</v>
+      </c>
       <c r="J22" s="27" t="str">
         <f t="shared" ref="J22:J23" ca="1" si="4">IF(P22&lt;&gt;"","完成",IF(L22="-","调整中",IF(K22="超过","需确认","")))</f>
         <v/>
@@ -4155,17 +4222,17 @@
   </autoFilter>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="A2:P98">
-    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
       <formula>AND($J2="完成")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
       <formula>AND($J14="完成")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H99:H65532 M99:M65532 I3:I65532 D1:F1 A1:C1048576 L1:L1048576 M1 H1:I1 G1:G1048576 N1:P1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H99:H65532 M99:M65532 I3:I65532 D1:F1 N1:P1048576 L1:L1048576 M1 H1:I1 G1:G1048576 A1:C1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F99:F65532 E2:E65532">
       <formula1>w02_紧急性</formula1>
     </dataValidation>

--- a/docs/6课题/课题一览.xlsx
+++ b/docs/6课题/课题一览.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="103">
   <si>
     <t>课题
 编号</t>
@@ -401,10 +401,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>这里只显示关注的公司的监测预警，这个与V1.0的监测预警风险一致吗，只是看关注的公司。那关注按钮如果有的话，只会显示“取消关注”</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>按设计稿样式，按时间展示</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -434,6 +430,14 @@
   </si>
   <si>
     <t>V2.0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里只显示关注的公司的监测预警，这个与V1.0的监测预警风险一致，只看关注的公司。关注按钮取消</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询时间，是画面时间的前一星期吗</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -795,7 +799,35 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="11">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1189,10 +1221,10 @@
   <dimension ref="A1:P98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="G15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1718,7 +1750,7 @@
         <v>68</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
@@ -1829,7 +1861,7 @@
       <c r="O14" s="33"/>
       <c r="P14" s="25"/>
     </row>
-    <row r="15" spans="1:16" ht="48">
+    <row r="15" spans="1:16" ht="36">
       <c r="A15" s="22">
         <f ca="1">IF(H15&lt;&gt;"",IF(AND(A14&lt;&gt;"",ISNUMBER(A14)=TRUE),A14+1,IF(AND(OR(A14="",AND(A14&lt;&gt;"",ISNUMBER(A14)=FALSE))),MAX(OFFSET(A15,1-ROW(),0):OFFSET(A15,-1,0))+1)),"")</f>
         <v>14</v>
@@ -1868,7 +1900,7 @@
       <c r="M15" s="24"/>
       <c r="N15" s="23"/>
       <c r="O15" s="33" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="P15" s="25">
         <v>43132</v>
@@ -1913,7 +1945,7 @@
       <c r="M16" s="24"/>
       <c r="N16" s="23"/>
       <c r="O16" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P16" s="25">
         <v>43132</v>
@@ -1958,7 +1990,7 @@
       <c r="M17" s="24"/>
       <c r="N17" s="23"/>
       <c r="O17" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P17" s="25">
         <v>43132</v>
@@ -2003,7 +2035,7 @@
       <c r="M18" s="24"/>
       <c r="N18" s="23"/>
       <c r="O18" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P18" s="25">
         <v>43132</v>
@@ -2048,7 +2080,7 @@
       <c r="M19" s="24"/>
       <c r="N19" s="23"/>
       <c r="O19" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P19" s="25">
         <v>43132</v>
@@ -2060,13 +2092,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="41" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C20" s="43" t="s">
         <v>68</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
@@ -2077,7 +2109,7 @@
         <v>51</v>
       </c>
       <c r="I20" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J20" s="27" t="str">
         <f t="shared" ref="J20:J61" ca="1" si="3">IF(P20&lt;&gt;"","完成",IF(L20="-","调整中",IF(K20="超过","需确认","")))</f>
@@ -2094,25 +2126,29 @@
       <c r="P20" s="25"/>
     </row>
     <row r="21" spans="1:16" ht="24">
-      <c r="A21" s="22" t="str">
+      <c r="A21" s="22">
         <f ca="1">IF(H21&lt;&gt;"",IF(AND(A20&lt;&gt;"",ISNUMBER(A20)=TRUE),A20+1,IF(AND(OR(A20="",AND(A20&lt;&gt;"",ISNUMBER(A20)=FALSE))),MAX(OFFSET(A21,1-ROW(),0):OFFSET(A21,-1,0))+1)),"")</f>
-        <v/>
-      </c>
-      <c r="B21" s="41"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="41" t="s">
+        <v>66</v>
+      </c>
       <c r="C21" s="43" t="s">
         <v>68</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E21" s="24"/>
       <c r="F21" s="24"/>
       <c r="G21" s="25">
         <v>43132</v>
       </c>
-      <c r="H21" s="24"/>
+      <c r="H21" s="24" t="s">
+        <v>51</v>
+      </c>
       <c r="I21" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J21" s="27" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2129,25 +2165,29 @@
       <c r="P21" s="25"/>
     </row>
     <row r="22" spans="1:16" ht="24">
-      <c r="A22" s="22" t="str">
+      <c r="A22" s="22">
         <f ca="1">IF(H22&lt;&gt;"",IF(AND(A21&lt;&gt;"",ISNUMBER(A21)=TRUE),A21+1,IF(AND(OR(A21="",AND(A21&lt;&gt;"",ISNUMBER(A21)=FALSE))),MAX(OFFSET(A22,1-ROW(),0):OFFSET(A22,-1,0))+1)),"")</f>
-        <v/>
-      </c>
-      <c r="B22" s="41"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>79</v>
+      </c>
       <c r="C22" s="43" t="s">
         <v>75</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E22" s="24"/>
       <c r="F22" s="24"/>
       <c r="G22" s="25">
         <v>43132</v>
       </c>
-      <c r="H22" s="24"/>
+      <c r="H22" s="24" t="s">
+        <v>51</v>
+      </c>
       <c r="I22" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J22" s="27" t="str">
         <f t="shared" ref="J22:J23" ca="1" si="4">IF(P22&lt;&gt;"","完成",IF(L22="-","调整中",IF(K22="超过","需确认","")))</f>
@@ -2163,19 +2203,31 @@
       <c r="O22" s="33"/>
       <c r="P22" s="25"/>
     </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="22" t="str">
+    <row r="23" spans="1:16" ht="24">
+      <c r="A23" s="22">
         <f ca="1">IF(H23&lt;&gt;"",IF(AND(A22&lt;&gt;"",ISNUMBER(A22)=TRUE),A22+1,IF(AND(OR(A22="",AND(A22&lt;&gt;"",ISNUMBER(A22)=FALSE))),MAX(OFFSET(A23,1-ROW(),0):OFFSET(A23,-1,0))+1)),"")</f>
-        <v/>
-      </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="23"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>72</v>
+      </c>
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="26"/>
+      <c r="G23" s="25">
+        <v>43132</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="I23" s="26" t="s">
+        <v>102</v>
+      </c>
       <c r="J23" s="27" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -4222,13 +4274,18 @@
   </autoFilter>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="A2:P98">
-    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="3" stopIfTrue="1">
       <formula>AND($J2="完成")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="2" stopIfTrue="1">
       <formula>AND($J14="完成")=TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+      <formula>AND($J23="完成")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">

--- a/docs/6课题/课题一览.xlsx
+++ b/docs/6课题/课题一览.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="109">
   <si>
     <t>课题
 编号</t>
@@ -313,9 +313,6 @@
     <t>地理分布一览 - 6个数据统计计算</t>
   </si>
   <si>
-    <t>新闻事件事件趋势</t>
-  </si>
-  <si>
     <t>负面新闻跟踪</t>
   </si>
   <si>
@@ -437,7 +434,71 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>查询时间，是画面时间的前一星期吗</t>
+    <t>监测预警风险列表显示</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询时间，是最近一周的数据吗，根据portal情况，是最近一周，否则数据量巨大</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">大数字指的是公司个数？
+</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻事件事件趋势</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>负面新闻跟踪</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>总的预警风险top5数量：
+SELECT CN,COMPANY_ID FROM (SELECT NVL(A.CN,0) + NVL(B.CN,0) CN,NVL(A.COMPANY_ID,B.COMPANY_ID) COMPANY_ID FROM (
+SELECT COUNT(DISTINCT WARNING_TITLE) CN,COMPANY_ID FROM VW_COMPY_WARNINGS
+WHERE TYPE_ID NOT IN(10,12,107) 
+GROUP BY COMPANY_ID)A
+LEFT JOIN(SELECT COUNT(COMPANY_ID) CN,COMPANY_ID 
+FROM COMPY_ANNOUNCE_ALARM A
+INNER JOIN LKP_ALARM_KEYWORD B ON A.ALARM_KEYWORD_CD = B.ALARM_KEYWORD_CD AND
+B.SECOND_TYPE IN ('违法违规','法律诉讼','破产重整','审计风险','评级调整风险','偿付风险','失信','担保方代偿能力风险')
+WHERE NOTICE_DT &gt;= ADD_MONTHS(SYSDATE, -12)
+GROUP BY COMPANY_ID)B ON A.COMPANY_ID  = B.COMPANY_ID
+ORDER BY NVL(A.CN,0) + NVL(B.CN,0) DESC)WHERE ROWNUM &lt; 6;
+top5预警详情：
+SELECT A.COMPANY_ID,A.COMPANY_NM,A.WARNING_TITLE TITLE,B.TYPE_NAME
+FROM VW_COMPY_WARNINGS A
+INNER JOIN COMPY_EVENT_TYPE B ON A.TYPE_ID = B.ID
+WHERE TYPE_ID NOT IN(10,12,107) AND A.COMPANY_ID IN(367046,425762,423393,202992,390042)
+UNION ALL
+SELECT A.COMPANY_ID,B.COMPANY_NM,A.NOTICE_TITLE TITLE,C.FST_TYPE || '-' || C.SECOND_TYPE  TYPE_NAME
+FROM COMPY_ANNOUNCE_ALARM A
+INNER JOIN COMPY_BASICINFO B ON A.COMPANY_ID = B.COMPANY_ID
+INNER JOIN LKP_ALARM_KEYWORD C ON A.ALARM_KEYWORD_CD = C.ALARM_KEYWORD_CD
+AND C.SECOND_TYPE IN ('违法违规','法律诉讼','破产重整','审计风险','评级调整风险','偿付风险','失信','担保方代偿能力风险')
+WHERE NOTICE_DT &gt;= ADD_MONTHS(SYSDATE, -12) AND A.COMPANY_ID IN(367046,425762,423393,202992,390042);
+top5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日新闻统计全网新闻数、负面新闻数：SELECT CN1,CN2 from(
+SELECT COUNT(1)CN1,'1' ID FROM XW_NEWS_COMPANY B
+INNER JOIN NEWS_BASICINFO C ON C.NEWS_BASICINFO_SID = B.NEWS_BASICINFO_SID
+WHERE (B.RELEVANCE &gt; 0.01 OR B.IMPORTANCE &gt; 0) AND TO_CHAR(POST_DT,'YYYY-MM-DD') &gt;= TO_CHAR(SYSDATE,'YYYY-MM-DD')  AND B.COMPANY_ID = 513847)A
+LEFT JOIN 
+(SELECT COUNT(1) CN2,'1' ID FROM XW_NEWS_COMPANY B
+INNER JOIN NEWS_BASICINFO C ON C.NEWS_BASICINFO_SID = B.NEWS_BASICINFO_SID
+WHERE (B.RELEVANCE &gt; 0.01 OR B.IMPORTANCE &gt; 0) 
+AND TO_CHAR(POST_DT,'YYYY-MM-DD') &gt;= TO_CHAR(SYSDATE,'YYYY-MM-DD') AND B.SCORE &lt; 0  AND B.COMPANY_ID = 513847 )B ON A.id = B.id;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>总的新闻：
+SELECT x.*, Z.LABEL from( SELECT d.NEWS_BASICINFO_SID || '-' || d.company_id ID, a.NEWS_BASICINFO_SID INFO_CD, a.TITLE, a.POST_DT, a.PLAIN_TEXT, a.POST_URL, d.company_id, d.SCORE CNN_SCORE, d.IMPORTANCE, d.RELEVANCE, a.MEDIA_NM FROM NEWS_BASICINFO a INNER JOIN XW_NEWS_COMPANY d ON a.NEWS_BASICINFO_SID = d.NEWS_BASICINFO_SID WHERE nvl(d.RELEVANCE,0) &gt; 0.01 OR d.IMPORTANCE != 0)x left JOIN( SELECT to_char(B.NEWS_BASICINFO_SID)||'-'||to_char(B.COMPANY_ID) ID, wm_concat(DISTINCT D.SHEET_L1) LABEL FROM WARNING_NEWS_RESULT A INNER JOIN XW_NEWS_COMPANY B ON A.NEWS_BASICINFO_SID = B.NEWS_BASICINFO_SID AND A.COMPANY_ID = B.COMPANY_ID INNER JOIN RULE C ON A.RULE_ID = C.RULE_ID AND C.SHEET_TYPE = 0 INNER JOIN SHEET D ON C.SHEET_ID = D.SHEET_ID AND D.SHEET_TYPE = 0 GROUP BY B.NEWS_BASICINFO_SID,B.COMPANY_ID ) z ON x.ID = z.ID;
+条件：
+cnnscore &lt;0 and relevant &gt;= 0.8</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -799,7 +860,28 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1221,10 +1303,10 @@
   <dimension ref="A1:P98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="G15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
+      <selection pane="bottomRight" activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1325,15 +1407,15 @@
         <v>51</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J2" s="21" t="str">
         <f ca="1">IF(P2&lt;&gt;"","完成",IF(L2="-","调整中",IF(K2="超过","需确认","")))</f>
-        <v/>
+        <v>需确认</v>
       </c>
       <c r="K2" s="21" t="str">
         <f t="shared" ref="K2:K29" ca="1" si="0">IF(L2="-","",IF(L2&lt;&gt;"",IF(P2&lt;&gt;"","",IF(AND((L2-TODAY())&gt;=1,(L2-TODAY())&lt;=3),"注意",IF((L2-TODAY())&lt;0,"超过",IF(L2=TODAY(),"当日",L2-TODAY())))),""))</f>
-        <v>当日</v>
+        <v>超过</v>
       </c>
       <c r="L2" s="30">
         <v>43132</v>
@@ -1374,11 +1456,11 @@
       </c>
       <c r="J3" s="27" t="str">
         <f ca="1">IF(P3&lt;&gt;"","完成",IF(L3="-","调整中",IF(K3="超过","需确认","")))</f>
-        <v/>
+        <v>需确认</v>
       </c>
       <c r="K3" s="27" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>当日</v>
+        <v>超过</v>
       </c>
       <c r="L3" s="32">
         <v>43132</v>
@@ -1460,11 +1542,11 @@
       </c>
       <c r="J5" s="27" t="str">
         <f t="shared" ref="J5:J19" ca="1" si="1">IF(P5&lt;&gt;"","完成",IF(L5="-","调整中",IF(K5="超过","需确认","")))</f>
-        <v/>
+        <v>需确认</v>
       </c>
       <c r="K5" s="27" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>当日</v>
+        <v>超过</v>
       </c>
       <c r="L5" s="32">
         <v>43132</v>
@@ -1515,7 +1597,7 @@
       <c r="M6" s="24"/>
       <c r="N6" s="23"/>
       <c r="O6" s="33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P6" s="25">
         <v>43132</v>
@@ -1548,11 +1630,11 @@
       </c>
       <c r="J7" s="27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>需确认</v>
       </c>
       <c r="K7" s="27" t="str">
         <f t="shared" ref="K7" ca="1" si="2">IF(L7="-","",IF(L7&lt;&gt;"",IF(P7&lt;&gt;"","",IF(AND((L7-TODAY())&gt;=1,(L7-TODAY())&lt;=3),"注意",IF((L7-TODAY())&lt;0,"超过",IF(L7=TODAY(),"当日",L7-TODAY())))),""))</f>
-        <v>当日</v>
+        <v>超过</v>
       </c>
       <c r="L7" s="32">
         <v>43132</v>
@@ -1574,7 +1656,7 @@
         <v>68</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E8" s="24"/>
       <c r="F8" s="24"/>
@@ -1601,7 +1683,7 @@
       <c r="M8" s="24"/>
       <c r="N8" s="23"/>
       <c r="O8" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P8" s="25">
         <v>43132</v>
@@ -1630,7 +1712,7 @@
         <v>51</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J9" s="27" t="str">
         <f t="shared" si="1"/>
@@ -1646,7 +1728,7 @@
       <c r="M9" s="24"/>
       <c r="N9" s="23"/>
       <c r="O9" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P9" s="25">
         <v>43132</v>
@@ -1679,11 +1761,11 @@
       </c>
       <c r="J10" s="27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>需确认</v>
       </c>
       <c r="K10" s="27" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>当日</v>
+        <v>超过</v>
       </c>
       <c r="L10" s="32">
         <v>43132</v>
@@ -1705,7 +1787,7 @@
         <v>68</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
@@ -1732,13 +1814,13 @@
       <c r="M11" s="24"/>
       <c r="N11" s="23"/>
       <c r="O11" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P11" s="25">
         <v>43132</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="36">
+    <row r="12" spans="1:16" ht="67.5" customHeight="1">
       <c r="A12" s="22">
         <f ca="1">IF(H12&lt;&gt;"",IF(AND(A11&lt;&gt;"",ISNUMBER(A11)=TRUE),A11+1,IF(AND(OR(A11="",AND(A11&lt;&gt;"",ISNUMBER(A11)=FALSE))),MAX(OFFSET(A12,1-ROW(),0):OFFSET(A12,-1,0))+1)),"")</f>
         <v>11</v>
@@ -1750,7 +1832,7 @@
         <v>68</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
@@ -1765,21 +1847,23 @@
       </c>
       <c r="J12" s="27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>需确认</v>
       </c>
       <c r="K12" s="27" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>当日</v>
+        <v>超过</v>
       </c>
       <c r="L12" s="32">
         <v>43132</v>
       </c>
       <c r="M12" s="24"/>
       <c r="N12" s="23"/>
-      <c r="O12" s="33"/>
+      <c r="O12" s="33" t="s">
+        <v>106</v>
+      </c>
       <c r="P12" s="25"/>
     </row>
-    <row r="13" spans="1:16" ht="24">
+    <row r="13" spans="1:16" ht="99.95" customHeight="1">
       <c r="A13" s="22">
         <f ca="1">IF(H13&lt;&gt;"",IF(AND(A12&lt;&gt;"",ISNUMBER(A12)=TRUE),A12+1,IF(AND(OR(A12="",AND(A12&lt;&gt;"",ISNUMBER(A12)=FALSE))),MAX(OFFSET(A13,1-ROW(),0):OFFSET(A13,-1,0))+1)),"")</f>
         <v>12</v>
@@ -1791,7 +1875,7 @@
         <v>68</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
@@ -1806,21 +1890,23 @@
       </c>
       <c r="J13" s="27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>需确认</v>
       </c>
       <c r="K13" s="27" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>当日</v>
+        <v>超过</v>
       </c>
       <c r="L13" s="32">
         <v>43132</v>
       </c>
       <c r="M13" s="24"/>
       <c r="N13" s="23"/>
-      <c r="O13" s="33"/>
+      <c r="O13" s="33" t="s">
+        <v>107</v>
+      </c>
       <c r="P13" s="25"/>
     </row>
-    <row r="14" spans="1:16" ht="24">
+    <row r="14" spans="1:16" ht="99.95" customHeight="1">
       <c r="A14" s="22">
         <f ca="1">IF(H14&lt;&gt;"",IF(AND(A13&lt;&gt;"",ISNUMBER(A13)=TRUE),A13+1,IF(AND(OR(A13="",AND(A13&lt;&gt;"",ISNUMBER(A13)=FALSE))),MAX(OFFSET(A14,1-ROW(),0):OFFSET(A14,-1,0))+1)),"")</f>
         <v>13</v>
@@ -1832,7 +1918,7 @@
         <v>68</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="E14" s="24"/>
       <c r="F14" s="24"/>
@@ -1847,18 +1933,20 @@
       </c>
       <c r="J14" s="27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>需确认</v>
       </c>
       <c r="K14" s="27" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>当日</v>
+        <v>超过</v>
       </c>
       <c r="L14" s="32">
         <v>43132</v>
       </c>
       <c r="M14" s="24"/>
       <c r="N14" s="23"/>
-      <c r="O14" s="33"/>
+      <c r="O14" s="33" t="s">
+        <v>108</v>
+      </c>
       <c r="P14" s="25"/>
     </row>
     <row r="15" spans="1:16" ht="36">
@@ -1867,13 +1955,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C15" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="23" t="s">
         <v>75</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>76</v>
       </c>
       <c r="E15" s="24"/>
       <c r="F15" s="24"/>
@@ -1884,7 +1972,7 @@
         <v>51</v>
       </c>
       <c r="I15" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J15" s="27" t="str">
         <f t="shared" si="1"/>
@@ -1900,7 +1988,7 @@
       <c r="M15" s="24"/>
       <c r="N15" s="23"/>
       <c r="O15" s="33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P15" s="25">
         <v>43132</v>
@@ -1912,13 +2000,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C16" s="43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
@@ -1929,7 +2017,7 @@
         <v>51</v>
       </c>
       <c r="I16" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J16" s="27" t="str">
         <f t="shared" si="1"/>
@@ -1945,7 +2033,7 @@
       <c r="M16" s="24"/>
       <c r="N16" s="23"/>
       <c r="O16" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P16" s="25">
         <v>43132</v>
@@ -1957,13 +2045,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="23" t="s">
         <v>79</v>
-      </c>
-      <c r="C17" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>80</v>
       </c>
       <c r="E17" s="24"/>
       <c r="F17" s="24"/>
@@ -1974,7 +2062,7 @@
         <v>51</v>
       </c>
       <c r="I17" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J17" s="27" t="str">
         <f t="shared" si="1"/>
@@ -1990,7 +2078,7 @@
       <c r="M17" s="24"/>
       <c r="N17" s="23"/>
       <c r="O17" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P17" s="25">
         <v>43132</v>
@@ -2002,13 +2090,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
@@ -2019,7 +2107,7 @@
         <v>51</v>
       </c>
       <c r="I18" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J18" s="27" t="str">
         <f t="shared" si="1"/>
@@ -2035,7 +2123,7 @@
       <c r="M18" s="24"/>
       <c r="N18" s="23"/>
       <c r="O18" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P18" s="25">
         <v>43132</v>
@@ -2047,13 +2135,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
@@ -2064,7 +2152,7 @@
         <v>51</v>
       </c>
       <c r="I19" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J19" s="27" t="str">
         <f t="shared" si="1"/>
@@ -2080,7 +2168,7 @@
       <c r="M19" s="24"/>
       <c r="N19" s="23"/>
       <c r="O19" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P19" s="25">
         <v>43132</v>
@@ -2092,13 +2180,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C20" s="43" t="s">
         <v>68</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
@@ -2109,7 +2197,7 @@
         <v>51</v>
       </c>
       <c r="I20" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J20" s="27" t="str">
         <f t="shared" ref="J20:J61" ca="1" si="3">IF(P20&lt;&gt;"","完成",IF(L20="-","调整中",IF(K20="超过","需确认","")))</f>
@@ -2137,7 +2225,7 @@
         <v>68</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E21" s="24"/>
       <c r="F21" s="24"/>
@@ -2148,7 +2236,7 @@
         <v>51</v>
       </c>
       <c r="I21" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J21" s="27" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2170,13 +2258,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E22" s="24"/>
       <c r="F22" s="24"/>
@@ -2187,7 +2275,7 @@
         <v>51</v>
       </c>
       <c r="I22" s="26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J22" s="27" t="str">
         <f t="shared" ref="J22:J23" ca="1" si="4">IF(P22&lt;&gt;"","完成",IF(L22="-","调整中",IF(K22="超过","需确认","")))</f>
@@ -2215,7 +2303,7 @@
         <v>68</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
@@ -2242,19 +2330,29 @@
       <c r="O23" s="33"/>
       <c r="P23" s="25"/>
     </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="22" t="str">
+    <row r="24" spans="1:16" ht="24">
+      <c r="A24" s="22">
         <f ca="1">IF(H24&lt;&gt;"",IF(AND(A23&lt;&gt;"",ISNUMBER(A23)=TRUE),A23+1,IF(AND(OR(A23="",AND(A23&lt;&gt;"",ISNUMBER(A23)=FALSE))),MAX(OFFSET(A24,1-ROW(),0):OFFSET(A24,-1,0))+1)),"")</f>
-        <v/>
+        <v>23</v>
       </c>
       <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="23"/>
+      <c r="C24" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>95</v>
+      </c>
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="26"/>
+      <c r="G24" s="25">
+        <v>43133</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="I24" s="26" t="s">
+        <v>103</v>
+      </c>
       <c r="J24" s="27" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
@@ -4274,22 +4372,37 @@
   </autoFilter>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="A2:P98">
-    <cfRule type="expression" dxfId="10" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="6" stopIfTrue="1">
       <formula>AND($J2="完成")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="9" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="5" stopIfTrue="1">
       <formula>AND($J14="完成")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="4" stopIfTrue="1">
       <formula>AND($J23="完成")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O12">
+    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
+      <formula>AND($H12="完成")=TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O13">
+    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
+      <formula>AND($H13="完成")=TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O14">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+      <formula>AND($H14="完成")=TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H99:H65532 M99:M65532 I3:I65532 D1:F1 N1:P1048576 L1:L1048576 M1 H1:I1 G1:G1048576 A1:C1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H99:H65532 M99:M65532 I3:I65532 D1:F1 A1:C1048576 L1:L1048576 M1 H1:I1 G1:G1048576 N1:P1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F99:F65532 E2:E65532">
       <formula1>w02_紧急性</formula1>
     </dataValidation>

--- a/docs/6课题/课题一览.xlsx
+++ b/docs/6课题/课题一览.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="109">
   <si>
     <t>课题
 编号</t>
@@ -208,12 +208,6 @@
 2.主板挂牌公司条件是什么
 3.中小板挂牌公司条件是什么
 4.新三版挂牌公司条件是什么</t>
-  </si>
-  <si>
-    <t>1.访问的数据表是什么
-2.指标计算条件
-3.命中指标详情的条件</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>数据显示的根据是什么</t>
@@ -442,11 +436,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">大数字指的是公司个数？
-</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>新闻事件事件趋势</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -499,6 +488,17 @@
 SELECT x.*, Z.LABEL from( SELECT d.NEWS_BASICINFO_SID || '-' || d.company_id ID, a.NEWS_BASICINFO_SID INFO_CD, a.TITLE, a.POST_DT, a.PLAIN_TEXT, a.POST_URL, d.company_id, d.SCORE CNN_SCORE, d.IMPORTANCE, d.RELEVANCE, a.MEDIA_NM FROM NEWS_BASICINFO a INNER JOIN XW_NEWS_COMPANY d ON a.NEWS_BASICINFO_SID = d.NEWS_BASICINFO_SID WHERE nvl(d.RELEVANCE,0) &gt; 0.01 OR d.IMPORTANCE != 0)x left JOIN( SELECT to_char(B.NEWS_BASICINFO_SID)||'-'||to_char(B.COMPANY_ID) ID, wm_concat(DISTINCT D.SHEET_L1) LABEL FROM WARNING_NEWS_RESULT A INNER JOIN XW_NEWS_COMPANY B ON A.NEWS_BASICINFO_SID = B.NEWS_BASICINFO_SID AND A.COMPANY_ID = B.COMPANY_ID INNER JOIN RULE C ON A.RULE_ID = C.RULE_ID AND C.SHEET_TYPE = 0 INNER JOIN SHEET D ON C.SHEET_ID = D.SHEET_ID AND D.SHEET_TYPE = 0 GROUP BY B.NEWS_BASICINFO_SID,B.COMPANY_ID ) z ON x.ID = z.ID;
 条件：
 cnnscore &lt;0 and relevant &gt;= 0.8</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.访问的数据表是什么
+2.指标计算条件
+3.命中指标详情的条件</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">大数字指的是公司个数？还是指风险类别里包含的各种风险的个数？
+</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -860,56 +860,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1303,10 +1254,10 @@
   <dimension ref="A1:P98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="G17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O5" sqref="O5"/>
+      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1335,13 +1286,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>64</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>65</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>1</v>
@@ -1386,13 +1337,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>66</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>67</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>13</v>
@@ -1407,7 +1358,7 @@
         <v>51</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J2" s="21" t="str">
         <f ca="1">IF(P2&lt;&gt;"","完成",IF(L2="-","调整中",IF(K2="超过","需确认","")))</f>
@@ -1431,10 +1382,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>47</v>
@@ -1476,10 +1427,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>48</v>
@@ -1521,10 +1472,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>52</v>
@@ -1538,7 +1489,7 @@
         <v>46</v>
       </c>
       <c r="I5" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J5" s="27" t="str">
         <f t="shared" ref="J5:J19" ca="1" si="1">IF(P5&lt;&gt;"","完成",IF(L5="-","调整中",IF(K5="超过","需确认","")))</f>
@@ -1554,7 +1505,7 @@
       <c r="M5" s="24"/>
       <c r="N5" s="23"/>
       <c r="O5" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P5" s="25"/>
     </row>
@@ -1564,13 +1515,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="23" t="s">
         <v>68</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>69</v>
       </c>
       <c r="E6" s="24"/>
       <c r="F6" s="24"/>
@@ -1581,7 +1532,7 @@
         <v>51</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J6" s="27" t="str">
         <f t="shared" si="1"/>
@@ -1597,7 +1548,7 @@
       <c r="M6" s="24"/>
       <c r="N6" s="23"/>
       <c r="O6" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P6" s="25">
         <v>43132</v>
@@ -1609,13 +1560,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="23" t="s">
         <v>68</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>69</v>
       </c>
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
@@ -1626,7 +1577,7 @@
         <v>46</v>
       </c>
       <c r="I7" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J7" s="27" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1650,13 +1601,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E8" s="24"/>
       <c r="F8" s="24"/>
@@ -1667,7 +1618,7 @@
         <v>51</v>
       </c>
       <c r="I8" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J8" s="27" t="str">
         <f t="shared" si="1"/>
@@ -1683,7 +1634,7 @@
       <c r="M8" s="24"/>
       <c r="N8" s="23"/>
       <c r="O8" s="33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P8" s="25">
         <v>43132</v>
@@ -1695,13 +1646,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
@@ -1712,7 +1663,7 @@
         <v>51</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J9" s="27" t="str">
         <f t="shared" si="1"/>
@@ -1728,7 +1679,7 @@
       <c r="M9" s="24"/>
       <c r="N9" s="23"/>
       <c r="O9" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P9" s="25">
         <v>43132</v>
@@ -1740,13 +1691,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
@@ -1781,13 +1732,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
@@ -1798,7 +1749,7 @@
         <v>51</v>
       </c>
       <c r="I11" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J11" s="27" t="str">
         <f t="shared" si="1"/>
@@ -1814,7 +1765,7 @@
       <c r="M11" s="24"/>
       <c r="N11" s="23"/>
       <c r="O11" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P11" s="25">
         <v>43132</v>
@@ -1826,13 +1777,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
@@ -1843,7 +1794,7 @@
         <v>46</v>
       </c>
       <c r="I12" s="26" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="J12" s="27" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1859,7 +1810,7 @@
       <c r="M12" s="24"/>
       <c r="N12" s="23"/>
       <c r="O12" s="33" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P12" s="25"/>
     </row>
@@ -1869,13 +1820,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
@@ -1886,7 +1837,7 @@
         <v>46</v>
       </c>
       <c r="I13" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J13" s="27" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1902,7 +1853,7 @@
       <c r="M13" s="24"/>
       <c r="N13" s="23"/>
       <c r="O13" s="33" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P13" s="25"/>
     </row>
@@ -1912,13 +1863,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E14" s="24"/>
       <c r="F14" s="24"/>
@@ -1929,7 +1880,7 @@
         <v>46</v>
       </c>
       <c r="I14" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J14" s="27" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1945,7 +1896,7 @@
       <c r="M14" s="24"/>
       <c r="N14" s="23"/>
       <c r="O14" s="33" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P14" s="25"/>
     </row>
@@ -1955,13 +1906,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C15" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="23" t="s">
         <v>74</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>75</v>
       </c>
       <c r="E15" s="24"/>
       <c r="F15" s="24"/>
@@ -1972,7 +1923,7 @@
         <v>51</v>
       </c>
       <c r="I15" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J15" s="27" t="str">
         <f t="shared" si="1"/>
@@ -1988,7 +1939,7 @@
       <c r="M15" s="24"/>
       <c r="N15" s="23"/>
       <c r="O15" s="33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P15" s="25">
         <v>43132</v>
@@ -2000,13 +1951,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16" s="43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
@@ -2017,7 +1968,7 @@
         <v>51</v>
       </c>
       <c r="I16" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J16" s="27" t="str">
         <f t="shared" si="1"/>
@@ -2033,7 +1984,7 @@
       <c r="M16" s="24"/>
       <c r="N16" s="23"/>
       <c r="O16" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P16" s="25">
         <v>43132</v>
@@ -2045,13 +1996,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="23" t="s">
         <v>78</v>
-      </c>
-      <c r="C17" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>79</v>
       </c>
       <c r="E17" s="24"/>
       <c r="F17" s="24"/>
@@ -2062,7 +2013,7 @@
         <v>51</v>
       </c>
       <c r="I17" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J17" s="27" t="str">
         <f t="shared" si="1"/>
@@ -2078,7 +2029,7 @@
       <c r="M17" s="24"/>
       <c r="N17" s="23"/>
       <c r="O17" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P17" s="25">
         <v>43132</v>
@@ -2090,13 +2041,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
@@ -2107,7 +2058,7 @@
         <v>51</v>
       </c>
       <c r="I18" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J18" s="27" t="str">
         <f t="shared" si="1"/>
@@ -2123,7 +2074,7 @@
       <c r="M18" s="24"/>
       <c r="N18" s="23"/>
       <c r="O18" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P18" s="25">
         <v>43132</v>
@@ -2135,13 +2086,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
@@ -2152,7 +2103,7 @@
         <v>51</v>
       </c>
       <c r="I19" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J19" s="27" t="str">
         <f t="shared" si="1"/>
@@ -2168,7 +2119,7 @@
       <c r="M19" s="24"/>
       <c r="N19" s="23"/>
       <c r="O19" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P19" s="25">
         <v>43132</v>
@@ -2180,13 +2131,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
@@ -2197,7 +2148,7 @@
         <v>51</v>
       </c>
       <c r="I20" s="26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J20" s="27" t="str">
         <f t="shared" ref="J20:J61" ca="1" si="3">IF(P20&lt;&gt;"","完成",IF(L20="-","调整中",IF(K20="超过","需确认","")))</f>
@@ -2219,13 +2170,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C21" s="43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E21" s="24"/>
       <c r="F21" s="24"/>
@@ -2236,7 +2187,7 @@
         <v>51</v>
       </c>
       <c r="I21" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J21" s="27" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2258,13 +2209,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E22" s="24"/>
       <c r="F22" s="24"/>
@@ -2275,7 +2226,7 @@
         <v>51</v>
       </c>
       <c r="I22" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J22" s="27" t="str">
         <f t="shared" ref="J22:J23" ca="1" si="4">IF(P22&lt;&gt;"","完成",IF(L22="-","调整中",IF(K22="超过","需确认","")))</f>
@@ -2297,13 +2248,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
@@ -2314,7 +2265,7 @@
         <v>51</v>
       </c>
       <c r="I23" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J23" s="27" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -2330,17 +2281,19 @@
       <c r="O23" s="33"/>
       <c r="P23" s="25"/>
     </row>
-    <row r="24" spans="1:16" ht="24">
+    <row r="24" spans="1:16" ht="36">
       <c r="A24" s="22">
         <f ca="1">IF(H24&lt;&gt;"",IF(AND(A23&lt;&gt;"",ISNUMBER(A23)=TRUE),A23+1,IF(AND(OR(A23="",AND(A23&lt;&gt;"",ISNUMBER(A23)=FALSE))),MAX(OFFSET(A24,1-ROW(),0):OFFSET(A24,-1,0))+1)),"")</f>
         <v>23</v>
       </c>
-      <c r="B24" s="41"/>
+      <c r="B24" s="41" t="s">
+        <v>65</v>
+      </c>
       <c r="C24" s="43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
@@ -2351,7 +2304,7 @@
         <v>51</v>
       </c>
       <c r="I24" s="26" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="J24" s="27" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4372,27 +4325,27 @@
   </autoFilter>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="A2:P98">
-    <cfRule type="expression" dxfId="13" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
       <formula>AND($J2="完成")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="12" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
       <formula>AND($J14="完成")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="11" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
       <formula>AND($J23="完成")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O12">
-    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
       <formula>AND($H12="完成")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O13">
-    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
       <formula>AND($H13="完成")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4402,7 +4355,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H99:H65532 M99:M65532 I3:I65532 D1:F1 A1:C1048576 L1:L1048576 M1 H1:I1 G1:G1048576 N1:P1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H99:H65532 M99:M65532 I3:I65532 D1:F1 N1:P1048576 L1:L1048576 M1 H1:I1 G1:G1048576 A1:C1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F99:F65532 E2:E65532">
       <formula1>w02_紧急性</formula1>
     </dataValidation>

--- a/docs/6课题/课题一览.xlsx
+++ b/docs/6课题/课题一览.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="113">
   <si>
     <t>课题
 编号</t>
@@ -499,6 +499,22 @@
   <si>
     <t xml:space="preserve">大数字指的是公司个数？还是指风险类别里包含的各种风险的个数？
 </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过新开标签页面显示</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>与portal一致，查近一个月的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险类别里包含的各种风险的个数</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -860,14 +876,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1257,7 +1266,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="G17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomRight" activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -2151,8 +2160,8 @@
         <v>92</v>
       </c>
       <c r="J20" s="27" t="str">
-        <f t="shared" ref="J20:J61" ca="1" si="3">IF(P20&lt;&gt;"","完成",IF(L20="-","调整中",IF(K20="超过","需确认","")))</f>
-        <v/>
+        <f t="shared" ref="J20:J61" si="3">IF(P20&lt;&gt;"","完成",IF(L20="-","调整中",IF(K20="超过","需确认","")))</f>
+        <v>完成</v>
       </c>
       <c r="K20" s="27" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2161,8 +2170,12 @@
       <c r="L20" s="32"/>
       <c r="M20" s="24"/>
       <c r="N20" s="23"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="25"/>
+      <c r="O20" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="P20" s="25">
+        <v>43133</v>
+      </c>
     </row>
     <row r="21" spans="1:16" ht="24">
       <c r="A21" s="22">
@@ -2190,8 +2203,8 @@
         <v>95</v>
       </c>
       <c r="J21" s="27" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
       <c r="K21" s="27" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2200,8 +2213,12 @@
       <c r="L21" s="32"/>
       <c r="M21" s="24"/>
       <c r="N21" s="23"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="25"/>
+      <c r="O21" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="P21" s="25">
+        <v>43133</v>
+      </c>
     </row>
     <row r="22" spans="1:16" ht="24">
       <c r="A22" s="22">
@@ -2268,8 +2285,8 @@
         <v>101</v>
       </c>
       <c r="J23" s="27" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>完成</v>
       </c>
       <c r="K23" s="27" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2278,8 +2295,12 @@
       <c r="L23" s="32"/>
       <c r="M23" s="24"/>
       <c r="N23" s="23"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="25"/>
+      <c r="O23" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="P23" s="25">
+        <v>43133</v>
+      </c>
     </row>
     <row r="24" spans="1:16" ht="36">
       <c r="A24" s="22">
@@ -2307,8 +2328,8 @@
         <v>108</v>
       </c>
       <c r="J24" s="27" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
       <c r="K24" s="27" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2317,8 +2338,12 @@
       <c r="L24" s="32"/>
       <c r="M24" s="24"/>
       <c r="N24" s="23"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="25"/>
+      <c r="O24" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="P24" s="25">
+        <v>43133</v>
+      </c>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="22" t="str">
@@ -4325,32 +4350,32 @@
   </autoFilter>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="A2:P98">
-    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
       <formula>AND($J2="完成")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
       <formula>AND($J14="完成")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>AND($J23="完成")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O12">
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
       <formula>AND($H12="完成")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O13">
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>AND($H13="完成")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>AND($H14="完成")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>

--- a/docs/6课题/课题一览.xlsx
+++ b/docs/6课题/课题一览.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="121">
   <si>
     <t>课题
 编号</t>
@@ -375,10 +375,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>功能取消</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>显示公司数量</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -413,10 +409,6 @@
   </si>
   <si>
     <t>事件公告风险</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>事件公告与舆情公告不同的话，那么数据条件是什么</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -515,6 +507,46 @@
   </si>
   <si>
     <t>风险类别里包含的各种风险的个数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>舆情风险趋势图</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>舆情风险趋势图是指新闻还是公告，还是新闻和公告的集合</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能取消</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能取消</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻舆情风险</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>RULE表中的SHEET_TYPE：公告 1是事件 2是风险</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>热点新闻</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>就是舆情新闻吗？</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有风险的框的表示是否显示</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>是指事件还是风险公告，或是都包含</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -876,7 +908,98 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="19">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1263,10 +1386,10 @@
   <dimension ref="A1:P98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="G17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="G20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P22" sqref="P22"/>
+      <selection pane="bottomRight" activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1557,7 +1680,7 @@
       <c r="M6" s="24"/>
       <c r="N6" s="23"/>
       <c r="O6" s="33" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="P6" s="25">
         <v>43132</v>
@@ -1589,20 +1712,24 @@
         <v>57</v>
       </c>
       <c r="J7" s="27" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>需确认</v>
+        <f t="shared" si="1"/>
+        <v>完成</v>
       </c>
       <c r="K7" s="27" t="str">
         <f t="shared" ref="K7" ca="1" si="2">IF(L7="-","",IF(L7&lt;&gt;"",IF(P7&lt;&gt;"","",IF(AND((L7-TODAY())&gt;=1,(L7-TODAY())&lt;=3),"注意",IF((L7-TODAY())&lt;0,"超过",IF(L7=TODAY(),"当日",L7-TODAY())))),""))</f>
-        <v>超过</v>
+        <v/>
       </c>
       <c r="L7" s="32">
         <v>43132</v>
       </c>
       <c r="M7" s="24"/>
       <c r="N7" s="23"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="25"/>
+      <c r="O7" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="P7" s="25">
+        <v>43132</v>
+      </c>
     </row>
     <row r="8" spans="1:16" ht="24">
       <c r="A8" s="22">
@@ -1643,7 +1770,7 @@
       <c r="M8" s="24"/>
       <c r="N8" s="23"/>
       <c r="O8" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P8" s="25">
         <v>43132</v>
@@ -1688,7 +1815,7 @@
       <c r="M9" s="24"/>
       <c r="N9" s="23"/>
       <c r="O9" s="33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P9" s="25">
         <v>43132</v>
@@ -1774,7 +1901,7 @@
       <c r="M11" s="24"/>
       <c r="N11" s="23"/>
       <c r="O11" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P11" s="25">
         <v>43132</v>
@@ -1792,7 +1919,7 @@
         <v>67</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
@@ -1803,15 +1930,15 @@
         <v>46</v>
       </c>
       <c r="I12" s="26" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J12" s="27" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>需确认</v>
+        <f t="shared" si="1"/>
+        <v>完成</v>
       </c>
       <c r="K12" s="27" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>超过</v>
+        <v/>
       </c>
       <c r="L12" s="32">
         <v>43132</v>
@@ -1819,9 +1946,11 @@
       <c r="M12" s="24"/>
       <c r="N12" s="23"/>
       <c r="O12" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="P12" s="25"/>
+        <v>102</v>
+      </c>
+      <c r="P12" s="25">
+        <v>43132</v>
+      </c>
     </row>
     <row r="13" spans="1:16" ht="99.95" customHeight="1">
       <c r="A13" s="22">
@@ -1835,7 +1964,7 @@
         <v>67</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
@@ -1849,12 +1978,12 @@
         <v>55</v>
       </c>
       <c r="J13" s="27" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>需确认</v>
+        <f t="shared" si="1"/>
+        <v>完成</v>
       </c>
       <c r="K13" s="27" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>超过</v>
+        <v/>
       </c>
       <c r="L13" s="32">
         <v>43132</v>
@@ -1862,9 +1991,11 @@
       <c r="M13" s="24"/>
       <c r="N13" s="23"/>
       <c r="O13" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="P13" s="25"/>
+        <v>103</v>
+      </c>
+      <c r="P13" s="25">
+        <v>43132</v>
+      </c>
     </row>
     <row r="14" spans="1:16" ht="99.95" customHeight="1">
       <c r="A14" s="22">
@@ -1878,7 +2009,7 @@
         <v>67</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E14" s="24"/>
       <c r="F14" s="24"/>
@@ -1892,12 +2023,12 @@
         <v>55</v>
       </c>
       <c r="J14" s="27" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>需确认</v>
+        <f t="shared" si="1"/>
+        <v>完成</v>
       </c>
       <c r="K14" s="27" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>超过</v>
+        <v/>
       </c>
       <c r="L14" s="32">
         <v>43132</v>
@@ -1905,9 +2036,11 @@
       <c r="M14" s="24"/>
       <c r="N14" s="23"/>
       <c r="O14" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="P14" s="25"/>
+        <v>104</v>
+      </c>
+      <c r="P14" s="25">
+        <v>43132</v>
+      </c>
     </row>
     <row r="15" spans="1:16" ht="36">
       <c r="A15" s="22">
@@ -1948,7 +2081,7 @@
       <c r="M15" s="24"/>
       <c r="N15" s="23"/>
       <c r="O15" s="33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P15" s="25">
         <v>43132</v>
@@ -1993,7 +2126,7 @@
       <c r="M16" s="24"/>
       <c r="N16" s="23"/>
       <c r="O16" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P16" s="25">
         <v>43132</v>
@@ -2038,7 +2171,7 @@
       <c r="M17" s="24"/>
       <c r="N17" s="23"/>
       <c r="O17" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P17" s="25">
         <v>43132</v>
@@ -2083,7 +2216,7 @@
       <c r="M18" s="24"/>
       <c r="N18" s="23"/>
       <c r="O18" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P18" s="25">
         <v>43132</v>
@@ -2128,7 +2261,7 @@
       <c r="M19" s="24"/>
       <c r="N19" s="23"/>
       <c r="O19" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P19" s="25">
         <v>43132</v>
@@ -2140,13 +2273,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C20" s="43" t="s">
         <v>67</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
@@ -2157,7 +2290,7 @@
         <v>51</v>
       </c>
       <c r="I20" s="26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J20" s="27" t="str">
         <f t="shared" ref="J20:J61" si="3">IF(P20&lt;&gt;"","完成",IF(L20="-","调整中",IF(K20="超过","需确认","")))</f>
@@ -2171,7 +2304,7 @@
       <c r="M20" s="24"/>
       <c r="N20" s="23"/>
       <c r="O20" s="33" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P20" s="25">
         <v>43133</v>
@@ -2189,7 +2322,7 @@
         <v>67</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E21" s="24"/>
       <c r="F21" s="24"/>
@@ -2200,11 +2333,11 @@
         <v>51</v>
       </c>
       <c r="I21" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J21" s="27" t="str">
-        <f t="shared" si="3"/>
-        <v>完成</v>
+        <f t="shared" ca="1" si="3"/>
+        <v/>
       </c>
       <c r="K21" s="27" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2214,11 +2347,9 @@
       <c r="M21" s="24"/>
       <c r="N21" s="23"/>
       <c r="O21" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="P21" s="25">
-        <v>43133</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="P21" s="25"/>
     </row>
     <row r="22" spans="1:16" ht="24">
       <c r="A22" s="22">
@@ -2232,7 +2363,7 @@
         <v>73</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E22" s="24"/>
       <c r="F22" s="24"/>
@@ -2243,7 +2374,7 @@
         <v>51</v>
       </c>
       <c r="I22" s="26" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="J22" s="27" t="str">
         <f t="shared" ref="J22:J23" ca="1" si="4">IF(P22&lt;&gt;"","完成",IF(L22="-","调整中",IF(K22="超过","需确认","")))</f>
@@ -2256,7 +2387,9 @@
       <c r="L22" s="32"/>
       <c r="M22" s="24"/>
       <c r="N22" s="23"/>
-      <c r="O22" s="33"/>
+      <c r="O22" s="33" t="s">
+        <v>116</v>
+      </c>
       <c r="P22" s="25"/>
     </row>
     <row r="23" spans="1:16" ht="24">
@@ -2282,7 +2415,7 @@
         <v>51</v>
       </c>
       <c r="I23" s="26" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J23" s="27" t="str">
         <f t="shared" si="4"/>
@@ -2296,7 +2429,7 @@
       <c r="M23" s="24"/>
       <c r="N23" s="23"/>
       <c r="O23" s="33" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P23" s="25">
         <v>43133</v>
@@ -2314,7 +2447,7 @@
         <v>67</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
@@ -2325,7 +2458,7 @@
         <v>51</v>
       </c>
       <c r="I24" s="26" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J24" s="27" t="str">
         <f t="shared" si="3"/>
@@ -2339,25 +2472,37 @@
       <c r="M24" s="24"/>
       <c r="N24" s="23"/>
       <c r="O24" s="33" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="P24" s="25">
         <v>43133</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
-      <c r="A25" s="22" t="str">
+    <row r="25" spans="1:16" ht="24">
+      <c r="A25" s="22">
         <f ca="1">IF(H25&lt;&gt;"",IF(AND(A24&lt;&gt;"",ISNUMBER(A24)=TRUE),A24+1,IF(AND(OR(A24="",AND(A24&lt;&gt;"",ISNUMBER(A24)=FALSE))),MAX(OFFSET(A25,1-ROW(),0):OFFSET(A25,-1,0))+1)),"")</f>
-        <v/>
-      </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="23"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>111</v>
+      </c>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="26"/>
+      <c r="G25" s="25">
+        <v>43134</v>
+      </c>
+      <c r="H25" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="I25" s="26" t="s">
+        <v>112</v>
+      </c>
       <c r="J25" s="27" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
@@ -2372,19 +2517,31 @@
       <c r="O25" s="37"/>
       <c r="P25" s="25"/>
     </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="22" t="str">
+    <row r="26" spans="1:16" ht="24">
+      <c r="A26" s="22">
         <f ca="1">IF(H26&lt;&gt;"",IF(AND(A25&lt;&gt;"",ISNUMBER(A25)=TRUE),A25+1,IF(AND(OR(A25="",AND(A25&lt;&gt;"",ISNUMBER(A25)=FALSE))),MAX(OFFSET(A26,1-ROW(),0):OFFSET(A26,-1,0))+1)),"")</f>
-        <v/>
-      </c>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="23"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>115</v>
+      </c>
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="26"/>
+      <c r="G26" s="25">
+        <v>43134</v>
+      </c>
+      <c r="H26" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="I26" s="26" t="s">
+        <v>119</v>
+      </c>
       <c r="J26" s="27" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
@@ -2399,19 +2556,31 @@
       <c r="O26" s="37"/>
       <c r="P26" s="25"/>
     </row>
-    <row r="27" spans="1:16">
-      <c r="A27" s="22" t="str">
+    <row r="27" spans="1:16" ht="24">
+      <c r="A27" s="22">
         <f ca="1">IF(H27&lt;&gt;"",IF(AND(A26&lt;&gt;"",ISNUMBER(A26)=TRUE),A26+1,IF(AND(OR(A26="",AND(A26&lt;&gt;"",ISNUMBER(A26)=FALSE))),MAX(OFFSET(A27,1-ROW(),0):OFFSET(A27,-1,0))+1)),"")</f>
-        <v/>
-      </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="23"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>117</v>
+      </c>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="34"/>
+      <c r="G27" s="25">
+        <v>43134</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="I27" s="26" t="s">
+        <v>118</v>
+      </c>
       <c r="J27" s="27" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
@@ -4350,32 +4519,32 @@
   </autoFilter>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="A2:P98">
-    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="6" stopIfTrue="1">
       <formula>AND($J2="完成")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="5" stopIfTrue="1">
       <formula>AND($J14="完成")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="4" stopIfTrue="1">
       <formula>AND($J23="完成")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O12">
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="3" stopIfTrue="1">
       <formula>AND($H12="完成")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O13">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="2" stopIfTrue="1">
       <formula>AND($H13="完成")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="1" stopIfTrue="1">
       <formula>AND($H14="完成")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>

--- a/docs/6课题/课题一览.xlsx
+++ b/docs/6课题/课题一览.xlsx
@@ -14,7 +14,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">项目课题管理表!$A$1:$P$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">项目课题管理表!$A$1:$Q$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">项目课题管理表!$A$10:$L$51</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">项目课题管理表!$1:1</definedName>
     <definedName name="w01_区分">参考情报!$A$2:$A$25</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="136">
   <si>
     <t>课题
 编号</t>
@@ -202,12 +202,6 @@
   </si>
   <si>
     <t>portal使用的是图形数据库的应用服务接口，不是portal数据库，那现在这些接口我们能使用吗，还是说需要开发图形数据库的应用服务接口</t>
-  </si>
-  <si>
-    <t>1.访问的数据表是什么
-2.主板挂牌公司条件是什么
-3.中小板挂牌公司条件是什么
-4.新三版挂牌公司条件是什么</t>
   </si>
   <si>
     <t>数据显示的根据是什么</t>
@@ -388,10 +382,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>按设计稿样式，按时间展示</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>查看更多，是本页面全部显示，弹出画面显示所有，还是开浏览器新标签查看。</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -498,10 +488,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>待定</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>与portal一致，查近一个月的</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -530,23 +516,97 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>RULE表中的SHEET_TYPE：公告 1是事件 2是风险</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>热点新闻</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>就是舆情新闻吗？</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有风险的框的表示是否显示</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>是指事件还是风险公告，或是都包含</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>就是舆情新闻吗？热点是指什么</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>按最新设计稿样式，按时间展示</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能取消</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定，portal未有这些规则，这些风险规则需要和portal数据组讨论，建立这些规则</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>不支持</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Portal是否支持</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.主板公司条件是什么
+2.中小板公司条件是什么
+3.创业版公司条件是什么</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>中小板公司、创业版公司条件是什么</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有风险的框的表示数据是否显示</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司计数是根据注册地址来统计？</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>V4.0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置管理</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>脸谱系统的用户还是portal的吗，不是的话，需要建表</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>即是舆情新闻</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>都显示</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件公告风险即监测预警</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>就是舆情新闻</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司计数是按注册地址</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要建表</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -908,77 +968,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1383,13 +1373,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P98"/>
+  <dimension ref="A1:Q98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="G20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I23" sqref="I23"/>
+      <selection pane="bottomRight" activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1403,28 +1393,29 @@
     <col min="7" max="7" width="5.25" style="11" customWidth="1"/>
     <col min="8" max="8" width="8.875" style="10" customWidth="1"/>
     <col min="9" max="9" width="39.375" style="10" customWidth="1"/>
-    <col min="10" max="10" width="7.625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="5.25" style="8" customWidth="1"/>
-    <col min="12" max="12" width="7.125" style="11" customWidth="1"/>
-    <col min="13" max="13" width="7.875" style="10" customWidth="1"/>
-    <col min="14" max="14" width="6.75" style="10" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="33.375" style="12" customWidth="1"/>
-    <col min="16" max="16" width="7.125" style="11" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="9"/>
+    <col min="10" max="10" width="4.5" style="8" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="10.875" style="8" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="6.375" style="11" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="6.625" style="10" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="7.125" style="10" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="9.625" style="10" customWidth="1"/>
+    <col min="16" max="16" width="33.375" style="12" customWidth="1"/>
+    <col min="17" max="17" width="7.125" style="11" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="8" customFormat="1" ht="24">
+    <row r="1" spans="1:17" s="8" customFormat="1" ht="24">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>63</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>64</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>1</v>
@@ -1456,26 +1447,29 @@
       <c r="N1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="O1" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="P1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="29" t="s">
+      <c r="Q1" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="36">
+    <row r="2" spans="1:17" ht="36">
       <c r="A2" s="17">
         <f ca="1">IF(H2&lt;&gt;"",IF(AND(A1&lt;&gt;"",ISNUMBER(A1)=TRUE),A1+1,IF(AND(OR(A1="",AND(A1&lt;&gt;"",ISNUMBER(A1)=FALSE))),MAX(OFFSET(A2,1-ROW(),0):OFFSET(A2,-1,0))+1)),"")</f>
         <v>1</v>
       </c>
       <c r="B2" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>65</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>66</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>13</v>
@@ -1490,34 +1484,33 @@
         <v>51</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J2" s="21" t="str">
-        <f ca="1">IF(P2&lt;&gt;"","完成",IF(L2="-","调整中",IF(K2="超过","需确认","")))</f>
-        <v>需确认</v>
+        <f ca="1">IF(Q2&lt;&gt;"","完成",IF(L2="-","调整中",IF(K2="超过","需确认","")))</f>
+        <v/>
       </c>
       <c r="K2" s="21" t="str">
-        <f t="shared" ref="K2:K29" ca="1" si="0">IF(L2="-","",IF(L2&lt;&gt;"",IF(P2&lt;&gt;"","",IF(AND((L2-TODAY())&gt;=1,(L2-TODAY())&lt;=3),"注意",IF((L2-TODAY())&lt;0,"超过",IF(L2=TODAY(),"当日",L2-TODAY())))),""))</f>
-        <v>超过</v>
-      </c>
-      <c r="L2" s="30">
-        <v>43132</v>
-      </c>
+        <f t="shared" ref="K2:K29" ca="1" si="0">IF(L2="-","",IF(L2&lt;&gt;"",IF(Q2&lt;&gt;"","",IF(AND((L2-TODAY())&gt;=1,(L2-TODAY())&lt;=3),"注意",IF((L2-TODAY())&lt;0,"超过",IF(L2=TODAY(),"当日",L2-TODAY())))),""))</f>
+        <v/>
+      </c>
+      <c r="L2" s="30"/>
       <c r="M2" s="31"/>
       <c r="N2" s="18"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="20"/>
-    </row>
-    <row r="3" spans="1:16" ht="36">
+      <c r="O2" s="18"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="20"/>
+    </row>
+    <row r="3" spans="1:17" ht="36">
       <c r="A3" s="22">
         <f ca="1">IF(H3&lt;&gt;"",IF(AND(A2&lt;&gt;"",ISNUMBER(A2)=TRUE),A2+1,IF(AND(OR(A2="",AND(A2&lt;&gt;"",ISNUMBER(A2)=FALSE))),MAX(OFFSET(A3,1-ROW(),0):OFFSET(A3,-1,0))+1)),"")</f>
         <v>2</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>47</v>
@@ -1538,31 +1531,30 @@
         <v>53</v>
       </c>
       <c r="J3" s="27" t="str">
-        <f ca="1">IF(P3&lt;&gt;"","完成",IF(L3="-","调整中",IF(K3="超过","需确认","")))</f>
-        <v>需确认</v>
+        <f ca="1">IF(Q3&lt;&gt;"","完成",IF(L3="-","调整中",IF(K3="超过","需确认","")))</f>
+        <v/>
       </c>
       <c r="K3" s="27" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>超过</v>
-      </c>
-      <c r="L3" s="32">
-        <v>43132</v>
-      </c>
+        <v/>
+      </c>
+      <c r="L3" s="32"/>
       <c r="M3" s="24"/>
       <c r="N3" s="23"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="25"/>
-    </row>
-    <row r="4" spans="1:16" ht="36">
+      <c r="O3" s="23"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="25"/>
+    </row>
+    <row r="4" spans="1:17" ht="36">
       <c r="A4" s="22">
         <f ca="1">IF(H4&lt;&gt;"",IF(AND(A3&lt;&gt;"",ISNUMBER(A3)=TRUE),A3+1,IF(AND(OR(A3="",AND(A3&lt;&gt;"",ISNUMBER(A3)=FALSE))),MAX(OFFSET(A4,1-ROW(),0):OFFSET(A4,-1,0))+1)),"")</f>
         <v>3</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>48</v>
@@ -1579,35 +1571,34 @@
         <v>50</v>
       </c>
       <c r="J4" s="27" t="str">
-        <f>IF(P4&lt;&gt;"","完成",IF(L4="-","调整中",IF(K4="超过","需确认","")))</f>
+        <f>IF(Q4&lt;&gt;"","完成",IF(L4="-","调整中",IF(K4="超过","需确认","")))</f>
         <v>完成</v>
       </c>
       <c r="K4" s="27" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="L4" s="32">
-        <v>43132</v>
-      </c>
+      <c r="L4" s="32"/>
       <c r="M4" s="24"/>
       <c r="N4" s="23"/>
-      <c r="O4" s="33" t="s">
+      <c r="O4" s="23"/>
+      <c r="P4" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="P4" s="25">
+      <c r="Q4" s="25">
         <v>43129</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="97.5" customHeight="1">
+    <row r="5" spans="1:17" ht="63" customHeight="1">
       <c r="A5" s="22">
         <f ca="1">IF(H5&lt;&gt;"",IF(AND(A4&lt;&gt;"",ISNUMBER(A4)=TRUE),A4+1,IF(AND(OR(A4="",AND(A4&lt;&gt;"",ISNUMBER(A4)=FALSE))),MAX(OFFSET(A5,1-ROW(),0):OFFSET(A5,-1,0))+1)),"")</f>
         <v>4</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>52</v>
@@ -1621,39 +1612,40 @@
         <v>46</v>
       </c>
       <c r="I5" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J5" s="27" t="str">
-        <f t="shared" ref="J5:J19" ca="1" si="1">IF(P5&lt;&gt;"","完成",IF(L5="-","调整中",IF(K5="超过","需确认","")))</f>
-        <v>需确认</v>
+        <f t="shared" ref="J5:J19" si="1">IF(Q5&lt;&gt;"","完成",IF(L5="-","调整中",IF(K5="超过","需确认","")))</f>
+        <v>完成</v>
       </c>
       <c r="K5" s="27" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>超过</v>
-      </c>
-      <c r="L5" s="32">
-        <v>43132</v>
-      </c>
+        <v/>
+      </c>
+      <c r="L5" s="32"/>
       <c r="M5" s="24"/>
       <c r="N5" s="23"/>
-      <c r="O5" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="P5" s="25"/>
-    </row>
-    <row r="6" spans="1:16" ht="24">
+      <c r="O5" s="23"/>
+      <c r="P5" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q5" s="25">
+        <v>43132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="24">
       <c r="A6" s="22">
         <f ca="1">IF(H6&lt;&gt;"",IF(AND(A5&lt;&gt;"",ISNUMBER(A5)=TRUE),A5+1,IF(AND(OR(A5="",AND(A5&lt;&gt;"",ISNUMBER(A5)=FALSE))),MAX(OFFSET(A6,1-ROW(),0):OFFSET(A6,-1,0))+1)),"")</f>
         <v>5</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="23" t="s">
         <v>67</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>68</v>
       </c>
       <c r="E6" s="24"/>
       <c r="F6" s="24"/>
@@ -1664,7 +1656,7 @@
         <v>51</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J6" s="27" t="str">
         <f t="shared" si="1"/>
@@ -1674,31 +1666,30 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="L6" s="32">
-        <v>43132</v>
-      </c>
+      <c r="L6" s="32"/>
       <c r="M6" s="24"/>
       <c r="N6" s="23"/>
-      <c r="O6" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="P6" s="25">
+      <c r="O6" s="23"/>
+      <c r="P6" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q6" s="25">
         <v>43132</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="48">
+    <row r="7" spans="1:17" ht="48">
       <c r="A7" s="22">
         <f ca="1">IF(H7&lt;&gt;"",IF(AND(A6&lt;&gt;"",ISNUMBER(A6)=TRUE),A6+1,IF(AND(OR(A6="",AND(A6&lt;&gt;"",ISNUMBER(A6)=FALSE))),MAX(OFFSET(A7,1-ROW(),0):OFFSET(A7,-1,0))+1)),"")</f>
         <v>6</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="23" t="s">
         <v>67</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>68</v>
       </c>
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
@@ -1709,41 +1700,40 @@
         <v>46</v>
       </c>
       <c r="I7" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J7" s="27" t="str">
         <f t="shared" si="1"/>
         <v>完成</v>
       </c>
       <c r="K7" s="27" t="str">
-        <f t="shared" ref="K7" ca="1" si="2">IF(L7="-","",IF(L7&lt;&gt;"",IF(P7&lt;&gt;"","",IF(AND((L7-TODAY())&gt;=1,(L7-TODAY())&lt;=3),"注意",IF((L7-TODAY())&lt;0,"超过",IF(L7=TODAY(),"当日",L7-TODAY())))),""))</f>
-        <v/>
-      </c>
-      <c r="L7" s="32">
-        <v>43132</v>
-      </c>
+        <f t="shared" ref="K7" ca="1" si="2">IF(L7="-","",IF(L7&lt;&gt;"",IF(Q7&lt;&gt;"","",IF(AND((L7-TODAY())&gt;=1,(L7-TODAY())&lt;=3),"注意",IF((L7-TODAY())&lt;0,"超过",IF(L7=TODAY(),"当日",L7-TODAY())))),""))</f>
+        <v/>
+      </c>
+      <c r="L7" s="32"/>
       <c r="M7" s="24"/>
       <c r="N7" s="23"/>
-      <c r="O7" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="P7" s="25">
+      <c r="O7" s="23"/>
+      <c r="P7" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q7" s="25">
         <v>43132</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="24">
+    <row r="8" spans="1:17" ht="24">
       <c r="A8" s="22">
         <f ca="1">IF(H8&lt;&gt;"",IF(AND(A7&lt;&gt;"",ISNUMBER(A7)=TRUE),A7+1,IF(AND(OR(A7="",AND(A7&lt;&gt;"",ISNUMBER(A7)=FALSE))),MAX(OFFSET(A8,1-ROW(),0):OFFSET(A8,-1,0))+1)),"")</f>
         <v>7</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E8" s="24"/>
       <c r="F8" s="24"/>
@@ -1754,7 +1744,7 @@
         <v>51</v>
       </c>
       <c r="I8" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J8" s="27" t="str">
         <f t="shared" si="1"/>
@@ -1764,31 +1754,30 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="L8" s="32">
-        <v>43132</v>
-      </c>
+      <c r="L8" s="32"/>
       <c r="M8" s="24"/>
       <c r="N8" s="23"/>
-      <c r="O8" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="P8" s="25">
+      <c r="O8" s="23"/>
+      <c r="P8" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q8" s="25">
         <v>43132</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="24">
+    <row r="9" spans="1:17" ht="24">
       <c r="A9" s="22">
         <f ca="1">IF(H9&lt;&gt;"",IF(AND(A8&lt;&gt;"",ISNUMBER(A8)=TRUE),A8+1,IF(AND(OR(A8="",AND(A8&lt;&gt;"",ISNUMBER(A8)=FALSE))),MAX(OFFSET(A9,1-ROW(),0):OFFSET(A9,-1,0))+1)),"")</f>
         <v>8</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
@@ -1799,7 +1788,7 @@
         <v>51</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J9" s="27" t="str">
         <f t="shared" si="1"/>
@@ -1809,31 +1798,30 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="L9" s="32">
-        <v>43132</v>
-      </c>
+      <c r="L9" s="32"/>
       <c r="M9" s="24"/>
       <c r="N9" s="23"/>
-      <c r="O9" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="P9" s="25">
+      <c r="O9" s="23"/>
+      <c r="P9" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q9" s="25">
         <v>43132</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="48">
+    <row r="10" spans="1:17" ht="57.75" customHeight="1">
       <c r="A10" s="22">
         <f ca="1">IF(H10&lt;&gt;"",IF(AND(A9&lt;&gt;"",ISNUMBER(A9)=TRUE),A9+1,IF(AND(OR(A9="",AND(A9&lt;&gt;"",ISNUMBER(A9)=FALSE))),MAX(OFFSET(A10,1-ROW(),0):OFFSET(A10,-1,0))+1)),"")</f>
         <v>9</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
@@ -1841,40 +1829,43 @@
         <v>43130</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I10" s="26" t="s">
-        <v>54</v>
+        <v>122</v>
       </c>
       <c r="J10" s="27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>需确认</v>
+        <v/>
       </c>
       <c r="K10" s="27" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>超过</v>
-      </c>
-      <c r="L10" s="32">
-        <v>43132</v>
-      </c>
+        <v/>
+      </c>
+      <c r="L10" s="32"/>
       <c r="M10" s="24"/>
       <c r="N10" s="23"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="25"/>
-    </row>
-    <row r="11" spans="1:16" ht="24">
+      <c r="O10" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="P10" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q10" s="25"/>
+    </row>
+    <row r="11" spans="1:17" ht="24">
       <c r="A11" s="22">
         <f ca="1">IF(H11&lt;&gt;"",IF(AND(A10&lt;&gt;"",ISNUMBER(A10)=TRUE),A10+1,IF(AND(OR(A10="",AND(A10&lt;&gt;"",ISNUMBER(A10)=FALSE))),MAX(OFFSET(A11,1-ROW(),0):OFFSET(A11,-1,0))+1)),"")</f>
         <v>10</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
@@ -1885,7 +1876,7 @@
         <v>51</v>
       </c>
       <c r="I11" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J11" s="27" t="str">
         <f t="shared" si="1"/>
@@ -1895,31 +1886,30 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="L11" s="32">
-        <v>43132</v>
-      </c>
+      <c r="L11" s="32"/>
       <c r="M11" s="24"/>
       <c r="N11" s="23"/>
-      <c r="O11" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="P11" s="25">
+      <c r="O11" s="23"/>
+      <c r="P11" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q11" s="25">
         <v>43132</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="67.5" customHeight="1">
+    <row r="12" spans="1:17" ht="57.75" customHeight="1">
       <c r="A12" s="22">
         <f ca="1">IF(H12&lt;&gt;"",IF(AND(A11&lt;&gt;"",ISNUMBER(A11)=TRUE),A11+1,IF(AND(OR(A11="",AND(A11&lt;&gt;"",ISNUMBER(A11)=FALSE))),MAX(OFFSET(A12,1-ROW(),0):OFFSET(A12,-1,0))+1)),"")</f>
         <v>11</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
@@ -1930,7 +1920,7 @@
         <v>46</v>
       </c>
       <c r="I12" s="26" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J12" s="27" t="str">
         <f t="shared" si="1"/>
@@ -1940,31 +1930,30 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="L12" s="32">
-        <v>43132</v>
-      </c>
+      <c r="L12" s="32"/>
       <c r="M12" s="24"/>
       <c r="N12" s="23"/>
-      <c r="O12" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="P12" s="25">
+      <c r="O12" s="23"/>
+      <c r="P12" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q12" s="25">
         <v>43132</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="99.95" customHeight="1">
+    <row r="13" spans="1:17" ht="57.75" customHeight="1">
       <c r="A13" s="22">
         <f ca="1">IF(H13&lt;&gt;"",IF(AND(A12&lt;&gt;"",ISNUMBER(A12)=TRUE),A12+1,IF(AND(OR(A12="",AND(A12&lt;&gt;"",ISNUMBER(A12)=FALSE))),MAX(OFFSET(A13,1-ROW(),0):OFFSET(A13,-1,0))+1)),"")</f>
         <v>12</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
@@ -1975,7 +1964,7 @@
         <v>46</v>
       </c>
       <c r="I13" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J13" s="27" t="str">
         <f t="shared" si="1"/>
@@ -1985,31 +1974,30 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="L13" s="32">
-        <v>43132</v>
-      </c>
+      <c r="L13" s="32"/>
       <c r="M13" s="24"/>
       <c r="N13" s="23"/>
-      <c r="O13" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="P13" s="25">
+      <c r="O13" s="23"/>
+      <c r="P13" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q13" s="25">
         <v>43132</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="99.95" customHeight="1">
+    <row r="14" spans="1:17" ht="57.75" customHeight="1">
       <c r="A14" s="22">
         <f ca="1">IF(H14&lt;&gt;"",IF(AND(A13&lt;&gt;"",ISNUMBER(A13)=TRUE),A13+1,IF(AND(OR(A13="",AND(A13&lt;&gt;"",ISNUMBER(A13)=FALSE))),MAX(OFFSET(A14,1-ROW(),0):OFFSET(A14,-1,0))+1)),"")</f>
         <v>13</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E14" s="24"/>
       <c r="F14" s="24"/>
@@ -2020,7 +2008,7 @@
         <v>46</v>
       </c>
       <c r="I14" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J14" s="27" t="str">
         <f t="shared" si="1"/>
@@ -2030,31 +2018,30 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="L14" s="32">
-        <v>43132</v>
-      </c>
+      <c r="L14" s="32"/>
       <c r="M14" s="24"/>
       <c r="N14" s="23"/>
-      <c r="O14" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="P14" s="25">
+      <c r="O14" s="23"/>
+      <c r="P14" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q14" s="25">
         <v>43132</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="36">
+    <row r="15" spans="1:17" ht="36">
       <c r="A15" s="22">
         <f ca="1">IF(H15&lt;&gt;"",IF(AND(A14&lt;&gt;"",ISNUMBER(A14)=TRUE),A14+1,IF(AND(OR(A14="",AND(A14&lt;&gt;"",ISNUMBER(A14)=FALSE))),MAX(OFFSET(A15,1-ROW(),0):OFFSET(A15,-1,0))+1)),"")</f>
         <v>14</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="23" t="s">
         <v>73</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>74</v>
       </c>
       <c r="E15" s="24"/>
       <c r="F15" s="24"/>
@@ -2065,7 +2052,7 @@
         <v>51</v>
       </c>
       <c r="I15" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J15" s="27" t="str">
         <f t="shared" si="1"/>
@@ -2075,31 +2062,30 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="L15" s="32">
-        <v>43140</v>
-      </c>
+      <c r="L15" s="32"/>
       <c r="M15" s="24"/>
       <c r="N15" s="23"/>
-      <c r="O15" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="P15" s="25">
+      <c r="O15" s="23"/>
+      <c r="P15" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q15" s="25">
         <v>43132</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="24">
+    <row r="16" spans="1:17" ht="24">
       <c r="A16" s="22">
         <f ca="1">IF(H16&lt;&gt;"",IF(AND(A15&lt;&gt;"",ISNUMBER(A15)=TRUE),A15+1,IF(AND(OR(A15="",AND(A15&lt;&gt;"",ISNUMBER(A15)=FALSE))),MAX(OFFSET(A16,1-ROW(),0):OFFSET(A16,-1,0))+1)),"")</f>
         <v>15</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" s="43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
@@ -2110,7 +2096,7 @@
         <v>51</v>
       </c>
       <c r="I16" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J16" s="27" t="str">
         <f t="shared" si="1"/>
@@ -2120,31 +2106,30 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="L16" s="32">
-        <v>43140</v>
-      </c>
+      <c r="L16" s="32"/>
       <c r="M16" s="24"/>
       <c r="N16" s="23"/>
-      <c r="O16" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="P16" s="25">
+      <c r="O16" s="23"/>
+      <c r="P16" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q16" s="25">
         <v>43132</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="24">
+    <row r="17" spans="1:17" ht="24">
       <c r="A17" s="22">
         <f ca="1">IF(H17&lt;&gt;"",IF(AND(A16&lt;&gt;"",ISNUMBER(A16)=TRUE),A16+1,IF(AND(OR(A16="",AND(A16&lt;&gt;"",ISNUMBER(A16)=FALSE))),MAX(OFFSET(A17,1-ROW(),0):OFFSET(A17,-1,0))+1)),"")</f>
         <v>16</v>
       </c>
       <c r="B17" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="23" t="s">
         <v>77</v>
-      </c>
-      <c r="C17" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>78</v>
       </c>
       <c r="E17" s="24"/>
       <c r="F17" s="24"/>
@@ -2155,7 +2140,7 @@
         <v>51</v>
       </c>
       <c r="I17" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J17" s="27" t="str">
         <f t="shared" si="1"/>
@@ -2165,31 +2150,30 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="L17" s="32">
-        <v>43140</v>
-      </c>
+      <c r="L17" s="32"/>
       <c r="M17" s="24"/>
       <c r="N17" s="23"/>
-      <c r="O17" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="P17" s="25">
+      <c r="O17" s="23"/>
+      <c r="P17" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q17" s="25">
         <v>43132</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="24">
+    <row r="18" spans="1:17" ht="24">
       <c r="A18" s="22">
         <f ca="1">IF(H18&lt;&gt;"",IF(AND(A17&lt;&gt;"",ISNUMBER(A17)=TRUE),A17+1,IF(AND(OR(A17="",AND(A17&lt;&gt;"",ISNUMBER(A17)=FALSE))),MAX(OFFSET(A18,1-ROW(),0):OFFSET(A18,-1,0))+1)),"")</f>
         <v>17</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
@@ -2200,7 +2184,7 @@
         <v>51</v>
       </c>
       <c r="I18" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J18" s="27" t="str">
         <f t="shared" si="1"/>
@@ -2210,31 +2194,30 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="L18" s="32">
-        <v>43140</v>
-      </c>
+      <c r="L18" s="32"/>
       <c r="M18" s="24"/>
       <c r="N18" s="23"/>
-      <c r="O18" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="P18" s="25">
+      <c r="O18" s="23"/>
+      <c r="P18" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q18" s="25">
         <v>43132</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="24">
+    <row r="19" spans="1:17" ht="24">
       <c r="A19" s="22">
         <f ca="1">IF(H19&lt;&gt;"",IF(AND(A18&lt;&gt;"",ISNUMBER(A18)=TRUE),A18+1,IF(AND(OR(A18="",AND(A18&lt;&gt;"",ISNUMBER(A18)=FALSE))),MAX(OFFSET(A19,1-ROW(),0):OFFSET(A19,-1,0))+1)),"")</f>
         <v>18</v>
       </c>
       <c r="B19" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
@@ -2245,7 +2228,7 @@
         <v>51</v>
       </c>
       <c r="I19" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J19" s="27" t="str">
         <f t="shared" si="1"/>
@@ -2255,31 +2238,30 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="L19" s="32">
-        <v>43140</v>
-      </c>
+      <c r="L19" s="32"/>
       <c r="M19" s="24"/>
       <c r="N19" s="23"/>
-      <c r="O19" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="P19" s="25">
+      <c r="O19" s="23"/>
+      <c r="P19" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q19" s="25">
         <v>43132</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="24">
+    <row r="20" spans="1:17" ht="24">
       <c r="A20" s="22">
         <f ca="1">IF(H20&lt;&gt;"",IF(AND(A19&lt;&gt;"",ISNUMBER(A19)=TRUE),A19+1,IF(AND(OR(A19="",AND(A19&lt;&gt;"",ISNUMBER(A19)=FALSE))),MAX(OFFSET(A20,1-ROW(),0):OFFSET(A20,-1,0))+1)),"")</f>
         <v>19</v>
       </c>
       <c r="B20" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="23" t="s">
         <v>96</v>
-      </c>
-      <c r="C20" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>98</v>
       </c>
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
@@ -2290,10 +2272,10 @@
         <v>51</v>
       </c>
       <c r="I20" s="26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J20" s="27" t="str">
-        <f t="shared" ref="J20:J61" si="3">IF(P20&lt;&gt;"","完成",IF(L20="-","调整中",IF(K20="超过","需确认","")))</f>
+        <f t="shared" ref="J20:J61" si="3">IF(Q20&lt;&gt;"","完成",IF(L20="-","调整中",IF(K20="超过","需确认","")))</f>
         <v>完成</v>
       </c>
       <c r="K20" s="27" t="str">
@@ -2303,26 +2285,27 @@
       <c r="L20" s="32"/>
       <c r="M20" s="24"/>
       <c r="N20" s="23"/>
-      <c r="O20" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="P20" s="25">
+      <c r="O20" s="23"/>
+      <c r="P20" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q20" s="25">
         <v>43133</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="24">
+    <row r="21" spans="1:17" ht="24">
       <c r="A21" s="22">
         <f ca="1">IF(H21&lt;&gt;"",IF(AND(A20&lt;&gt;"",ISNUMBER(A20)=TRUE),A20+1,IF(AND(OR(A20="",AND(A20&lt;&gt;"",ISNUMBER(A20)=FALSE))),MAX(OFFSET(A21,1-ROW(),0):OFFSET(A21,-1,0))+1)),"")</f>
         <v>20</v>
       </c>
       <c r="B21" s="41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C21" s="43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E21" s="24"/>
       <c r="F21" s="24"/>
@@ -2333,7 +2316,7 @@
         <v>51</v>
       </c>
       <c r="I21" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J21" s="27" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2346,24 +2329,27 @@
       <c r="L21" s="32"/>
       <c r="M21" s="24"/>
       <c r="N21" s="23"/>
-      <c r="O21" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="P21" s="25"/>
-    </row>
-    <row r="22" spans="1:16" ht="24">
+      <c r="O21" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="P21" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q21" s="25"/>
+    </row>
+    <row r="22" spans="1:17" ht="24">
       <c r="A22" s="22">
         <f ca="1">IF(H22&lt;&gt;"",IF(AND(A21&lt;&gt;"",ISNUMBER(A21)=TRUE),A21+1,IF(AND(OR(A21="",AND(A21&lt;&gt;"",ISNUMBER(A21)=FALSE))),MAX(OFFSET(A22,1-ROW(),0):OFFSET(A22,-1,0))+1)),"")</f>
         <v>21</v>
       </c>
       <c r="B22" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E22" s="24"/>
       <c r="F22" s="24"/>
@@ -2374,37 +2360,40 @@
         <v>51</v>
       </c>
       <c r="I22" s="26" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="J22" s="27" t="str">
-        <f t="shared" ref="J22:J23" ca="1" si="4">IF(P22&lt;&gt;"","完成",IF(L22="-","调整中",IF(K22="超过","需确认","")))</f>
-        <v/>
+        <f t="shared" ref="J22:J23" si="4">IF(Q22&lt;&gt;"","完成",IF(L22="-","调整中",IF(K22="超过","需确认","")))</f>
+        <v>完成</v>
       </c>
       <c r="K22" s="27" t="str">
-        <f t="shared" ref="K22:K23" ca="1" si="5">IF(L22="-","",IF(L22&lt;&gt;"",IF(P22&lt;&gt;"","",IF(AND((L22-TODAY())&gt;=1,(L22-TODAY())&lt;=3),"注意",IF((L22-TODAY())&lt;0,"超过",IF(L22=TODAY(),"当日",L22-TODAY())))),""))</f>
+        <f t="shared" ref="K22:K23" ca="1" si="5">IF(L22="-","",IF(L22&lt;&gt;"",IF(Q22&lt;&gt;"","",IF(AND((L22-TODAY())&gt;=1,(L22-TODAY())&lt;=3),"注意",IF((L22-TODAY())&lt;0,"超过",IF(L22=TODAY(),"当日",L22-TODAY())))),""))</f>
         <v/>
       </c>
       <c r="L22" s="32"/>
       <c r="M22" s="24"/>
       <c r="N22" s="23"/>
-      <c r="O22" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="P22" s="25"/>
-    </row>
-    <row r="23" spans="1:16" ht="24">
+      <c r="O22" s="23"/>
+      <c r="P22" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q22" s="25">
+        <v>43136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="24">
       <c r="A23" s="22">
         <f ca="1">IF(H23&lt;&gt;"",IF(AND(A22&lt;&gt;"",ISNUMBER(A22)=TRUE),A22+1,IF(AND(OR(A22="",AND(A22&lt;&gt;"",ISNUMBER(A22)=FALSE))),MAX(OFFSET(A23,1-ROW(),0):OFFSET(A23,-1,0))+1)),"")</f>
         <v>22</v>
       </c>
       <c r="B23" s="41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
@@ -2415,7 +2404,7 @@
         <v>51</v>
       </c>
       <c r="I23" s="26" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J23" s="27" t="str">
         <f t="shared" si="4"/>
@@ -2428,26 +2417,27 @@
       <c r="L23" s="32"/>
       <c r="M23" s="24"/>
       <c r="N23" s="23"/>
-      <c r="O23" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="P23" s="25">
+      <c r="O23" s="23"/>
+      <c r="P23" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q23" s="25">
         <v>43133</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="36">
+    <row r="24" spans="1:17" ht="36">
       <c r="A24" s="22">
         <f ca="1">IF(H24&lt;&gt;"",IF(AND(A23&lt;&gt;"",ISNUMBER(A23)=TRUE),A23+1,IF(AND(OR(A23="",AND(A23&lt;&gt;"",ISNUMBER(A23)=FALSE))),MAX(OFFSET(A24,1-ROW(),0):OFFSET(A24,-1,0))+1)),"")</f>
         <v>23</v>
       </c>
       <c r="B24" s="41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C24" s="43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
@@ -2458,7 +2448,7 @@
         <v>51</v>
       </c>
       <c r="I24" s="26" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J24" s="27" t="str">
         <f t="shared" si="3"/>
@@ -2471,26 +2461,27 @@
       <c r="L24" s="32"/>
       <c r="M24" s="24"/>
       <c r="N24" s="23"/>
-      <c r="O24" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="P24" s="25">
+      <c r="O24" s="23"/>
+      <c r="P24" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q24" s="25">
         <v>43133</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="24">
+    <row r="25" spans="1:17" ht="24">
       <c r="A25" s="22">
         <f ca="1">IF(H25&lt;&gt;"",IF(AND(A24&lt;&gt;"",ISNUMBER(A24)=TRUE),A24+1,IF(AND(OR(A24="",AND(A24&lt;&gt;"",ISNUMBER(A24)=FALSE))),MAX(OFFSET(A25,1-ROW(),0):OFFSET(A25,-1,0))+1)),"")</f>
         <v>24</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C25" s="43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
@@ -2501,11 +2492,11 @@
         <v>51</v>
       </c>
       <c r="I25" s="26" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J25" s="27" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
       <c r="K25" s="27" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2514,22 +2505,27 @@
       <c r="L25" s="32"/>
       <c r="M25" s="24"/>
       <c r="N25" s="23"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="25"/>
-    </row>
-    <row r="26" spans="1:16" ht="24">
+      <c r="O25" s="23"/>
+      <c r="P25" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q25" s="25">
+        <v>43136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="24">
       <c r="A26" s="22">
         <f ca="1">IF(H26&lt;&gt;"",IF(AND(A25&lt;&gt;"",ISNUMBER(A25)=TRUE),A25+1,IF(AND(OR(A25="",AND(A25&lt;&gt;"",ISNUMBER(A25)=FALSE))),MAX(OFFSET(A26,1-ROW(),0):OFFSET(A26,-1,0))+1)),"")</f>
         <v>25</v>
       </c>
       <c r="B26" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C26" s="43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
@@ -2540,11 +2536,11 @@
         <v>51</v>
       </c>
       <c r="I26" s="26" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="J26" s="27" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
       <c r="K26" s="27" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2553,22 +2549,27 @@
       <c r="L26" s="32"/>
       <c r="M26" s="24"/>
       <c r="N26" s="23"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="25"/>
-    </row>
-    <row r="27" spans="1:16" ht="24">
+      <c r="O26" s="23"/>
+      <c r="P26" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q26" s="25">
+        <v>43136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="24">
       <c r="A27" s="22">
         <f ca="1">IF(H27&lt;&gt;"",IF(AND(A26&lt;&gt;"",ISNUMBER(A26)=TRUE),A26+1,IF(AND(OR(A26="",AND(A26&lt;&gt;"",ISNUMBER(A26)=FALSE))),MAX(OFFSET(A27,1-ROW(),0):OFFSET(A27,-1,0))+1)),"")</f>
         <v>26</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C27" s="43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
@@ -2579,11 +2580,11 @@
         <v>51</v>
       </c>
       <c r="I27" s="26" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J27" s="27" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
       <c r="K27" s="27" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2592,25 +2593,42 @@
       <c r="L27" s="32"/>
       <c r="M27" s="24"/>
       <c r="N27" s="23"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="25"/>
-    </row>
-    <row r="28" spans="1:16">
-      <c r="A28" s="22" t="str">
+      <c r="O27" s="23"/>
+      <c r="P27" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q27" s="25">
+        <v>43136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="24">
+      <c r="A28" s="22">
         <f ca="1">IF(H28&lt;&gt;"",IF(AND(A27&lt;&gt;"",ISNUMBER(A27)=TRUE),A27+1,IF(AND(OR(A27="",AND(A27&lt;&gt;"",ISNUMBER(A27)=FALSE))),MAX(OFFSET(A28,1-ROW(),0):OFFSET(A28,-1,0))+1)),"")</f>
-        <v/>
-      </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="23"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>68</v>
+      </c>
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="34"/>
+      <c r="G28" s="25">
+        <v>43136</v>
+      </c>
+      <c r="H28" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="I28" s="26" t="s">
+        <v>125</v>
+      </c>
       <c r="J28" s="27" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
       <c r="K28" s="27" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2619,22 +2637,39 @@
       <c r="L28" s="32"/>
       <c r="M28" s="24"/>
       <c r="N28" s="23"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="25"/>
-    </row>
-    <row r="29" spans="1:16">
-      <c r="A29" s="22" t="str">
+      <c r="O28" s="23"/>
+      <c r="P28" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q28" s="25">
+        <v>43136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="24">
+      <c r="A29" s="22">
         <f ca="1">IF(H29&lt;&gt;"",IF(AND(A28&lt;&gt;"",ISNUMBER(A28)=TRUE),A28+1,IF(AND(OR(A28="",AND(A28&lt;&gt;"",ISNUMBER(A28)=FALSE))),MAX(OFFSET(A29,1-ROW(),0):OFFSET(A29,-1,0))+1)),"")</f>
-        <v/>
-      </c>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="23"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>129</v>
+      </c>
       <c r="E29" s="24"/>
       <c r="F29" s="24"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="26"/>
+      <c r="G29" s="25">
+        <v>43136</v>
+      </c>
+      <c r="H29" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="I29" s="26" t="s">
+        <v>128</v>
+      </c>
       <c r="J29" s="27" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
@@ -2646,10 +2681,15 @@
       <c r="L29" s="32"/>
       <c r="M29" s="24"/>
       <c r="N29" s="23"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="25"/>
-    </row>
-    <row r="30" spans="1:16">
+      <c r="O29" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="P29" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q29" s="25"/>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="22" t="str">
         <f ca="1">IF(H30&lt;&gt;"",IF(AND(A29&lt;&gt;"",ISNUMBER(A29)=TRUE),A29+1,IF(AND(OR(A29="",AND(A29&lt;&gt;"",ISNUMBER(A29)=FALSE))),MAX(OFFSET(A30,1-ROW(),0):OFFSET(A30,-1,0))+1)),"")</f>
         <v/>
@@ -2667,16 +2707,17 @@
         <v/>
       </c>
       <c r="K30" s="27" t="str">
-        <f t="shared" ref="K30:K61" ca="1" si="6">IF(L30="-","",IF(L30&lt;&gt;"",IF(P30&lt;&gt;"","",IF(AND((L30-TODAY())&gt;=1,(L30-TODAY())&lt;=3),"注意",IF((L30-TODAY())&lt;0,"超过",IF(L30=TODAY(),"当日",L30-TODAY())))),""))</f>
+        <f t="shared" ref="K30:K61" ca="1" si="6">IF(L30="-","",IF(L30&lt;&gt;"",IF(Q30&lt;&gt;"","",IF(AND((L30-TODAY())&gt;=1,(L30-TODAY())&lt;=3),"注意",IF((L30-TODAY())&lt;0,"超过",IF(L30=TODAY(),"当日",L30-TODAY())))),""))</f>
         <v/>
       </c>
       <c r="L30" s="32"/>
       <c r="M30" s="24"/>
       <c r="N30" s="23"/>
-      <c r="O30" s="37"/>
-      <c r="P30" s="25"/>
-    </row>
-    <row r="31" spans="1:16">
+      <c r="O30" s="23"/>
+      <c r="P30" s="37"/>
+      <c r="Q30" s="25"/>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="22" t="str">
         <f ca="1">IF(H31&lt;&gt;"",IF(AND(A30&lt;&gt;"",ISNUMBER(A30)=TRUE),A30+1,IF(AND(OR(A30="",AND(A30&lt;&gt;"",ISNUMBER(A30)=FALSE))),MAX(OFFSET(A31,1-ROW(),0):OFFSET(A31,-1,0))+1)),"")</f>
         <v/>
@@ -2700,10 +2741,11 @@
       <c r="L31" s="32"/>
       <c r="M31" s="24"/>
       <c r="N31" s="23"/>
-      <c r="O31" s="37"/>
-      <c r="P31" s="25"/>
-    </row>
-    <row r="32" spans="1:16">
+      <c r="O31" s="23"/>
+      <c r="P31" s="37"/>
+      <c r="Q31" s="25"/>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="22" t="str">
         <f ca="1">IF(H32&lt;&gt;"",IF(AND(A31&lt;&gt;"",ISNUMBER(A31)=TRUE),A31+1,IF(AND(OR(A31="",AND(A31&lt;&gt;"",ISNUMBER(A31)=FALSE))),MAX(OFFSET(A32,1-ROW(),0):OFFSET(A32,-1,0))+1)),"")</f>
         <v/>
@@ -2727,10 +2769,11 @@
       <c r="L32" s="32"/>
       <c r="M32" s="24"/>
       <c r="N32" s="23"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="25"/>
-    </row>
-    <row r="33" spans="1:16">
+      <c r="O32" s="23"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="25"/>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" s="22" t="str">
         <f ca="1">IF(H33&lt;&gt;"",IF(AND(A32&lt;&gt;"",ISNUMBER(A32)=TRUE),A32+1,IF(AND(OR(A32="",AND(A32&lt;&gt;"",ISNUMBER(A32)=FALSE))),MAX(OFFSET(A33,1-ROW(),0):OFFSET(A33,-1,0))+1)),"")</f>
         <v/>
@@ -2754,10 +2797,11 @@
       <c r="L33" s="32"/>
       <c r="M33" s="24"/>
       <c r="N33" s="23"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="25"/>
-    </row>
-    <row r="34" spans="1:16">
+      <c r="O33" s="23"/>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="25"/>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" s="22" t="str">
         <f ca="1">IF(H34&lt;&gt;"",IF(AND(A33&lt;&gt;"",ISNUMBER(A33)=TRUE),A33+1,IF(AND(OR(A33="",AND(A33&lt;&gt;"",ISNUMBER(A33)=FALSE))),MAX(OFFSET(A34,1-ROW(),0):OFFSET(A34,-1,0))+1)),"")</f>
         <v/>
@@ -2781,10 +2825,11 @@
       <c r="L34" s="32"/>
       <c r="M34" s="24"/>
       <c r="N34" s="23"/>
-      <c r="O34" s="37"/>
-      <c r="P34" s="25"/>
-    </row>
-    <row r="35" spans="1:16">
+      <c r="O34" s="23"/>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="25"/>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" s="22" t="str">
         <f ca="1">IF(H35&lt;&gt;"",IF(AND(A34&lt;&gt;"",ISNUMBER(A34)=TRUE),A34+1,IF(AND(OR(A34="",AND(A34&lt;&gt;"",ISNUMBER(A34)=FALSE))),MAX(OFFSET(A35,1-ROW(),0):OFFSET(A35,-1,0))+1)),"")</f>
         <v/>
@@ -2808,10 +2853,11 @@
       <c r="L35" s="32"/>
       <c r="M35" s="24"/>
       <c r="N35" s="23"/>
-      <c r="O35" s="37"/>
-      <c r="P35" s="25"/>
-    </row>
-    <row r="36" spans="1:16">
+      <c r="O35" s="23"/>
+      <c r="P35" s="37"/>
+      <c r="Q35" s="25"/>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" s="22" t="str">
         <f ca="1">IF(H36&lt;&gt;"",IF(AND(A35&lt;&gt;"",ISNUMBER(A35)=TRUE),A35+1,IF(AND(OR(A35="",AND(A35&lt;&gt;"",ISNUMBER(A35)=FALSE))),MAX(OFFSET(A36,1-ROW(),0):OFFSET(A36,-1,0))+1)),"")</f>
         <v/>
@@ -2835,10 +2881,11 @@
       <c r="L36" s="32"/>
       <c r="M36" s="24"/>
       <c r="N36" s="23"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="25"/>
-    </row>
-    <row r="37" spans="1:16">
+      <c r="O36" s="23"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="25"/>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" s="22" t="str">
         <f ca="1">IF(H37&lt;&gt;"",IF(AND(A36&lt;&gt;"",ISNUMBER(A36)=TRUE),A36+1,IF(AND(OR(A36="",AND(A36&lt;&gt;"",ISNUMBER(A36)=FALSE))),MAX(OFFSET(A37,1-ROW(),0):OFFSET(A37,-1,0))+1)),"")</f>
         <v/>
@@ -2862,10 +2909,11 @@
       <c r="L37" s="32"/>
       <c r="M37" s="24"/>
       <c r="N37" s="23"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="25"/>
-    </row>
-    <row r="38" spans="1:16">
+      <c r="O37" s="23"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="25"/>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" s="22" t="str">
         <f ca="1">IF(H38&lt;&gt;"",IF(AND(A37&lt;&gt;"",ISNUMBER(A37)=TRUE),A37+1,IF(AND(OR(A37="",AND(A37&lt;&gt;"",ISNUMBER(A37)=FALSE))),MAX(OFFSET(A38,1-ROW(),0):OFFSET(A38,-1,0))+1)),"")</f>
         <v/>
@@ -2889,10 +2937,11 @@
       <c r="L38" s="32"/>
       <c r="M38" s="24"/>
       <c r="N38" s="23"/>
-      <c r="O38" s="37"/>
-      <c r="P38" s="25"/>
-    </row>
-    <row r="39" spans="1:16">
+      <c r="O38" s="23"/>
+      <c r="P38" s="37"/>
+      <c r="Q38" s="25"/>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" s="22" t="str">
         <f ca="1">IF(H39&lt;&gt;"",IF(AND(A38&lt;&gt;"",ISNUMBER(A38)=TRUE),A38+1,IF(AND(OR(A38="",AND(A38&lt;&gt;"",ISNUMBER(A38)=FALSE))),MAX(OFFSET(A39,1-ROW(),0):OFFSET(A39,-1,0))+1)),"")</f>
         <v/>
@@ -2916,10 +2965,11 @@
       <c r="L39" s="32"/>
       <c r="M39" s="24"/>
       <c r="N39" s="23"/>
-      <c r="O39" s="37"/>
-      <c r="P39" s="25"/>
-    </row>
-    <row r="40" spans="1:16">
+      <c r="O39" s="23"/>
+      <c r="P39" s="37"/>
+      <c r="Q39" s="25"/>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" s="22" t="str">
         <f ca="1">IF(H40&lt;&gt;"",IF(AND(A39&lt;&gt;"",ISNUMBER(A39)=TRUE),A39+1,IF(AND(OR(A39="",AND(A39&lt;&gt;"",ISNUMBER(A39)=FALSE))),MAX(OFFSET(A40,1-ROW(),0):OFFSET(A40,-1,0))+1)),"")</f>
         <v/>
@@ -2943,10 +2993,11 @@
       <c r="L40" s="32"/>
       <c r="M40" s="24"/>
       <c r="N40" s="23"/>
-      <c r="O40" s="37"/>
-      <c r="P40" s="25"/>
-    </row>
-    <row r="41" spans="1:16">
+      <c r="O40" s="23"/>
+      <c r="P40" s="37"/>
+      <c r="Q40" s="25"/>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" s="22" t="str">
         <f ca="1">IF(H41&lt;&gt;"",IF(AND(A40&lt;&gt;"",ISNUMBER(A40)=TRUE),A40+1,IF(AND(OR(A40="",AND(A40&lt;&gt;"",ISNUMBER(A40)=FALSE))),MAX(OFFSET(A41,1-ROW(),0):OFFSET(A41,-1,0))+1)),"")</f>
         <v/>
@@ -2970,10 +3021,11 @@
       <c r="L41" s="32"/>
       <c r="M41" s="24"/>
       <c r="N41" s="23"/>
-      <c r="O41" s="33"/>
-      <c r="P41" s="25"/>
-    </row>
-    <row r="42" spans="1:16">
+      <c r="O41" s="23"/>
+      <c r="P41" s="33"/>
+      <c r="Q41" s="25"/>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" s="22" t="str">
         <f ca="1">IF(H42&lt;&gt;"",IF(AND(A41&lt;&gt;"",ISNUMBER(A41)=TRUE),A41+1,IF(AND(OR(A41="",AND(A41&lt;&gt;"",ISNUMBER(A41)=FALSE))),MAX(OFFSET(A42,1-ROW(),0):OFFSET(A42,-1,0))+1)),"")</f>
         <v/>
@@ -2997,10 +3049,11 @@
       <c r="L42" s="32"/>
       <c r="M42" s="24"/>
       <c r="N42" s="23"/>
-      <c r="O42" s="33"/>
-      <c r="P42" s="38"/>
-    </row>
-    <row r="43" spans="1:16">
+      <c r="O42" s="23"/>
+      <c r="P42" s="33"/>
+      <c r="Q42" s="38"/>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" s="22" t="str">
         <f ca="1">IF(H43&lt;&gt;"",IF(AND(A42&lt;&gt;"",ISNUMBER(A42)=TRUE),A42+1,IF(AND(OR(A42="",AND(A42&lt;&gt;"",ISNUMBER(A42)=FALSE))),MAX(OFFSET(A43,1-ROW(),0):OFFSET(A43,-1,0))+1)),"")</f>
         <v/>
@@ -3024,10 +3077,11 @@
       <c r="L43" s="32"/>
       <c r="M43" s="24"/>
       <c r="N43" s="23"/>
-      <c r="O43" s="37"/>
-      <c r="P43" s="25"/>
-    </row>
-    <row r="44" spans="1:16">
+      <c r="O43" s="23"/>
+      <c r="P43" s="37"/>
+      <c r="Q43" s="25"/>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44" s="22" t="str">
         <f ca="1">IF(H44&lt;&gt;"",IF(AND(A43&lt;&gt;"",ISNUMBER(A43)=TRUE),A43+1,IF(AND(OR(A43="",AND(A43&lt;&gt;"",ISNUMBER(A43)=FALSE))),MAX(OFFSET(A44,1-ROW(),0):OFFSET(A44,-1,0))+1)),"")</f>
         <v/>
@@ -3051,10 +3105,11 @@
       <c r="L44" s="32"/>
       <c r="M44" s="24"/>
       <c r="N44" s="23"/>
-      <c r="O44" s="37"/>
-      <c r="P44" s="25"/>
-    </row>
-    <row r="45" spans="1:16">
+      <c r="O44" s="23"/>
+      <c r="P44" s="37"/>
+      <c r="Q44" s="25"/>
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45" s="22" t="str">
         <f ca="1">IF(H45&lt;&gt;"",IF(AND(A44&lt;&gt;"",ISNUMBER(A44)=TRUE),A44+1,IF(AND(OR(A44="",AND(A44&lt;&gt;"",ISNUMBER(A44)=FALSE))),MAX(OFFSET(A45,1-ROW(),0):OFFSET(A45,-1,0))+1)),"")</f>
         <v/>
@@ -3078,10 +3133,11 @@
       <c r="L45" s="32"/>
       <c r="M45" s="24"/>
       <c r="N45" s="23"/>
-      <c r="O45" s="37"/>
-      <c r="P45" s="25"/>
-    </row>
-    <row r="46" spans="1:16">
+      <c r="O45" s="23"/>
+      <c r="P45" s="37"/>
+      <c r="Q45" s="25"/>
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46" s="22" t="str">
         <f ca="1">IF(H46&lt;&gt;"",IF(AND(A45&lt;&gt;"",ISNUMBER(A45)=TRUE),A45+1,IF(AND(OR(A45="",AND(A45&lt;&gt;"",ISNUMBER(A45)=FALSE))),MAX(OFFSET(A46,1-ROW(),0):OFFSET(A46,-1,0))+1)),"")</f>
         <v/>
@@ -3105,10 +3161,11 @@
       <c r="L46" s="32"/>
       <c r="M46" s="24"/>
       <c r="N46" s="23"/>
-      <c r="O46" s="37"/>
-      <c r="P46" s="25"/>
-    </row>
-    <row r="47" spans="1:16">
+      <c r="O46" s="23"/>
+      <c r="P46" s="37"/>
+      <c r="Q46" s="25"/>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" s="22" t="str">
         <f ca="1">IF(H47&lt;&gt;"",IF(AND(A46&lt;&gt;"",ISNUMBER(A46)=TRUE),A46+1,IF(AND(OR(A46="",AND(A46&lt;&gt;"",ISNUMBER(A46)=FALSE))),MAX(OFFSET(A47,1-ROW(),0):OFFSET(A47,-1,0))+1)),"")</f>
         <v/>
@@ -3132,10 +3189,11 @@
       <c r="L47" s="32"/>
       <c r="M47" s="24"/>
       <c r="N47" s="23"/>
-      <c r="O47" s="37"/>
-      <c r="P47" s="25"/>
-    </row>
-    <row r="48" spans="1:16">
+      <c r="O47" s="23"/>
+      <c r="P47" s="37"/>
+      <c r="Q47" s="25"/>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48" s="22" t="str">
         <f ca="1">IF(H48&lt;&gt;"",IF(AND(A47&lt;&gt;"",ISNUMBER(A47)=TRUE),A47+1,IF(AND(OR(A47="",AND(A47&lt;&gt;"",ISNUMBER(A47)=FALSE))),MAX(OFFSET(A48,1-ROW(),0):OFFSET(A48,-1,0))+1)),"")</f>
         <v/>
@@ -3159,10 +3217,11 @@
       <c r="L48" s="32"/>
       <c r="M48" s="24"/>
       <c r="N48" s="23"/>
-      <c r="O48" s="37"/>
-      <c r="P48" s="25"/>
-    </row>
-    <row r="49" spans="1:16">
+      <c r="O48" s="23"/>
+      <c r="P48" s="37"/>
+      <c r="Q48" s="25"/>
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49" s="22" t="str">
         <f ca="1">IF(H49&lt;&gt;"",IF(AND(A48&lt;&gt;"",ISNUMBER(A48)=TRUE),A48+1,IF(AND(OR(A48="",AND(A48&lt;&gt;"",ISNUMBER(A48)=FALSE))),MAX(OFFSET(A49,1-ROW(),0):OFFSET(A49,-1,0))+1)),"")</f>
         <v/>
@@ -3186,10 +3245,11 @@
       <c r="L49" s="32"/>
       <c r="M49" s="24"/>
       <c r="N49" s="23"/>
-      <c r="O49" s="37"/>
-      <c r="P49" s="25"/>
-    </row>
-    <row r="50" spans="1:16">
+      <c r="O49" s="23"/>
+      <c r="P49" s="37"/>
+      <c r="Q49" s="25"/>
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50" s="22" t="str">
         <f ca="1">IF(H50&lt;&gt;"",IF(AND(A49&lt;&gt;"",ISNUMBER(A49)=TRUE),A49+1,IF(AND(OR(A49="",AND(A49&lt;&gt;"",ISNUMBER(A49)=FALSE))),MAX(OFFSET(A50,1-ROW(),0):OFFSET(A50,-1,0))+1)),"")</f>
         <v/>
@@ -3213,10 +3273,11 @@
       <c r="L50" s="32"/>
       <c r="M50" s="24"/>
       <c r="N50" s="23"/>
-      <c r="O50" s="37"/>
-      <c r="P50" s="25"/>
-    </row>
-    <row r="51" spans="1:16">
+      <c r="O50" s="23"/>
+      <c r="P50" s="37"/>
+      <c r="Q50" s="25"/>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51" s="22" t="str">
         <f ca="1">IF(H51&lt;&gt;"",IF(AND(A50&lt;&gt;"",ISNUMBER(A50)=TRUE),A50+1,IF(AND(OR(A50="",AND(A50&lt;&gt;"",ISNUMBER(A50)=FALSE))),MAX(OFFSET(A51,1-ROW(),0):OFFSET(A51,-1,0))+1)),"")</f>
         <v/>
@@ -3240,10 +3301,11 @@
       <c r="L51" s="32"/>
       <c r="M51" s="24"/>
       <c r="N51" s="23"/>
-      <c r="O51" s="37"/>
-      <c r="P51" s="25"/>
-    </row>
-    <row r="52" spans="1:16">
+      <c r="O51" s="23"/>
+      <c r="P51" s="37"/>
+      <c r="Q51" s="25"/>
+    </row>
+    <row r="52" spans="1:17">
       <c r="A52" s="22" t="str">
         <f ca="1">IF(H52&lt;&gt;"",IF(AND(A51&lt;&gt;"",ISNUMBER(A51)=TRUE),A51+1,IF(AND(OR(A51="",AND(A51&lt;&gt;"",ISNUMBER(A51)=FALSE))),MAX(OFFSET(A52,1-ROW(),0):OFFSET(A52,-1,0))+1)),"")</f>
         <v/>
@@ -3267,10 +3329,11 @@
       <c r="L52" s="39"/>
       <c r="M52" s="24"/>
       <c r="N52" s="23"/>
-      <c r="O52" s="33"/>
-      <c r="P52" s="25"/>
-    </row>
-    <row r="53" spans="1:16">
+      <c r="O52" s="23"/>
+      <c r="P52" s="33"/>
+      <c r="Q52" s="25"/>
+    </row>
+    <row r="53" spans="1:17">
       <c r="A53" s="22" t="str">
         <f ca="1">IF(H53&lt;&gt;"",IF(AND(A52&lt;&gt;"",ISNUMBER(A52)=TRUE),A52+1,IF(AND(OR(A52="",AND(A52&lt;&gt;"",ISNUMBER(A52)=FALSE))),MAX(OFFSET(A53,1-ROW(),0):OFFSET(A53,-1,0))+1)),"")</f>
         <v/>
@@ -3284,20 +3347,21 @@
       <c r="H53" s="24"/>
       <c r="I53" s="34"/>
       <c r="J53" s="27" t="str">
-        <f t="shared" ref="J53:J56" ca="1" si="7">IF(P53&lt;&gt;"","完成",IF(L53="-","调整中",IF(K53="超过","需确认","")))</f>
+        <f t="shared" ref="J53:J56" ca="1" si="7">IF(Q53&lt;&gt;"","完成",IF(L53="-","调整中",IF(K53="超过","需确认","")))</f>
         <v/>
       </c>
       <c r="K53" s="27" t="str">
-        <f t="shared" ref="K53:K56" ca="1" si="8">IF(L53="-","",IF(L53&lt;&gt;"",IF(P53&lt;&gt;"","",IF(AND((L53-TODAY())&gt;=1,(L53-TODAY())&lt;=3),"注意",IF((L53-TODAY())&lt;0,"超过",IF(L53=TODAY(),"当日",L53-TODAY())))),""))</f>
+        <f t="shared" ref="K53:K56" ca="1" si="8">IF(L53="-","",IF(L53&lt;&gt;"",IF(Q53&lt;&gt;"","",IF(AND((L53-TODAY())&gt;=1,(L53-TODAY())&lt;=3),"注意",IF((L53-TODAY())&lt;0,"超过",IF(L53=TODAY(),"当日",L53-TODAY())))),""))</f>
         <v/>
       </c>
       <c r="L53" s="39"/>
       <c r="M53" s="24"/>
       <c r="N53" s="23"/>
-      <c r="O53" s="33"/>
-      <c r="P53" s="25"/>
-    </row>
-    <row r="54" spans="1:16">
+      <c r="O53" s="23"/>
+      <c r="P53" s="33"/>
+      <c r="Q53" s="25"/>
+    </row>
+    <row r="54" spans="1:17">
       <c r="A54" s="22" t="str">
         <f ca="1">IF(H54&lt;&gt;"",IF(AND(A53&lt;&gt;"",ISNUMBER(A53)=TRUE),A53+1,IF(AND(OR(A53="",AND(A53&lt;&gt;"",ISNUMBER(A53)=FALSE))),MAX(OFFSET(A54,1-ROW(),0):OFFSET(A54,-1,0))+1)),"")</f>
         <v/>
@@ -3321,10 +3385,11 @@
       <c r="L54" s="39"/>
       <c r="M54" s="24"/>
       <c r="N54" s="23"/>
-      <c r="O54" s="33"/>
-      <c r="P54" s="25"/>
-    </row>
-    <row r="55" spans="1:16">
+      <c r="O54" s="23"/>
+      <c r="P54" s="33"/>
+      <c r="Q54" s="25"/>
+    </row>
+    <row r="55" spans="1:17">
       <c r="A55" s="22" t="str">
         <f ca="1">IF(H55&lt;&gt;"",IF(AND(A54&lt;&gt;"",ISNUMBER(A54)=TRUE),A54+1,IF(AND(OR(A54="",AND(A54&lt;&gt;"",ISNUMBER(A54)=FALSE))),MAX(OFFSET(A55,1-ROW(),0):OFFSET(A55,-1,0))+1)),"")</f>
         <v/>
@@ -3348,10 +3413,11 @@
       <c r="L55" s="39"/>
       <c r="M55" s="24"/>
       <c r="N55" s="23"/>
-      <c r="O55" s="33"/>
-      <c r="P55" s="25"/>
-    </row>
-    <row r="56" spans="1:16">
+      <c r="O55" s="23"/>
+      <c r="P55" s="33"/>
+      <c r="Q55" s="25"/>
+    </row>
+    <row r="56" spans="1:17">
       <c r="A56" s="22" t="str">
         <f ca="1">IF(H56&lt;&gt;"",IF(AND(A55&lt;&gt;"",ISNUMBER(A55)=TRUE),A55+1,IF(AND(OR(A55="",AND(A55&lt;&gt;"",ISNUMBER(A55)=FALSE))),MAX(OFFSET(A56,1-ROW(),0):OFFSET(A56,-1,0))+1)),"")</f>
         <v/>
@@ -3375,10 +3441,11 @@
       <c r="L56" s="39"/>
       <c r="M56" s="24"/>
       <c r="N56" s="23"/>
-      <c r="O56" s="33"/>
-      <c r="P56" s="25"/>
-    </row>
-    <row r="57" spans="1:16">
+      <c r="O56" s="23"/>
+      <c r="P56" s="33"/>
+      <c r="Q56" s="25"/>
+    </row>
+    <row r="57" spans="1:17">
       <c r="A57" s="22" t="str">
         <f ca="1">IF(H57&lt;&gt;"",IF(AND(A56&lt;&gt;"",ISNUMBER(A56)=TRUE),A56+1,IF(AND(OR(A56="",AND(A56&lt;&gt;"",ISNUMBER(A56)=FALSE))),MAX(OFFSET(A57,1-ROW(),0):OFFSET(A57,-1,0))+1)),"")</f>
         <v/>
@@ -3402,10 +3469,11 @@
       <c r="L57" s="32"/>
       <c r="M57" s="24"/>
       <c r="N57" s="23"/>
-      <c r="O57" s="33"/>
-      <c r="P57" s="25"/>
-    </row>
-    <row r="58" spans="1:16">
+      <c r="O57" s="23"/>
+      <c r="P57" s="33"/>
+      <c r="Q57" s="25"/>
+    </row>
+    <row r="58" spans="1:17">
       <c r="A58" s="22" t="str">
         <f ca="1">IF(H58&lt;&gt;"",IF(AND(A57&lt;&gt;"",ISNUMBER(A57)=TRUE),A57+1,IF(AND(OR(A57="",AND(A57&lt;&gt;"",ISNUMBER(A57)=FALSE))),MAX(OFFSET(A58,1-ROW(),0):OFFSET(A58,-1,0))+1)),"")</f>
         <v/>
@@ -3429,10 +3497,11 @@
       <c r="L58" s="32"/>
       <c r="M58" s="24"/>
       <c r="N58" s="23"/>
-      <c r="O58" s="33"/>
-      <c r="P58" s="25"/>
-    </row>
-    <row r="59" spans="1:16">
+      <c r="O58" s="23"/>
+      <c r="P58" s="33"/>
+      <c r="Q58" s="25"/>
+    </row>
+    <row r="59" spans="1:17">
       <c r="A59" s="22" t="str">
         <f ca="1">IF(H59&lt;&gt;"",IF(AND(A58&lt;&gt;"",ISNUMBER(A58)=TRUE),A58+1,IF(AND(OR(A58="",AND(A58&lt;&gt;"",ISNUMBER(A58)=FALSE))),MAX(OFFSET(A59,1-ROW(),0):OFFSET(A59,-1,0))+1)),"")</f>
         <v/>
@@ -3456,10 +3525,11 @@
       <c r="L59" s="32"/>
       <c r="M59" s="24"/>
       <c r="N59" s="23"/>
-      <c r="O59" s="33"/>
-      <c r="P59" s="25"/>
-    </row>
-    <row r="60" spans="1:16">
+      <c r="O59" s="23"/>
+      <c r="P59" s="33"/>
+      <c r="Q59" s="25"/>
+    </row>
+    <row r="60" spans="1:17">
       <c r="A60" s="22" t="str">
         <f ca="1">IF(H60&lt;&gt;"",IF(AND(A59&lt;&gt;"",ISNUMBER(A59)=TRUE),A59+1,IF(AND(OR(A59="",AND(A59&lt;&gt;"",ISNUMBER(A59)=FALSE))),MAX(OFFSET(A60,1-ROW(),0):OFFSET(A60,-1,0))+1)),"")</f>
         <v/>
@@ -3483,10 +3553,11 @@
       <c r="L60" s="32"/>
       <c r="M60" s="24"/>
       <c r="N60" s="23"/>
-      <c r="O60" s="33"/>
-      <c r="P60" s="25"/>
-    </row>
-    <row r="61" spans="1:16">
+      <c r="O60" s="23"/>
+      <c r="P60" s="33"/>
+      <c r="Q60" s="25"/>
+    </row>
+    <row r="61" spans="1:17">
       <c r="A61" s="22" t="str">
         <f ca="1">IF(H61&lt;&gt;"",IF(AND(A60&lt;&gt;"",ISNUMBER(A60)=TRUE),A60+1,IF(AND(OR(A60="",AND(A60&lt;&gt;"",ISNUMBER(A60)=FALSE))),MAX(OFFSET(A61,1-ROW(),0):OFFSET(A61,-1,0))+1)),"")</f>
         <v/>
@@ -3510,10 +3581,11 @@
       <c r="L61" s="32"/>
       <c r="M61" s="24"/>
       <c r="N61" s="23"/>
-      <c r="O61" s="33"/>
-      <c r="P61" s="25"/>
-    </row>
-    <row r="62" spans="1:16">
+      <c r="O61" s="23"/>
+      <c r="P61" s="33"/>
+      <c r="Q61" s="25"/>
+    </row>
+    <row r="62" spans="1:17">
       <c r="A62" s="22" t="str">
         <f ca="1">IF(H62&lt;&gt;"",IF(AND(A61&lt;&gt;"",ISNUMBER(A61)=TRUE),A61+1,IF(AND(OR(A61="",AND(A61&lt;&gt;"",ISNUMBER(A61)=FALSE))),MAX(OFFSET(A62,1-ROW(),0):OFFSET(A62,-1,0))+1)),"")</f>
         <v/>
@@ -3527,20 +3599,21 @@
       <c r="H62" s="24"/>
       <c r="I62" s="26"/>
       <c r="J62" s="27" t="str">
-        <f t="shared" ref="J62:J64" ca="1" si="9">IF(P62&lt;&gt;"","完成",IF(L62="-","调整中",IF(K62="超过","需确认","")))</f>
+        <f t="shared" ref="J62:J64" ca="1" si="9">IF(Q62&lt;&gt;"","完成",IF(L62="-","调整中",IF(K62="超过","需确认","")))</f>
         <v/>
       </c>
       <c r="K62" s="27" t="str">
-        <f t="shared" ref="K62:K64" ca="1" si="10">IF(L62="-","",IF(L62&lt;&gt;"",IF(P62&lt;&gt;"","",IF(AND((L62-TODAY())&gt;=1,(L62-TODAY())&lt;=3),"注意",IF((L62-TODAY())&lt;0,"超过",IF(L62=TODAY(),"当日",L62-TODAY())))),""))</f>
+        <f t="shared" ref="K62:K64" ca="1" si="10">IF(L62="-","",IF(L62&lt;&gt;"",IF(Q62&lt;&gt;"","",IF(AND((L62-TODAY())&gt;=1,(L62-TODAY())&lt;=3),"注意",IF((L62-TODAY())&lt;0,"超过",IF(L62=TODAY(),"当日",L62-TODAY())))),""))</f>
         <v/>
       </c>
       <c r="L62" s="32"/>
       <c r="M62" s="24"/>
       <c r="N62" s="23"/>
-      <c r="O62" s="33"/>
-      <c r="P62" s="25"/>
-    </row>
-    <row r="63" spans="1:16">
+      <c r="O62" s="23"/>
+      <c r="P62" s="33"/>
+      <c r="Q62" s="25"/>
+    </row>
+    <row r="63" spans="1:17">
       <c r="A63" s="22" t="str">
         <f ca="1">IF(H63&lt;&gt;"",IF(AND(A62&lt;&gt;"",ISNUMBER(A62)=TRUE),A62+1,IF(AND(OR(A62="",AND(A62&lt;&gt;"",ISNUMBER(A62)=FALSE))),MAX(OFFSET(A63,1-ROW(),0):OFFSET(A63,-1,0))+1)),"")</f>
         <v/>
@@ -3564,10 +3637,11 @@
       <c r="L63" s="32"/>
       <c r="M63" s="24"/>
       <c r="N63" s="23"/>
-      <c r="O63" s="33"/>
-      <c r="P63" s="25"/>
-    </row>
-    <row r="64" spans="1:16">
+      <c r="O63" s="23"/>
+      <c r="P63" s="33"/>
+      <c r="Q63" s="25"/>
+    </row>
+    <row r="64" spans="1:17">
       <c r="A64" s="22" t="str">
         <f ca="1">IF(H64&lt;&gt;"",IF(AND(A63&lt;&gt;"",ISNUMBER(A63)=TRUE),A63+1,IF(AND(OR(A63="",AND(A63&lt;&gt;"",ISNUMBER(A63)=FALSE))),MAX(OFFSET(A64,1-ROW(),0):OFFSET(A64,-1,0))+1)),"")</f>
         <v/>
@@ -3591,10 +3665,11 @@
       <c r="L64" s="32"/>
       <c r="M64" s="24"/>
       <c r="N64" s="23"/>
-      <c r="O64" s="33"/>
-      <c r="P64" s="25"/>
-    </row>
-    <row r="65" spans="1:16">
+      <c r="O64" s="23"/>
+      <c r="P64" s="33"/>
+      <c r="Q64" s="25"/>
+    </row>
+    <row r="65" spans="1:17">
       <c r="A65" s="22" t="str">
         <f ca="1">IF(H65&lt;&gt;"",IF(AND(A64&lt;&gt;"",ISNUMBER(A64)=TRUE),A64+1,IF(AND(OR(A64="",AND(A64&lt;&gt;"",ISNUMBER(A64)=FALSE))),MAX(OFFSET(A65,1-ROW(),0):OFFSET(A65,-1,0))+1)),"")</f>
         <v/>
@@ -3608,20 +3683,21 @@
       <c r="H65" s="24"/>
       <c r="I65" s="26"/>
       <c r="J65" s="27" t="str">
-        <f t="shared" ref="J65:J98" ca="1" si="11">IF(P65&lt;&gt;"","完成",IF(L65="-","调整中",IF(K65="超过","需确认","")))</f>
+        <f t="shared" ref="J65:J98" ca="1" si="11">IF(Q65&lt;&gt;"","完成",IF(L65="-","调整中",IF(K65="超过","需确认","")))</f>
         <v/>
       </c>
       <c r="K65" s="27" t="str">
-        <f t="shared" ref="K65:K93" ca="1" si="12">IF(L65="-","",IF(L65&lt;&gt;"",IF(P65&lt;&gt;"","",IF(AND((L65-TODAY())&gt;=1,(L65-TODAY())&lt;=3),"注意",IF((L65-TODAY())&lt;0,"超过",IF(L65=TODAY(),"当日",L65-TODAY())))),""))</f>
+        <f t="shared" ref="K65:K93" ca="1" si="12">IF(L65="-","",IF(L65&lt;&gt;"",IF(Q65&lt;&gt;"","",IF(AND((L65-TODAY())&gt;=1,(L65-TODAY())&lt;=3),"注意",IF((L65-TODAY())&lt;0,"超过",IF(L65=TODAY(),"当日",L65-TODAY())))),""))</f>
         <v/>
       </c>
       <c r="L65" s="32"/>
       <c r="M65" s="24"/>
       <c r="N65" s="23"/>
-      <c r="O65" s="33"/>
-      <c r="P65" s="25"/>
-    </row>
-    <row r="66" spans="1:16">
+      <c r="O65" s="23"/>
+      <c r="P65" s="33"/>
+      <c r="Q65" s="25"/>
+    </row>
+    <row r="66" spans="1:17">
       <c r="A66" s="22" t="str">
         <f ca="1">IF(H66&lt;&gt;"",IF(AND(A65&lt;&gt;"",ISNUMBER(A65)=TRUE),A65+1,IF(AND(OR(A65="",AND(A65&lt;&gt;"",ISNUMBER(A65)=FALSE))),MAX(OFFSET(A66,1-ROW(),0):OFFSET(A66,-1,0))+1)),"")</f>
         <v/>
@@ -3645,10 +3721,11 @@
       <c r="L66" s="32"/>
       <c r="M66" s="24"/>
       <c r="N66" s="23"/>
-      <c r="O66" s="33"/>
-      <c r="P66" s="25"/>
-    </row>
-    <row r="67" spans="1:16">
+      <c r="O66" s="23"/>
+      <c r="P66" s="33"/>
+      <c r="Q66" s="25"/>
+    </row>
+    <row r="67" spans="1:17">
       <c r="A67" s="22" t="str">
         <f ca="1">IF(H67&lt;&gt;"",IF(AND(A66&lt;&gt;"",ISNUMBER(A66)=TRUE),A66+1,IF(AND(OR(A66="",AND(A66&lt;&gt;"",ISNUMBER(A66)=FALSE))),MAX(OFFSET(A67,1-ROW(),0):OFFSET(A67,-1,0))+1)),"")</f>
         <v/>
@@ -3672,10 +3749,11 @@
       <c r="L67" s="32"/>
       <c r="M67" s="24"/>
       <c r="N67" s="23"/>
-      <c r="O67" s="33"/>
-      <c r="P67" s="25"/>
-    </row>
-    <row r="68" spans="1:16">
+      <c r="O67" s="23"/>
+      <c r="P67" s="33"/>
+      <c r="Q67" s="25"/>
+    </row>
+    <row r="68" spans="1:17">
       <c r="A68" s="22" t="str">
         <f ca="1">IF(H68&lt;&gt;"",IF(AND(A67&lt;&gt;"",ISNUMBER(A67)=TRUE),A67+1,IF(AND(OR(A67="",AND(A67&lt;&gt;"",ISNUMBER(A67)=FALSE))),MAX(OFFSET(A68,1-ROW(),0):OFFSET(A68,-1,0))+1)),"")</f>
         <v/>
@@ -3699,10 +3777,11 @@
       <c r="L68" s="32"/>
       <c r="M68" s="24"/>
       <c r="N68" s="23"/>
-      <c r="O68" s="33"/>
-      <c r="P68" s="25"/>
-    </row>
-    <row r="69" spans="1:16">
+      <c r="O68" s="23"/>
+      <c r="P68" s="33"/>
+      <c r="Q68" s="25"/>
+    </row>
+    <row r="69" spans="1:17">
       <c r="A69" s="22" t="str">
         <f ca="1">IF(H69&lt;&gt;"",IF(AND(A68&lt;&gt;"",ISNUMBER(A68)=TRUE),A68+1,IF(AND(OR(A68="",AND(A68&lt;&gt;"",ISNUMBER(A68)=FALSE))),MAX(OFFSET(A69,1-ROW(),0):OFFSET(A69,-1,0))+1)),"")</f>
         <v/>
@@ -3726,10 +3805,11 @@
       <c r="L69" s="32"/>
       <c r="M69" s="24"/>
       <c r="N69" s="23"/>
-      <c r="O69" s="33"/>
-      <c r="P69" s="25"/>
-    </row>
-    <row r="70" spans="1:16">
+      <c r="O69" s="23"/>
+      <c r="P69" s="33"/>
+      <c r="Q69" s="25"/>
+    </row>
+    <row r="70" spans="1:17">
       <c r="A70" s="22" t="str">
         <f ca="1">IF(H70&lt;&gt;"",IF(AND(A69&lt;&gt;"",ISNUMBER(A69)=TRUE),A69+1,IF(AND(OR(A69="",AND(A69&lt;&gt;"",ISNUMBER(A69)=FALSE))),MAX(OFFSET(A70,1-ROW(),0):OFFSET(A70,-1,0))+1)),"")</f>
         <v/>
@@ -3753,10 +3833,11 @@
       <c r="L70" s="32"/>
       <c r="M70" s="24"/>
       <c r="N70" s="23"/>
-      <c r="O70" s="33"/>
-      <c r="P70" s="25"/>
-    </row>
-    <row r="71" spans="1:16">
+      <c r="O70" s="23"/>
+      <c r="P70" s="33"/>
+      <c r="Q70" s="25"/>
+    </row>
+    <row r="71" spans="1:17">
       <c r="A71" s="22" t="str">
         <f ca="1">IF(H71&lt;&gt;"",IF(AND(A70&lt;&gt;"",ISNUMBER(A70)=TRUE),A70+1,IF(AND(OR(A70="",AND(A70&lt;&gt;"",ISNUMBER(A70)=FALSE))),MAX(OFFSET(A71,1-ROW(),0):OFFSET(A71,-1,0))+1)),"")</f>
         <v/>
@@ -3780,10 +3861,11 @@
       <c r="L71" s="32"/>
       <c r="M71" s="24"/>
       <c r="N71" s="23"/>
-      <c r="O71" s="33"/>
-      <c r="P71" s="25"/>
-    </row>
-    <row r="72" spans="1:16">
+      <c r="O71" s="23"/>
+      <c r="P71" s="33"/>
+      <c r="Q71" s="25"/>
+    </row>
+    <row r="72" spans="1:17">
       <c r="A72" s="22" t="str">
         <f ca="1">IF(H72&lt;&gt;"",IF(AND(A71&lt;&gt;"",ISNUMBER(A71)=TRUE),A71+1,IF(AND(OR(A71="",AND(A71&lt;&gt;"",ISNUMBER(A71)=FALSE))),MAX(OFFSET(A72,1-ROW(),0):OFFSET(A72,-1,0))+1)),"")</f>
         <v/>
@@ -3807,10 +3889,11 @@
       <c r="L72" s="32"/>
       <c r="M72" s="24"/>
       <c r="N72" s="23"/>
-      <c r="O72" s="33"/>
-      <c r="P72" s="25"/>
-    </row>
-    <row r="73" spans="1:16">
+      <c r="O72" s="23"/>
+      <c r="P72" s="33"/>
+      <c r="Q72" s="25"/>
+    </row>
+    <row r="73" spans="1:17">
       <c r="A73" s="22" t="str">
         <f ca="1">IF(H73&lt;&gt;"",IF(AND(A72&lt;&gt;"",ISNUMBER(A72)=TRUE),A72+1,IF(AND(OR(A72="",AND(A72&lt;&gt;"",ISNUMBER(A72)=FALSE))),MAX(OFFSET(A73,1-ROW(),0):OFFSET(A73,-1,0))+1)),"")</f>
         <v/>
@@ -3834,10 +3917,11 @@
       <c r="L73" s="32"/>
       <c r="M73" s="24"/>
       <c r="N73" s="23"/>
-      <c r="O73" s="33"/>
-      <c r="P73" s="25"/>
-    </row>
-    <row r="74" spans="1:16">
+      <c r="O73" s="23"/>
+      <c r="P73" s="33"/>
+      <c r="Q73" s="25"/>
+    </row>
+    <row r="74" spans="1:17">
       <c r="A74" s="22" t="str">
         <f ca="1">IF(H74&lt;&gt;"",IF(AND(A73&lt;&gt;"",ISNUMBER(A73)=TRUE),A73+1,IF(AND(OR(A73="",AND(A73&lt;&gt;"",ISNUMBER(A73)=FALSE))),MAX(OFFSET(A74,1-ROW(),0):OFFSET(A74,-1,0))+1)),"")</f>
         <v/>
@@ -3861,10 +3945,11 @@
       <c r="L74" s="32"/>
       <c r="M74" s="24"/>
       <c r="N74" s="23"/>
-      <c r="O74" s="33"/>
-      <c r="P74" s="25"/>
-    </row>
-    <row r="75" spans="1:16">
+      <c r="O74" s="23"/>
+      <c r="P74" s="33"/>
+      <c r="Q74" s="25"/>
+    </row>
+    <row r="75" spans="1:17">
       <c r="A75" s="22" t="str">
         <f ca="1">IF(H75&lt;&gt;"",IF(AND(A74&lt;&gt;"",ISNUMBER(A74)=TRUE),A74+1,IF(AND(OR(A74="",AND(A74&lt;&gt;"",ISNUMBER(A74)=FALSE))),MAX(OFFSET(A75,1-ROW(),0):OFFSET(A75,-1,0))+1)),"")</f>
         <v/>
@@ -3888,10 +3973,11 @@
       <c r="L75" s="32"/>
       <c r="M75" s="24"/>
       <c r="N75" s="23"/>
-      <c r="O75" s="33"/>
-      <c r="P75" s="25"/>
-    </row>
-    <row r="76" spans="1:16">
+      <c r="O75" s="23"/>
+      <c r="P75" s="33"/>
+      <c r="Q75" s="25"/>
+    </row>
+    <row r="76" spans="1:17">
       <c r="A76" s="22" t="str">
         <f ca="1">IF(H76&lt;&gt;"",IF(AND(A75&lt;&gt;"",ISNUMBER(A75)=TRUE),A75+1,IF(AND(OR(A75="",AND(A75&lt;&gt;"",ISNUMBER(A75)=FALSE))),MAX(OFFSET(A76,1-ROW(),0):OFFSET(A76,-1,0))+1)),"")</f>
         <v/>
@@ -3915,10 +4001,11 @@
       <c r="L76" s="32"/>
       <c r="M76" s="24"/>
       <c r="N76" s="23"/>
-      <c r="O76" s="33"/>
-      <c r="P76" s="25"/>
-    </row>
-    <row r="77" spans="1:16">
+      <c r="O76" s="23"/>
+      <c r="P76" s="33"/>
+      <c r="Q76" s="25"/>
+    </row>
+    <row r="77" spans="1:17">
       <c r="A77" s="22" t="str">
         <f ca="1">IF(H77&lt;&gt;"",IF(AND(A76&lt;&gt;"",ISNUMBER(A76)=TRUE),A76+1,IF(AND(OR(A76="",AND(A76&lt;&gt;"",ISNUMBER(A76)=FALSE))),MAX(OFFSET(A77,1-ROW(),0):OFFSET(A77,-1,0))+1)),"")</f>
         <v/>
@@ -3942,10 +4029,11 @@
       <c r="L77" s="32"/>
       <c r="M77" s="24"/>
       <c r="N77" s="23"/>
-      <c r="O77" s="33"/>
-      <c r="P77" s="25"/>
-    </row>
-    <row r="78" spans="1:16">
+      <c r="O77" s="23"/>
+      <c r="P77" s="33"/>
+      <c r="Q77" s="25"/>
+    </row>
+    <row r="78" spans="1:17">
       <c r="A78" s="22" t="str">
         <f ca="1">IF(H78&lt;&gt;"",IF(AND(A77&lt;&gt;"",ISNUMBER(A77)=TRUE),A77+1,IF(AND(OR(A77="",AND(A77&lt;&gt;"",ISNUMBER(A77)=FALSE))),MAX(OFFSET(A78,1-ROW(),0):OFFSET(A78,-1,0))+1)),"")</f>
         <v/>
@@ -3969,10 +4057,11 @@
       <c r="L78" s="32"/>
       <c r="M78" s="24"/>
       <c r="N78" s="23"/>
-      <c r="O78" s="33"/>
-      <c r="P78" s="25"/>
-    </row>
-    <row r="79" spans="1:16">
+      <c r="O78" s="23"/>
+      <c r="P78" s="33"/>
+      <c r="Q78" s="25"/>
+    </row>
+    <row r="79" spans="1:17">
       <c r="A79" s="22" t="str">
         <f ca="1">IF(H79&lt;&gt;"",IF(AND(A78&lt;&gt;"",ISNUMBER(A78)=TRUE),A78+1,IF(AND(OR(A78="",AND(A78&lt;&gt;"",ISNUMBER(A78)=FALSE))),MAX(OFFSET(A79,1-ROW(),0):OFFSET(A79,-1,0))+1)),"")</f>
         <v/>
@@ -3996,10 +4085,11 @@
       <c r="L79" s="32"/>
       <c r="M79" s="24"/>
       <c r="N79" s="23"/>
-      <c r="O79" s="33"/>
-      <c r="P79" s="25"/>
-    </row>
-    <row r="80" spans="1:16">
+      <c r="O79" s="23"/>
+      <c r="P79" s="33"/>
+      <c r="Q79" s="25"/>
+    </row>
+    <row r="80" spans="1:17">
       <c r="A80" s="22" t="str">
         <f ca="1">IF(H80&lt;&gt;"",IF(AND(A79&lt;&gt;"",ISNUMBER(A79)=TRUE),A79+1,IF(AND(OR(A79="",AND(A79&lt;&gt;"",ISNUMBER(A79)=FALSE))),MAX(OFFSET(A80,1-ROW(),0):OFFSET(A80,-1,0))+1)),"")</f>
         <v/>
@@ -4023,10 +4113,11 @@
       <c r="L80" s="32"/>
       <c r="M80" s="24"/>
       <c r="N80" s="23"/>
-      <c r="O80" s="33"/>
-      <c r="P80" s="25"/>
-    </row>
-    <row r="81" spans="1:16">
+      <c r="O80" s="23"/>
+      <c r="P80" s="33"/>
+      <c r="Q80" s="25"/>
+    </row>
+    <row r="81" spans="1:17">
       <c r="A81" s="22" t="str">
         <f ca="1">IF(H81&lt;&gt;"",IF(AND(A80&lt;&gt;"",ISNUMBER(A80)=TRUE),A80+1,IF(AND(OR(A80="",AND(A80&lt;&gt;"",ISNUMBER(A80)=FALSE))),MAX(OFFSET(A81,1-ROW(),0):OFFSET(A81,-1,0))+1)),"")</f>
         <v/>
@@ -4050,10 +4141,11 @@
       <c r="L81" s="32"/>
       <c r="M81" s="24"/>
       <c r="N81" s="23"/>
-      <c r="O81" s="33"/>
-      <c r="P81" s="25"/>
-    </row>
-    <row r="82" spans="1:16">
+      <c r="O81" s="23"/>
+      <c r="P81" s="33"/>
+      <c r="Q81" s="25"/>
+    </row>
+    <row r="82" spans="1:17">
       <c r="A82" s="22" t="str">
         <f ca="1">IF(H82&lt;&gt;"",IF(AND(A81&lt;&gt;"",ISNUMBER(A81)=TRUE),A81+1,IF(AND(OR(A81="",AND(A81&lt;&gt;"",ISNUMBER(A81)=FALSE))),MAX(OFFSET(A82,1-ROW(),0):OFFSET(A82,-1,0))+1)),"")</f>
         <v/>
@@ -4077,10 +4169,11 @@
       <c r="L82" s="32"/>
       <c r="M82" s="24"/>
       <c r="N82" s="23"/>
-      <c r="O82" s="33"/>
-      <c r="P82" s="25"/>
-    </row>
-    <row r="83" spans="1:16">
+      <c r="O82" s="23"/>
+      <c r="P82" s="33"/>
+      <c r="Q82" s="25"/>
+    </row>
+    <row r="83" spans="1:17">
       <c r="A83" s="22" t="str">
         <f ca="1">IF(H83&lt;&gt;"",IF(AND(A82&lt;&gt;"",ISNUMBER(A82)=TRUE),A82+1,IF(AND(OR(A82="",AND(A82&lt;&gt;"",ISNUMBER(A82)=FALSE))),MAX(OFFSET(A83,1-ROW(),0):OFFSET(A83,-1,0))+1)),"")</f>
         <v/>
@@ -4104,10 +4197,11 @@
       <c r="L83" s="32"/>
       <c r="M83" s="24"/>
       <c r="N83" s="23"/>
-      <c r="O83" s="33"/>
-      <c r="P83" s="25"/>
-    </row>
-    <row r="84" spans="1:16">
+      <c r="O83" s="23"/>
+      <c r="P83" s="33"/>
+      <c r="Q83" s="25"/>
+    </row>
+    <row r="84" spans="1:17">
       <c r="A84" s="22" t="str">
         <f ca="1">IF(H84&lt;&gt;"",IF(AND(A83&lt;&gt;"",ISNUMBER(A83)=TRUE),A83+1,IF(AND(OR(A83="",AND(A83&lt;&gt;"",ISNUMBER(A83)=FALSE))),MAX(OFFSET(A84,1-ROW(),0):OFFSET(A84,-1,0))+1)),"")</f>
         <v/>
@@ -4131,10 +4225,11 @@
       <c r="L84" s="32"/>
       <c r="M84" s="24"/>
       <c r="N84" s="23"/>
-      <c r="O84" s="33"/>
-      <c r="P84" s="25"/>
-    </row>
-    <row r="85" spans="1:16">
+      <c r="O84" s="23"/>
+      <c r="P84" s="33"/>
+      <c r="Q84" s="25"/>
+    </row>
+    <row r="85" spans="1:17">
       <c r="A85" s="22" t="str">
         <f ca="1">IF(H85&lt;&gt;"",IF(AND(A84&lt;&gt;"",ISNUMBER(A84)=TRUE),A84+1,IF(AND(OR(A84="",AND(A84&lt;&gt;"",ISNUMBER(A84)=FALSE))),MAX(OFFSET(A85,1-ROW(),0):OFFSET(A85,-1,0))+1)),"")</f>
         <v/>
@@ -4158,10 +4253,11 @@
       <c r="L85" s="32"/>
       <c r="M85" s="24"/>
       <c r="N85" s="23"/>
-      <c r="O85" s="33"/>
-      <c r="P85" s="25"/>
-    </row>
-    <row r="86" spans="1:16">
+      <c r="O85" s="23"/>
+      <c r="P85" s="33"/>
+      <c r="Q85" s="25"/>
+    </row>
+    <row r="86" spans="1:17">
       <c r="A86" s="22" t="str">
         <f ca="1">IF(H86&lt;&gt;"",IF(AND(A85&lt;&gt;"",ISNUMBER(A85)=TRUE),A85+1,IF(AND(OR(A85="",AND(A85&lt;&gt;"",ISNUMBER(A85)=FALSE))),MAX(OFFSET(A86,1-ROW(),0):OFFSET(A86,-1,0))+1)),"")</f>
         <v/>
@@ -4185,10 +4281,11 @@
       <c r="L86" s="32"/>
       <c r="M86" s="24"/>
       <c r="N86" s="23"/>
-      <c r="O86" s="33"/>
-      <c r="P86" s="25"/>
-    </row>
-    <row r="87" spans="1:16">
+      <c r="O86" s="23"/>
+      <c r="P86" s="33"/>
+      <c r="Q86" s="25"/>
+    </row>
+    <row r="87" spans="1:17">
       <c r="A87" s="22" t="str">
         <f ca="1">IF(H87&lt;&gt;"",IF(AND(A86&lt;&gt;"",ISNUMBER(A86)=TRUE),A86+1,IF(AND(OR(A86="",AND(A86&lt;&gt;"",ISNUMBER(A86)=FALSE))),MAX(OFFSET(A87,1-ROW(),0):OFFSET(A87,-1,0))+1)),"")</f>
         <v/>
@@ -4212,10 +4309,11 @@
       <c r="L87" s="32"/>
       <c r="M87" s="24"/>
       <c r="N87" s="23"/>
-      <c r="O87" s="33"/>
-      <c r="P87" s="25"/>
-    </row>
-    <row r="88" spans="1:16">
+      <c r="O87" s="23"/>
+      <c r="P87" s="33"/>
+      <c r="Q87" s="25"/>
+    </row>
+    <row r="88" spans="1:17">
       <c r="A88" s="22" t="str">
         <f ca="1">IF(H88&lt;&gt;"",IF(AND(A87&lt;&gt;"",ISNUMBER(A87)=TRUE),A87+1,IF(AND(OR(A87="",AND(A87&lt;&gt;"",ISNUMBER(A87)=FALSE))),MAX(OFFSET(A88,1-ROW(),0):OFFSET(A88,-1,0))+1)),"")</f>
         <v/>
@@ -4239,10 +4337,11 @@
       <c r="L88" s="32"/>
       <c r="M88" s="24"/>
       <c r="N88" s="23"/>
-      <c r="O88" s="33"/>
-      <c r="P88" s="25"/>
-    </row>
-    <row r="89" spans="1:16">
+      <c r="O88" s="23"/>
+      <c r="P88" s="33"/>
+      <c r="Q88" s="25"/>
+    </row>
+    <row r="89" spans="1:17">
       <c r="A89" s="22" t="str">
         <f ca="1">IF(H89&lt;&gt;"",IF(AND(A88&lt;&gt;"",ISNUMBER(A88)=TRUE),A88+1,IF(AND(OR(A88="",AND(A88&lt;&gt;"",ISNUMBER(A88)=FALSE))),MAX(OFFSET(A89,1-ROW(),0):OFFSET(A89,-1,0))+1)),"")</f>
         <v/>
@@ -4266,10 +4365,11 @@
       <c r="L89" s="32"/>
       <c r="M89" s="24"/>
       <c r="N89" s="23"/>
-      <c r="O89" s="33"/>
-      <c r="P89" s="25"/>
-    </row>
-    <row r="90" spans="1:16">
+      <c r="O89" s="23"/>
+      <c r="P89" s="33"/>
+      <c r="Q89" s="25"/>
+    </row>
+    <row r="90" spans="1:17">
       <c r="A90" s="22" t="str">
         <f ca="1">IF(H90&lt;&gt;"",IF(AND(A89&lt;&gt;"",ISNUMBER(A89)=TRUE),A89+1,IF(AND(OR(A89="",AND(A89&lt;&gt;"",ISNUMBER(A89)=FALSE))),MAX(OFFSET(A90,1-ROW(),0):OFFSET(A90,-1,0))+1)),"")</f>
         <v/>
@@ -4293,10 +4393,11 @@
       <c r="L90" s="32"/>
       <c r="M90" s="24"/>
       <c r="N90" s="23"/>
-      <c r="O90" s="33"/>
-      <c r="P90" s="25"/>
-    </row>
-    <row r="91" spans="1:16">
+      <c r="O90" s="23"/>
+      <c r="P90" s="33"/>
+      <c r="Q90" s="25"/>
+    </row>
+    <row r="91" spans="1:17">
       <c r="A91" s="22" t="str">
         <f ca="1">IF(H91&lt;&gt;"",IF(AND(A90&lt;&gt;"",ISNUMBER(A90)=TRUE),A90+1,IF(AND(OR(A90="",AND(A90&lt;&gt;"",ISNUMBER(A90)=FALSE))),MAX(OFFSET(A91,1-ROW(),0):OFFSET(A91,-1,0))+1)),"")</f>
         <v/>
@@ -4320,10 +4421,11 @@
       <c r="L91" s="32"/>
       <c r="M91" s="24"/>
       <c r="N91" s="23"/>
-      <c r="O91" s="33"/>
-      <c r="P91" s="25"/>
-    </row>
-    <row r="92" spans="1:16">
+      <c r="O91" s="23"/>
+      <c r="P91" s="33"/>
+      <c r="Q91" s="25"/>
+    </row>
+    <row r="92" spans="1:17">
       <c r="A92" s="22" t="str">
         <f ca="1">IF(H92&lt;&gt;"",IF(AND(A91&lt;&gt;"",ISNUMBER(A91)=TRUE),A91+1,IF(AND(OR(A91="",AND(A91&lt;&gt;"",ISNUMBER(A91)=FALSE))),MAX(OFFSET(A92,1-ROW(),0):OFFSET(A92,-1,0))+1)),"")</f>
         <v/>
@@ -4347,10 +4449,11 @@
       <c r="L92" s="32"/>
       <c r="M92" s="24"/>
       <c r="N92" s="23"/>
-      <c r="O92" s="33"/>
-      <c r="P92" s="25"/>
-    </row>
-    <row r="93" spans="1:16">
+      <c r="O92" s="23"/>
+      <c r="P92" s="33"/>
+      <c r="Q92" s="25"/>
+    </row>
+    <row r="93" spans="1:17">
       <c r="A93" s="22" t="str">
         <f ca="1">IF(H93&lt;&gt;"",IF(AND(A92&lt;&gt;"",ISNUMBER(A92)=TRUE),A92+1,IF(AND(OR(A92="",AND(A92&lt;&gt;"",ISNUMBER(A92)=FALSE))),MAX(OFFSET(A93,1-ROW(),0):OFFSET(A93,-1,0))+1)),"")</f>
         <v/>
@@ -4374,10 +4477,11 @@
       <c r="L93" s="32"/>
       <c r="M93" s="24"/>
       <c r="N93" s="23"/>
-      <c r="O93" s="33"/>
-      <c r="P93" s="25"/>
-    </row>
-    <row r="94" spans="1:16">
+      <c r="O93" s="23"/>
+      <c r="P93" s="33"/>
+      <c r="Q93" s="25"/>
+    </row>
+    <row r="94" spans="1:17">
       <c r="A94" s="22" t="str">
         <f ca="1">IF(H94&lt;&gt;"",IF(AND(A93&lt;&gt;"",ISNUMBER(A93)=TRUE),A93+1,IF(AND(OR(A93="",AND(A93&lt;&gt;"",ISNUMBER(A93)=FALSE))),MAX(OFFSET(A94,1-ROW(),0):OFFSET(A94,-1,0))+1)),"")</f>
         <v/>
@@ -4395,16 +4499,17 @@
         <v/>
       </c>
       <c r="K94" s="27" t="str">
-        <f t="shared" ref="K94:K98" ca="1" si="13">IF(L94="-","",IF(L94&lt;&gt;"",IF(P94&lt;&gt;"","",IF(AND((L94-TODAY())&gt;=1,(L94-TODAY())&lt;=3),"注意",IF((L94-TODAY())&lt;0,"超过",IF(L94=TODAY(),"当日",L94-TODAY())))),""))</f>
+        <f t="shared" ref="K94:K98" ca="1" si="13">IF(L94="-","",IF(L94&lt;&gt;"",IF(Q94&lt;&gt;"","",IF(AND((L94-TODAY())&gt;=1,(L94-TODAY())&lt;=3),"注意",IF((L94-TODAY())&lt;0,"超过",IF(L94=TODAY(),"当日",L94-TODAY())))),""))</f>
         <v/>
       </c>
       <c r="L94" s="32"/>
       <c r="M94" s="24"/>
       <c r="N94" s="23"/>
-      <c r="O94" s="33"/>
-      <c r="P94" s="25"/>
-    </row>
-    <row r="95" spans="1:16">
+      <c r="O94" s="23"/>
+      <c r="P94" s="33"/>
+      <c r="Q94" s="25"/>
+    </row>
+    <row r="95" spans="1:17">
       <c r="A95" s="22" t="str">
         <f ca="1">IF(H95&lt;&gt;"",IF(AND(A94&lt;&gt;"",ISNUMBER(A94)=TRUE),A94+1,IF(AND(OR(A94="",AND(A94&lt;&gt;"",ISNUMBER(A94)=FALSE))),MAX(OFFSET(A95,1-ROW(),0):OFFSET(A95,-1,0))+1)),"")</f>
         <v/>
@@ -4428,10 +4533,11 @@
       <c r="L95" s="32"/>
       <c r="M95" s="24"/>
       <c r="N95" s="23"/>
-      <c r="O95" s="33"/>
-      <c r="P95" s="25"/>
-    </row>
-    <row r="96" spans="1:16">
+      <c r="O95" s="23"/>
+      <c r="P95" s="33"/>
+      <c r="Q95" s="25"/>
+    </row>
+    <row r="96" spans="1:17">
       <c r="A96" s="22" t="str">
         <f ca="1">IF(H96&lt;&gt;"",IF(AND(A95&lt;&gt;"",ISNUMBER(A95)=TRUE),A95+1,IF(AND(OR(A95="",AND(A95&lt;&gt;"",ISNUMBER(A95)=FALSE))),MAX(OFFSET(A96,1-ROW(),0):OFFSET(A96,-1,0))+1)),"")</f>
         <v/>
@@ -4455,10 +4561,11 @@
       <c r="L96" s="32"/>
       <c r="M96" s="24"/>
       <c r="N96" s="23"/>
-      <c r="O96" s="33"/>
-      <c r="P96" s="25"/>
-    </row>
-    <row r="97" spans="1:16">
+      <c r="O96" s="23"/>
+      <c r="P96" s="33"/>
+      <c r="Q96" s="25"/>
+    </row>
+    <row r="97" spans="1:17">
       <c r="A97" s="22" t="str">
         <f ca="1">IF(H97&lt;&gt;"",IF(AND(A96&lt;&gt;"",ISNUMBER(A96)=TRUE),A96+1,IF(AND(OR(A96="",AND(A96&lt;&gt;"",ISNUMBER(A96)=FALSE))),MAX(OFFSET(A97,1-ROW(),0):OFFSET(A97,-1,0))+1)),"")</f>
         <v/>
@@ -4482,10 +4589,11 @@
       <c r="L97" s="32"/>
       <c r="M97" s="24"/>
       <c r="N97" s="23"/>
-      <c r="O97" s="33"/>
-      <c r="P97" s="25"/>
-    </row>
-    <row r="98" spans="1:16">
+      <c r="O97" s="23"/>
+      <c r="P97" s="33"/>
+      <c r="Q97" s="25"/>
+    </row>
+    <row r="98" spans="1:17">
       <c r="A98" s="22" t="str">
         <f ca="1">IF(H98&lt;&gt;"",IF(AND(A97&lt;&gt;"",ISNUMBER(A97)=TRUE),A97+1,IF(AND(OR(A97="",AND(A97&lt;&gt;"",ISNUMBER(A97)=FALSE))),MAX(OFFSET(A98,1-ROW(),0):OFFSET(A98,-1,0))+1)),"")</f>
         <v/>
@@ -4509,47 +4617,50 @@
       <c r="L98" s="32"/>
       <c r="M98" s="24"/>
       <c r="N98" s="23"/>
-      <c r="O98" s="33"/>
-      <c r="P98" s="25"/>
+      <c r="O98" s="23"/>
+      <c r="P98" s="33"/>
+      <c r="Q98" s="25"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P98">
+  <autoFilter ref="A1:Q98">
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
+    <filterColumn colId="7"/>
+    <filterColumn colId="13"/>
   </autoFilter>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="A2:P98">
-    <cfRule type="expression" dxfId="18" priority="6" stopIfTrue="1">
+  <conditionalFormatting sqref="A2:Q98">
+    <cfRule type="expression" dxfId="8" priority="6" stopIfTrue="1">
       <formula>AND($J2="完成")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="17" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
       <formula>AND($J14="完成")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="16" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
       <formula>AND($J23="完成")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O12">
-    <cfRule type="expression" dxfId="15" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="P12">
+    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
       <formula>AND($H12="完成")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O13">
-    <cfRule type="expression" dxfId="14" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="P13">
+    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
       <formula>AND($H13="完成")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O14">
-    <cfRule type="expression" dxfId="13" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="P14">
+    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
       <formula>AND($H14="完成")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H99:H65532 M99:M65532 I3:I65532 D1:F1 N1:P1048576 L1:L1048576 M1 H1:I1 G1:G1048576 A1:C1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H99:H65532 M1 I3:I65532 D1:F1 G1:G1048576 L1:L1048576 M99:M65532 H1:I1 A1:C1048576 N1:Q1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F99:F65532 E2:E65532">
       <formula1>w02_紧急性</formula1>
     </dataValidation>
@@ -4578,7 +4689,7 @@
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>

--- a/docs/6课题/课题一览.xlsx
+++ b/docs/6课题/课题一览.xlsx
@@ -968,28 +968,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1373,13 +1352,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="G20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S25" sqref="S25"/>
+      <selection pane="bottomRight" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1589,7 +1569,7 @@
         <v>43129</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="63" customHeight="1">
+    <row r="5" spans="1:17" ht="63" hidden="1" customHeight="1">
       <c r="A5" s="22">
         <f ca="1">IF(H5&lt;&gt;"",IF(AND(A4&lt;&gt;"",ISNUMBER(A4)=TRUE),A4+1,IF(AND(OR(A4="",AND(A4&lt;&gt;"",ISNUMBER(A4)=FALSE))),MAX(OFFSET(A5,1-ROW(),0):OFFSET(A5,-1,0))+1)),"")</f>
         <v>4</v>
@@ -1677,7 +1657,7 @@
         <v>43132</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="48">
+    <row r="7" spans="1:17" ht="48" hidden="1">
       <c r="A7" s="22">
         <f ca="1">IF(H7&lt;&gt;"",IF(AND(A6&lt;&gt;"",ISNUMBER(A6)=TRUE),A6+1,IF(AND(OR(A6="",AND(A6&lt;&gt;"",ISNUMBER(A6)=FALSE))),MAX(OFFSET(A7,1-ROW(),0):OFFSET(A7,-1,0))+1)),"")</f>
         <v>6</v>
@@ -1897,7 +1877,7 @@
         <v>43132</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="57.75" customHeight="1">
+    <row r="12" spans="1:17" ht="57.75" hidden="1" customHeight="1">
       <c r="A12" s="22">
         <f ca="1">IF(H12&lt;&gt;"",IF(AND(A11&lt;&gt;"",ISNUMBER(A11)=TRUE),A11+1,IF(AND(OR(A11="",AND(A11&lt;&gt;"",ISNUMBER(A11)=FALSE))),MAX(OFFSET(A12,1-ROW(),0):OFFSET(A12,-1,0))+1)),"")</f>
         <v>11</v>
@@ -1941,7 +1921,7 @@
         <v>43132</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="57.75" customHeight="1">
+    <row r="13" spans="1:17" ht="57.75" hidden="1" customHeight="1">
       <c r="A13" s="22">
         <f ca="1">IF(H13&lt;&gt;"",IF(AND(A12&lt;&gt;"",ISNUMBER(A12)=TRUE),A12+1,IF(AND(OR(A12="",AND(A12&lt;&gt;"",ISNUMBER(A12)=FALSE))),MAX(OFFSET(A13,1-ROW(),0):OFFSET(A13,-1,0))+1)),"")</f>
         <v>12</v>
@@ -1985,7 +1965,7 @@
         <v>43132</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="57.75" customHeight="1">
+    <row r="14" spans="1:17" ht="57.75" hidden="1" customHeight="1">
       <c r="A14" s="22">
         <f ca="1">IF(H14&lt;&gt;"",IF(AND(A13&lt;&gt;"",ISNUMBER(A13)=TRUE),A13+1,IF(AND(OR(A13="",AND(A13&lt;&gt;"",ISNUMBER(A13)=FALSE))),MAX(OFFSET(A14,1-ROW(),0):OFFSET(A14,-1,0))+1)),"")</f>
         <v>13</v>
@@ -2689,7 +2669,7 @@
       </c>
       <c r="Q29" s="25"/>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" hidden="1">
       <c r="A30" s="22" t="str">
         <f ca="1">IF(H30&lt;&gt;"",IF(AND(A29&lt;&gt;"",ISNUMBER(A29)=TRUE),A29+1,IF(AND(OR(A29="",AND(A29&lt;&gt;"",ISNUMBER(A29)=FALSE))),MAX(OFFSET(A30,1-ROW(),0):OFFSET(A30,-1,0))+1)),"")</f>
         <v/>
@@ -2717,7 +2697,7 @@
       <c r="P30" s="37"/>
       <c r="Q30" s="25"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" hidden="1">
       <c r="A31" s="22" t="str">
         <f ca="1">IF(H31&lt;&gt;"",IF(AND(A30&lt;&gt;"",ISNUMBER(A30)=TRUE),A30+1,IF(AND(OR(A30="",AND(A30&lt;&gt;"",ISNUMBER(A30)=FALSE))),MAX(OFFSET(A31,1-ROW(),0):OFFSET(A31,-1,0))+1)),"")</f>
         <v/>
@@ -2745,7 +2725,7 @@
       <c r="P31" s="37"/>
       <c r="Q31" s="25"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" hidden="1">
       <c r="A32" s="22" t="str">
         <f ca="1">IF(H32&lt;&gt;"",IF(AND(A31&lt;&gt;"",ISNUMBER(A31)=TRUE),A31+1,IF(AND(OR(A31="",AND(A31&lt;&gt;"",ISNUMBER(A31)=FALSE))),MAX(OFFSET(A32,1-ROW(),0):OFFSET(A32,-1,0))+1)),"")</f>
         <v/>
@@ -2773,7 +2753,7 @@
       <c r="P32" s="37"/>
       <c r="Q32" s="25"/>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" hidden="1">
       <c r="A33" s="22" t="str">
         <f ca="1">IF(H33&lt;&gt;"",IF(AND(A32&lt;&gt;"",ISNUMBER(A32)=TRUE),A32+1,IF(AND(OR(A32="",AND(A32&lt;&gt;"",ISNUMBER(A32)=FALSE))),MAX(OFFSET(A33,1-ROW(),0):OFFSET(A33,-1,0))+1)),"")</f>
         <v/>
@@ -2801,7 +2781,7 @@
       <c r="P33" s="37"/>
       <c r="Q33" s="25"/>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" hidden="1">
       <c r="A34" s="22" t="str">
         <f ca="1">IF(H34&lt;&gt;"",IF(AND(A33&lt;&gt;"",ISNUMBER(A33)=TRUE),A33+1,IF(AND(OR(A33="",AND(A33&lt;&gt;"",ISNUMBER(A33)=FALSE))),MAX(OFFSET(A34,1-ROW(),0):OFFSET(A34,-1,0))+1)),"")</f>
         <v/>
@@ -2829,7 +2809,7 @@
       <c r="P34" s="37"/>
       <c r="Q34" s="25"/>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" hidden="1">
       <c r="A35" s="22" t="str">
         <f ca="1">IF(H35&lt;&gt;"",IF(AND(A34&lt;&gt;"",ISNUMBER(A34)=TRUE),A34+1,IF(AND(OR(A34="",AND(A34&lt;&gt;"",ISNUMBER(A34)=FALSE))),MAX(OFFSET(A35,1-ROW(),0):OFFSET(A35,-1,0))+1)),"")</f>
         <v/>
@@ -2857,7 +2837,7 @@
       <c r="P35" s="37"/>
       <c r="Q35" s="25"/>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" hidden="1">
       <c r="A36" s="22" t="str">
         <f ca="1">IF(H36&lt;&gt;"",IF(AND(A35&lt;&gt;"",ISNUMBER(A35)=TRUE),A35+1,IF(AND(OR(A35="",AND(A35&lt;&gt;"",ISNUMBER(A35)=FALSE))),MAX(OFFSET(A36,1-ROW(),0):OFFSET(A36,-1,0))+1)),"")</f>
         <v/>
@@ -2885,7 +2865,7 @@
       <c r="P36" s="37"/>
       <c r="Q36" s="25"/>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" hidden="1">
       <c r="A37" s="22" t="str">
         <f ca="1">IF(H37&lt;&gt;"",IF(AND(A36&lt;&gt;"",ISNUMBER(A36)=TRUE),A36+1,IF(AND(OR(A36="",AND(A36&lt;&gt;"",ISNUMBER(A36)=FALSE))),MAX(OFFSET(A37,1-ROW(),0):OFFSET(A37,-1,0))+1)),"")</f>
         <v/>
@@ -2913,7 +2893,7 @@
       <c r="P37" s="37"/>
       <c r="Q37" s="25"/>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" hidden="1">
       <c r="A38" s="22" t="str">
         <f ca="1">IF(H38&lt;&gt;"",IF(AND(A37&lt;&gt;"",ISNUMBER(A37)=TRUE),A37+1,IF(AND(OR(A37="",AND(A37&lt;&gt;"",ISNUMBER(A37)=FALSE))),MAX(OFFSET(A38,1-ROW(),0):OFFSET(A38,-1,0))+1)),"")</f>
         <v/>
@@ -2941,7 +2921,7 @@
       <c r="P38" s="37"/>
       <c r="Q38" s="25"/>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" hidden="1">
       <c r="A39" s="22" t="str">
         <f ca="1">IF(H39&lt;&gt;"",IF(AND(A38&lt;&gt;"",ISNUMBER(A38)=TRUE),A38+1,IF(AND(OR(A38="",AND(A38&lt;&gt;"",ISNUMBER(A38)=FALSE))),MAX(OFFSET(A39,1-ROW(),0):OFFSET(A39,-1,0))+1)),"")</f>
         <v/>
@@ -2969,7 +2949,7 @@
       <c r="P39" s="37"/>
       <c r="Q39" s="25"/>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" hidden="1">
       <c r="A40" s="22" t="str">
         <f ca="1">IF(H40&lt;&gt;"",IF(AND(A39&lt;&gt;"",ISNUMBER(A39)=TRUE),A39+1,IF(AND(OR(A39="",AND(A39&lt;&gt;"",ISNUMBER(A39)=FALSE))),MAX(OFFSET(A40,1-ROW(),0):OFFSET(A40,-1,0))+1)),"")</f>
         <v/>
@@ -2997,7 +2977,7 @@
       <c r="P40" s="37"/>
       <c r="Q40" s="25"/>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" hidden="1">
       <c r="A41" s="22" t="str">
         <f ca="1">IF(H41&lt;&gt;"",IF(AND(A40&lt;&gt;"",ISNUMBER(A40)=TRUE),A40+1,IF(AND(OR(A40="",AND(A40&lt;&gt;"",ISNUMBER(A40)=FALSE))),MAX(OFFSET(A41,1-ROW(),0):OFFSET(A41,-1,0))+1)),"")</f>
         <v/>
@@ -3025,7 +3005,7 @@
       <c r="P41" s="33"/>
       <c r="Q41" s="25"/>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" hidden="1">
       <c r="A42" s="22" t="str">
         <f ca="1">IF(H42&lt;&gt;"",IF(AND(A41&lt;&gt;"",ISNUMBER(A41)=TRUE),A41+1,IF(AND(OR(A41="",AND(A41&lt;&gt;"",ISNUMBER(A41)=FALSE))),MAX(OFFSET(A42,1-ROW(),0):OFFSET(A42,-1,0))+1)),"")</f>
         <v/>
@@ -3053,7 +3033,7 @@
       <c r="P42" s="33"/>
       <c r="Q42" s="38"/>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" hidden="1">
       <c r="A43" s="22" t="str">
         <f ca="1">IF(H43&lt;&gt;"",IF(AND(A42&lt;&gt;"",ISNUMBER(A42)=TRUE),A42+1,IF(AND(OR(A42="",AND(A42&lt;&gt;"",ISNUMBER(A42)=FALSE))),MAX(OFFSET(A43,1-ROW(),0):OFFSET(A43,-1,0))+1)),"")</f>
         <v/>
@@ -3081,7 +3061,7 @@
       <c r="P43" s="37"/>
       <c r="Q43" s="25"/>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" hidden="1">
       <c r="A44" s="22" t="str">
         <f ca="1">IF(H44&lt;&gt;"",IF(AND(A43&lt;&gt;"",ISNUMBER(A43)=TRUE),A43+1,IF(AND(OR(A43="",AND(A43&lt;&gt;"",ISNUMBER(A43)=FALSE))),MAX(OFFSET(A44,1-ROW(),0):OFFSET(A44,-1,0))+1)),"")</f>
         <v/>
@@ -3109,7 +3089,7 @@
       <c r="P44" s="37"/>
       <c r="Q44" s="25"/>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" hidden="1">
       <c r="A45" s="22" t="str">
         <f ca="1">IF(H45&lt;&gt;"",IF(AND(A44&lt;&gt;"",ISNUMBER(A44)=TRUE),A44+1,IF(AND(OR(A44="",AND(A44&lt;&gt;"",ISNUMBER(A44)=FALSE))),MAX(OFFSET(A45,1-ROW(),0):OFFSET(A45,-1,0))+1)),"")</f>
         <v/>
@@ -3137,7 +3117,7 @@
       <c r="P45" s="37"/>
       <c r="Q45" s="25"/>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" hidden="1">
       <c r="A46" s="22" t="str">
         <f ca="1">IF(H46&lt;&gt;"",IF(AND(A45&lt;&gt;"",ISNUMBER(A45)=TRUE),A45+1,IF(AND(OR(A45="",AND(A45&lt;&gt;"",ISNUMBER(A45)=FALSE))),MAX(OFFSET(A46,1-ROW(),0):OFFSET(A46,-1,0))+1)),"")</f>
         <v/>
@@ -3165,7 +3145,7 @@
       <c r="P46" s="37"/>
       <c r="Q46" s="25"/>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" hidden="1">
       <c r="A47" s="22" t="str">
         <f ca="1">IF(H47&lt;&gt;"",IF(AND(A46&lt;&gt;"",ISNUMBER(A46)=TRUE),A46+1,IF(AND(OR(A46="",AND(A46&lt;&gt;"",ISNUMBER(A46)=FALSE))),MAX(OFFSET(A47,1-ROW(),0):OFFSET(A47,-1,0))+1)),"")</f>
         <v/>
@@ -3193,7 +3173,7 @@
       <c r="P47" s="37"/>
       <c r="Q47" s="25"/>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" hidden="1">
       <c r="A48" s="22" t="str">
         <f ca="1">IF(H48&lt;&gt;"",IF(AND(A47&lt;&gt;"",ISNUMBER(A47)=TRUE),A47+1,IF(AND(OR(A47="",AND(A47&lt;&gt;"",ISNUMBER(A47)=FALSE))),MAX(OFFSET(A48,1-ROW(),0):OFFSET(A48,-1,0))+1)),"")</f>
         <v/>
@@ -3221,7 +3201,7 @@
       <c r="P48" s="37"/>
       <c r="Q48" s="25"/>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" hidden="1">
       <c r="A49" s="22" t="str">
         <f ca="1">IF(H49&lt;&gt;"",IF(AND(A48&lt;&gt;"",ISNUMBER(A48)=TRUE),A48+1,IF(AND(OR(A48="",AND(A48&lt;&gt;"",ISNUMBER(A48)=FALSE))),MAX(OFFSET(A49,1-ROW(),0):OFFSET(A49,-1,0))+1)),"")</f>
         <v/>
@@ -3249,7 +3229,7 @@
       <c r="P49" s="37"/>
       <c r="Q49" s="25"/>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" hidden="1">
       <c r="A50" s="22" t="str">
         <f ca="1">IF(H50&lt;&gt;"",IF(AND(A49&lt;&gt;"",ISNUMBER(A49)=TRUE),A49+1,IF(AND(OR(A49="",AND(A49&lt;&gt;"",ISNUMBER(A49)=FALSE))),MAX(OFFSET(A50,1-ROW(),0):OFFSET(A50,-1,0))+1)),"")</f>
         <v/>
@@ -3277,7 +3257,7 @@
       <c r="P50" s="37"/>
       <c r="Q50" s="25"/>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" hidden="1">
       <c r="A51" s="22" t="str">
         <f ca="1">IF(H51&lt;&gt;"",IF(AND(A50&lt;&gt;"",ISNUMBER(A50)=TRUE),A50+1,IF(AND(OR(A50="",AND(A50&lt;&gt;"",ISNUMBER(A50)=FALSE))),MAX(OFFSET(A51,1-ROW(),0):OFFSET(A51,-1,0))+1)),"")</f>
         <v/>
@@ -3305,7 +3285,7 @@
       <c r="P51" s="37"/>
       <c r="Q51" s="25"/>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" hidden="1">
       <c r="A52" s="22" t="str">
         <f ca="1">IF(H52&lt;&gt;"",IF(AND(A51&lt;&gt;"",ISNUMBER(A51)=TRUE),A51+1,IF(AND(OR(A51="",AND(A51&lt;&gt;"",ISNUMBER(A51)=FALSE))),MAX(OFFSET(A52,1-ROW(),0):OFFSET(A52,-1,0))+1)),"")</f>
         <v/>
@@ -3333,7 +3313,7 @@
       <c r="P52" s="33"/>
       <c r="Q52" s="25"/>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" hidden="1">
       <c r="A53" s="22" t="str">
         <f ca="1">IF(H53&lt;&gt;"",IF(AND(A52&lt;&gt;"",ISNUMBER(A52)=TRUE),A52+1,IF(AND(OR(A52="",AND(A52&lt;&gt;"",ISNUMBER(A52)=FALSE))),MAX(OFFSET(A53,1-ROW(),0):OFFSET(A53,-1,0))+1)),"")</f>
         <v/>
@@ -3361,7 +3341,7 @@
       <c r="P53" s="33"/>
       <c r="Q53" s="25"/>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" hidden="1">
       <c r="A54" s="22" t="str">
         <f ca="1">IF(H54&lt;&gt;"",IF(AND(A53&lt;&gt;"",ISNUMBER(A53)=TRUE),A53+1,IF(AND(OR(A53="",AND(A53&lt;&gt;"",ISNUMBER(A53)=FALSE))),MAX(OFFSET(A54,1-ROW(),0):OFFSET(A54,-1,0))+1)),"")</f>
         <v/>
@@ -3389,7 +3369,7 @@
       <c r="P54" s="33"/>
       <c r="Q54" s="25"/>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" hidden="1">
       <c r="A55" s="22" t="str">
         <f ca="1">IF(H55&lt;&gt;"",IF(AND(A54&lt;&gt;"",ISNUMBER(A54)=TRUE),A54+1,IF(AND(OR(A54="",AND(A54&lt;&gt;"",ISNUMBER(A54)=FALSE))),MAX(OFFSET(A55,1-ROW(),0):OFFSET(A55,-1,0))+1)),"")</f>
         <v/>
@@ -3417,7 +3397,7 @@
       <c r="P55" s="33"/>
       <c r="Q55" s="25"/>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" hidden="1">
       <c r="A56" s="22" t="str">
         <f ca="1">IF(H56&lt;&gt;"",IF(AND(A55&lt;&gt;"",ISNUMBER(A55)=TRUE),A55+1,IF(AND(OR(A55="",AND(A55&lt;&gt;"",ISNUMBER(A55)=FALSE))),MAX(OFFSET(A56,1-ROW(),0):OFFSET(A56,-1,0))+1)),"")</f>
         <v/>
@@ -3445,7 +3425,7 @@
       <c r="P56" s="33"/>
       <c r="Q56" s="25"/>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" hidden="1">
       <c r="A57" s="22" t="str">
         <f ca="1">IF(H57&lt;&gt;"",IF(AND(A56&lt;&gt;"",ISNUMBER(A56)=TRUE),A56+1,IF(AND(OR(A56="",AND(A56&lt;&gt;"",ISNUMBER(A56)=FALSE))),MAX(OFFSET(A57,1-ROW(),0):OFFSET(A57,-1,0))+1)),"")</f>
         <v/>
@@ -3473,7 +3453,7 @@
       <c r="P57" s="33"/>
       <c r="Q57" s="25"/>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" hidden="1">
       <c r="A58" s="22" t="str">
         <f ca="1">IF(H58&lt;&gt;"",IF(AND(A57&lt;&gt;"",ISNUMBER(A57)=TRUE),A57+1,IF(AND(OR(A57="",AND(A57&lt;&gt;"",ISNUMBER(A57)=FALSE))),MAX(OFFSET(A58,1-ROW(),0):OFFSET(A58,-1,0))+1)),"")</f>
         <v/>
@@ -3501,7 +3481,7 @@
       <c r="P58" s="33"/>
       <c r="Q58" s="25"/>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" hidden="1">
       <c r="A59" s="22" t="str">
         <f ca="1">IF(H59&lt;&gt;"",IF(AND(A58&lt;&gt;"",ISNUMBER(A58)=TRUE),A58+1,IF(AND(OR(A58="",AND(A58&lt;&gt;"",ISNUMBER(A58)=FALSE))),MAX(OFFSET(A59,1-ROW(),0):OFFSET(A59,-1,0))+1)),"")</f>
         <v/>
@@ -3529,7 +3509,7 @@
       <c r="P59" s="33"/>
       <c r="Q59" s="25"/>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:17" hidden="1">
       <c r="A60" s="22" t="str">
         <f ca="1">IF(H60&lt;&gt;"",IF(AND(A59&lt;&gt;"",ISNUMBER(A59)=TRUE),A59+1,IF(AND(OR(A59="",AND(A59&lt;&gt;"",ISNUMBER(A59)=FALSE))),MAX(OFFSET(A60,1-ROW(),0):OFFSET(A60,-1,0))+1)),"")</f>
         <v/>
@@ -3557,7 +3537,7 @@
       <c r="P60" s="33"/>
       <c r="Q60" s="25"/>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" hidden="1">
       <c r="A61" s="22" t="str">
         <f ca="1">IF(H61&lt;&gt;"",IF(AND(A60&lt;&gt;"",ISNUMBER(A60)=TRUE),A60+1,IF(AND(OR(A60="",AND(A60&lt;&gt;"",ISNUMBER(A60)=FALSE))),MAX(OFFSET(A61,1-ROW(),0):OFFSET(A61,-1,0))+1)),"")</f>
         <v/>
@@ -3585,7 +3565,7 @@
       <c r="P61" s="33"/>
       <c r="Q61" s="25"/>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" hidden="1">
       <c r="A62" s="22" t="str">
         <f ca="1">IF(H62&lt;&gt;"",IF(AND(A61&lt;&gt;"",ISNUMBER(A61)=TRUE),A61+1,IF(AND(OR(A61="",AND(A61&lt;&gt;"",ISNUMBER(A61)=FALSE))),MAX(OFFSET(A62,1-ROW(),0):OFFSET(A62,-1,0))+1)),"")</f>
         <v/>
@@ -3613,7 +3593,7 @@
       <c r="P62" s="33"/>
       <c r="Q62" s="25"/>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:17" hidden="1">
       <c r="A63" s="22" t="str">
         <f ca="1">IF(H63&lt;&gt;"",IF(AND(A62&lt;&gt;"",ISNUMBER(A62)=TRUE),A62+1,IF(AND(OR(A62="",AND(A62&lt;&gt;"",ISNUMBER(A62)=FALSE))),MAX(OFFSET(A63,1-ROW(),0):OFFSET(A63,-1,0))+1)),"")</f>
         <v/>
@@ -3641,7 +3621,7 @@
       <c r="P63" s="33"/>
       <c r="Q63" s="25"/>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:17" hidden="1">
       <c r="A64" s="22" t="str">
         <f ca="1">IF(H64&lt;&gt;"",IF(AND(A63&lt;&gt;"",ISNUMBER(A63)=TRUE),A63+1,IF(AND(OR(A63="",AND(A63&lt;&gt;"",ISNUMBER(A63)=FALSE))),MAX(OFFSET(A64,1-ROW(),0):OFFSET(A64,-1,0))+1)),"")</f>
         <v/>
@@ -3669,7 +3649,7 @@
       <c r="P64" s="33"/>
       <c r="Q64" s="25"/>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" hidden="1">
       <c r="A65" s="22" t="str">
         <f ca="1">IF(H65&lt;&gt;"",IF(AND(A64&lt;&gt;"",ISNUMBER(A64)=TRUE),A64+1,IF(AND(OR(A64="",AND(A64&lt;&gt;"",ISNUMBER(A64)=FALSE))),MAX(OFFSET(A65,1-ROW(),0):OFFSET(A65,-1,0))+1)),"")</f>
         <v/>
@@ -3697,7 +3677,7 @@
       <c r="P65" s="33"/>
       <c r="Q65" s="25"/>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" hidden="1">
       <c r="A66" s="22" t="str">
         <f ca="1">IF(H66&lt;&gt;"",IF(AND(A65&lt;&gt;"",ISNUMBER(A65)=TRUE),A65+1,IF(AND(OR(A65="",AND(A65&lt;&gt;"",ISNUMBER(A65)=FALSE))),MAX(OFFSET(A66,1-ROW(),0):OFFSET(A66,-1,0))+1)),"")</f>
         <v/>
@@ -3725,7 +3705,7 @@
       <c r="P66" s="33"/>
       <c r="Q66" s="25"/>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" hidden="1">
       <c r="A67" s="22" t="str">
         <f ca="1">IF(H67&lt;&gt;"",IF(AND(A66&lt;&gt;"",ISNUMBER(A66)=TRUE),A66+1,IF(AND(OR(A66="",AND(A66&lt;&gt;"",ISNUMBER(A66)=FALSE))),MAX(OFFSET(A67,1-ROW(),0):OFFSET(A67,-1,0))+1)),"")</f>
         <v/>
@@ -3753,7 +3733,7 @@
       <c r="P67" s="33"/>
       <c r="Q67" s="25"/>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:17" hidden="1">
       <c r="A68" s="22" t="str">
         <f ca="1">IF(H68&lt;&gt;"",IF(AND(A67&lt;&gt;"",ISNUMBER(A67)=TRUE),A67+1,IF(AND(OR(A67="",AND(A67&lt;&gt;"",ISNUMBER(A67)=FALSE))),MAX(OFFSET(A68,1-ROW(),0):OFFSET(A68,-1,0))+1)),"")</f>
         <v/>
@@ -3781,7 +3761,7 @@
       <c r="P68" s="33"/>
       <c r="Q68" s="25"/>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:17" hidden="1">
       <c r="A69" s="22" t="str">
         <f ca="1">IF(H69&lt;&gt;"",IF(AND(A68&lt;&gt;"",ISNUMBER(A68)=TRUE),A68+1,IF(AND(OR(A68="",AND(A68&lt;&gt;"",ISNUMBER(A68)=FALSE))),MAX(OFFSET(A69,1-ROW(),0):OFFSET(A69,-1,0))+1)),"")</f>
         <v/>
@@ -3809,7 +3789,7 @@
       <c r="P69" s="33"/>
       <c r="Q69" s="25"/>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:17" hidden="1">
       <c r="A70" s="22" t="str">
         <f ca="1">IF(H70&lt;&gt;"",IF(AND(A69&lt;&gt;"",ISNUMBER(A69)=TRUE),A69+1,IF(AND(OR(A69="",AND(A69&lt;&gt;"",ISNUMBER(A69)=FALSE))),MAX(OFFSET(A70,1-ROW(),0):OFFSET(A70,-1,0))+1)),"")</f>
         <v/>
@@ -3837,7 +3817,7 @@
       <c r="P70" s="33"/>
       <c r="Q70" s="25"/>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:17" hidden="1">
       <c r="A71" s="22" t="str">
         <f ca="1">IF(H71&lt;&gt;"",IF(AND(A70&lt;&gt;"",ISNUMBER(A70)=TRUE),A70+1,IF(AND(OR(A70="",AND(A70&lt;&gt;"",ISNUMBER(A70)=FALSE))),MAX(OFFSET(A71,1-ROW(),0):OFFSET(A71,-1,0))+1)),"")</f>
         <v/>
@@ -3865,7 +3845,7 @@
       <c r="P71" s="33"/>
       <c r="Q71" s="25"/>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:17" hidden="1">
       <c r="A72" s="22" t="str">
         <f ca="1">IF(H72&lt;&gt;"",IF(AND(A71&lt;&gt;"",ISNUMBER(A71)=TRUE),A71+1,IF(AND(OR(A71="",AND(A71&lt;&gt;"",ISNUMBER(A71)=FALSE))),MAX(OFFSET(A72,1-ROW(),0):OFFSET(A72,-1,0))+1)),"")</f>
         <v/>
@@ -3893,7 +3873,7 @@
       <c r="P72" s="33"/>
       <c r="Q72" s="25"/>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:17" hidden="1">
       <c r="A73" s="22" t="str">
         <f ca="1">IF(H73&lt;&gt;"",IF(AND(A72&lt;&gt;"",ISNUMBER(A72)=TRUE),A72+1,IF(AND(OR(A72="",AND(A72&lt;&gt;"",ISNUMBER(A72)=FALSE))),MAX(OFFSET(A73,1-ROW(),0):OFFSET(A73,-1,0))+1)),"")</f>
         <v/>
@@ -3921,7 +3901,7 @@
       <c r="P73" s="33"/>
       <c r="Q73" s="25"/>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:17" hidden="1">
       <c r="A74" s="22" t="str">
         <f ca="1">IF(H74&lt;&gt;"",IF(AND(A73&lt;&gt;"",ISNUMBER(A73)=TRUE),A73+1,IF(AND(OR(A73="",AND(A73&lt;&gt;"",ISNUMBER(A73)=FALSE))),MAX(OFFSET(A74,1-ROW(),0):OFFSET(A74,-1,0))+1)),"")</f>
         <v/>
@@ -3949,7 +3929,7 @@
       <c r="P74" s="33"/>
       <c r="Q74" s="25"/>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:17" hidden="1">
       <c r="A75" s="22" t="str">
         <f ca="1">IF(H75&lt;&gt;"",IF(AND(A74&lt;&gt;"",ISNUMBER(A74)=TRUE),A74+1,IF(AND(OR(A74="",AND(A74&lt;&gt;"",ISNUMBER(A74)=FALSE))),MAX(OFFSET(A75,1-ROW(),0):OFFSET(A75,-1,0))+1)),"")</f>
         <v/>
@@ -3977,7 +3957,7 @@
       <c r="P75" s="33"/>
       <c r="Q75" s="25"/>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:17" hidden="1">
       <c r="A76" s="22" t="str">
         <f ca="1">IF(H76&lt;&gt;"",IF(AND(A75&lt;&gt;"",ISNUMBER(A75)=TRUE),A75+1,IF(AND(OR(A75="",AND(A75&lt;&gt;"",ISNUMBER(A75)=FALSE))),MAX(OFFSET(A76,1-ROW(),0):OFFSET(A76,-1,0))+1)),"")</f>
         <v/>
@@ -4005,7 +3985,7 @@
       <c r="P76" s="33"/>
       <c r="Q76" s="25"/>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:17" hidden="1">
       <c r="A77" s="22" t="str">
         <f ca="1">IF(H77&lt;&gt;"",IF(AND(A76&lt;&gt;"",ISNUMBER(A76)=TRUE),A76+1,IF(AND(OR(A76="",AND(A76&lt;&gt;"",ISNUMBER(A76)=FALSE))),MAX(OFFSET(A77,1-ROW(),0):OFFSET(A77,-1,0))+1)),"")</f>
         <v/>
@@ -4033,7 +4013,7 @@
       <c r="P77" s="33"/>
       <c r="Q77" s="25"/>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:17" hidden="1">
       <c r="A78" s="22" t="str">
         <f ca="1">IF(H78&lt;&gt;"",IF(AND(A77&lt;&gt;"",ISNUMBER(A77)=TRUE),A77+1,IF(AND(OR(A77="",AND(A77&lt;&gt;"",ISNUMBER(A77)=FALSE))),MAX(OFFSET(A78,1-ROW(),0):OFFSET(A78,-1,0))+1)),"")</f>
         <v/>
@@ -4061,7 +4041,7 @@
       <c r="P78" s="33"/>
       <c r="Q78" s="25"/>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:17" hidden="1">
       <c r="A79" s="22" t="str">
         <f ca="1">IF(H79&lt;&gt;"",IF(AND(A78&lt;&gt;"",ISNUMBER(A78)=TRUE),A78+1,IF(AND(OR(A78="",AND(A78&lt;&gt;"",ISNUMBER(A78)=FALSE))),MAX(OFFSET(A79,1-ROW(),0):OFFSET(A79,-1,0))+1)),"")</f>
         <v/>
@@ -4089,7 +4069,7 @@
       <c r="P79" s="33"/>
       <c r="Q79" s="25"/>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:17" hidden="1">
       <c r="A80" s="22" t="str">
         <f ca="1">IF(H80&lt;&gt;"",IF(AND(A79&lt;&gt;"",ISNUMBER(A79)=TRUE),A79+1,IF(AND(OR(A79="",AND(A79&lt;&gt;"",ISNUMBER(A79)=FALSE))),MAX(OFFSET(A80,1-ROW(),0):OFFSET(A80,-1,0))+1)),"")</f>
         <v/>
@@ -4117,7 +4097,7 @@
       <c r="P80" s="33"/>
       <c r="Q80" s="25"/>
     </row>
-    <row r="81" spans="1:17">
+    <row r="81" spans="1:17" hidden="1">
       <c r="A81" s="22" t="str">
         <f ca="1">IF(H81&lt;&gt;"",IF(AND(A80&lt;&gt;"",ISNUMBER(A80)=TRUE),A80+1,IF(AND(OR(A80="",AND(A80&lt;&gt;"",ISNUMBER(A80)=FALSE))),MAX(OFFSET(A81,1-ROW(),0):OFFSET(A81,-1,0))+1)),"")</f>
         <v/>
@@ -4145,7 +4125,7 @@
       <c r="P81" s="33"/>
       <c r="Q81" s="25"/>
     </row>
-    <row r="82" spans="1:17">
+    <row r="82" spans="1:17" hidden="1">
       <c r="A82" s="22" t="str">
         <f ca="1">IF(H82&lt;&gt;"",IF(AND(A81&lt;&gt;"",ISNUMBER(A81)=TRUE),A81+1,IF(AND(OR(A81="",AND(A81&lt;&gt;"",ISNUMBER(A81)=FALSE))),MAX(OFFSET(A82,1-ROW(),0):OFFSET(A82,-1,0))+1)),"")</f>
         <v/>
@@ -4173,7 +4153,7 @@
       <c r="P82" s="33"/>
       <c r="Q82" s="25"/>
     </row>
-    <row r="83" spans="1:17">
+    <row r="83" spans="1:17" hidden="1">
       <c r="A83" s="22" t="str">
         <f ca="1">IF(H83&lt;&gt;"",IF(AND(A82&lt;&gt;"",ISNUMBER(A82)=TRUE),A82+1,IF(AND(OR(A82="",AND(A82&lt;&gt;"",ISNUMBER(A82)=FALSE))),MAX(OFFSET(A83,1-ROW(),0):OFFSET(A83,-1,0))+1)),"")</f>
         <v/>
@@ -4201,7 +4181,7 @@
       <c r="P83" s="33"/>
       <c r="Q83" s="25"/>
     </row>
-    <row r="84" spans="1:17">
+    <row r="84" spans="1:17" hidden="1">
       <c r="A84" s="22" t="str">
         <f ca="1">IF(H84&lt;&gt;"",IF(AND(A83&lt;&gt;"",ISNUMBER(A83)=TRUE),A83+1,IF(AND(OR(A83="",AND(A83&lt;&gt;"",ISNUMBER(A83)=FALSE))),MAX(OFFSET(A84,1-ROW(),0):OFFSET(A84,-1,0))+1)),"")</f>
         <v/>
@@ -4229,7 +4209,7 @@
       <c r="P84" s="33"/>
       <c r="Q84" s="25"/>
     </row>
-    <row r="85" spans="1:17">
+    <row r="85" spans="1:17" hidden="1">
       <c r="A85" s="22" t="str">
         <f ca="1">IF(H85&lt;&gt;"",IF(AND(A84&lt;&gt;"",ISNUMBER(A84)=TRUE),A84+1,IF(AND(OR(A84="",AND(A84&lt;&gt;"",ISNUMBER(A84)=FALSE))),MAX(OFFSET(A85,1-ROW(),0):OFFSET(A85,-1,0))+1)),"")</f>
         <v/>
@@ -4257,7 +4237,7 @@
       <c r="P85" s="33"/>
       <c r="Q85" s="25"/>
     </row>
-    <row r="86" spans="1:17">
+    <row r="86" spans="1:17" hidden="1">
       <c r="A86" s="22" t="str">
         <f ca="1">IF(H86&lt;&gt;"",IF(AND(A85&lt;&gt;"",ISNUMBER(A85)=TRUE),A85+1,IF(AND(OR(A85="",AND(A85&lt;&gt;"",ISNUMBER(A85)=FALSE))),MAX(OFFSET(A86,1-ROW(),0):OFFSET(A86,-1,0))+1)),"")</f>
         <v/>
@@ -4285,7 +4265,7 @@
       <c r="P86" s="33"/>
       <c r="Q86" s="25"/>
     </row>
-    <row r="87" spans="1:17">
+    <row r="87" spans="1:17" hidden="1">
       <c r="A87" s="22" t="str">
         <f ca="1">IF(H87&lt;&gt;"",IF(AND(A86&lt;&gt;"",ISNUMBER(A86)=TRUE),A86+1,IF(AND(OR(A86="",AND(A86&lt;&gt;"",ISNUMBER(A86)=FALSE))),MAX(OFFSET(A87,1-ROW(),0):OFFSET(A87,-1,0))+1)),"")</f>
         <v/>
@@ -4313,7 +4293,7 @@
       <c r="P87" s="33"/>
       <c r="Q87" s="25"/>
     </row>
-    <row r="88" spans="1:17">
+    <row r="88" spans="1:17" hidden="1">
       <c r="A88" s="22" t="str">
         <f ca="1">IF(H88&lt;&gt;"",IF(AND(A87&lt;&gt;"",ISNUMBER(A87)=TRUE),A87+1,IF(AND(OR(A87="",AND(A87&lt;&gt;"",ISNUMBER(A87)=FALSE))),MAX(OFFSET(A88,1-ROW(),0):OFFSET(A88,-1,0))+1)),"")</f>
         <v/>
@@ -4341,7 +4321,7 @@
       <c r="P88" s="33"/>
       <c r="Q88" s="25"/>
     </row>
-    <row r="89" spans="1:17">
+    <row r="89" spans="1:17" hidden="1">
       <c r="A89" s="22" t="str">
         <f ca="1">IF(H89&lt;&gt;"",IF(AND(A88&lt;&gt;"",ISNUMBER(A88)=TRUE),A88+1,IF(AND(OR(A88="",AND(A88&lt;&gt;"",ISNUMBER(A88)=FALSE))),MAX(OFFSET(A89,1-ROW(),0):OFFSET(A89,-1,0))+1)),"")</f>
         <v/>
@@ -4369,7 +4349,7 @@
       <c r="P89" s="33"/>
       <c r="Q89" s="25"/>
     </row>
-    <row r="90" spans="1:17">
+    <row r="90" spans="1:17" hidden="1">
       <c r="A90" s="22" t="str">
         <f ca="1">IF(H90&lt;&gt;"",IF(AND(A89&lt;&gt;"",ISNUMBER(A89)=TRUE),A89+1,IF(AND(OR(A89="",AND(A89&lt;&gt;"",ISNUMBER(A89)=FALSE))),MAX(OFFSET(A90,1-ROW(),0):OFFSET(A90,-1,0))+1)),"")</f>
         <v/>
@@ -4397,7 +4377,7 @@
       <c r="P90" s="33"/>
       <c r="Q90" s="25"/>
     </row>
-    <row r="91" spans="1:17">
+    <row r="91" spans="1:17" hidden="1">
       <c r="A91" s="22" t="str">
         <f ca="1">IF(H91&lt;&gt;"",IF(AND(A90&lt;&gt;"",ISNUMBER(A90)=TRUE),A90+1,IF(AND(OR(A90="",AND(A90&lt;&gt;"",ISNUMBER(A90)=FALSE))),MAX(OFFSET(A91,1-ROW(),0):OFFSET(A91,-1,0))+1)),"")</f>
         <v/>
@@ -4425,7 +4405,7 @@
       <c r="P91" s="33"/>
       <c r="Q91" s="25"/>
     </row>
-    <row r="92" spans="1:17">
+    <row r="92" spans="1:17" hidden="1">
       <c r="A92" s="22" t="str">
         <f ca="1">IF(H92&lt;&gt;"",IF(AND(A91&lt;&gt;"",ISNUMBER(A91)=TRUE),A91+1,IF(AND(OR(A91="",AND(A91&lt;&gt;"",ISNUMBER(A91)=FALSE))),MAX(OFFSET(A92,1-ROW(),0):OFFSET(A92,-1,0))+1)),"")</f>
         <v/>
@@ -4453,7 +4433,7 @@
       <c r="P92" s="33"/>
       <c r="Q92" s="25"/>
     </row>
-    <row r="93" spans="1:17">
+    <row r="93" spans="1:17" hidden="1">
       <c r="A93" s="22" t="str">
         <f ca="1">IF(H93&lt;&gt;"",IF(AND(A92&lt;&gt;"",ISNUMBER(A92)=TRUE),A92+1,IF(AND(OR(A92="",AND(A92&lt;&gt;"",ISNUMBER(A92)=FALSE))),MAX(OFFSET(A93,1-ROW(),0):OFFSET(A93,-1,0))+1)),"")</f>
         <v/>
@@ -4481,7 +4461,7 @@
       <c r="P93" s="33"/>
       <c r="Q93" s="25"/>
     </row>
-    <row r="94" spans="1:17">
+    <row r="94" spans="1:17" hidden="1">
       <c r="A94" s="22" t="str">
         <f ca="1">IF(H94&lt;&gt;"",IF(AND(A93&lt;&gt;"",ISNUMBER(A93)=TRUE),A93+1,IF(AND(OR(A93="",AND(A93&lt;&gt;"",ISNUMBER(A93)=FALSE))),MAX(OFFSET(A94,1-ROW(),0):OFFSET(A94,-1,0))+1)),"")</f>
         <v/>
@@ -4509,7 +4489,7 @@
       <c r="P94" s="33"/>
       <c r="Q94" s="25"/>
     </row>
-    <row r="95" spans="1:17">
+    <row r="95" spans="1:17" hidden="1">
       <c r="A95" s="22" t="str">
         <f ca="1">IF(H95&lt;&gt;"",IF(AND(A94&lt;&gt;"",ISNUMBER(A94)=TRUE),A94+1,IF(AND(OR(A94="",AND(A94&lt;&gt;"",ISNUMBER(A94)=FALSE))),MAX(OFFSET(A95,1-ROW(),0):OFFSET(A95,-1,0))+1)),"")</f>
         <v/>
@@ -4537,7 +4517,7 @@
       <c r="P95" s="33"/>
       <c r="Q95" s="25"/>
     </row>
-    <row r="96" spans="1:17">
+    <row r="96" spans="1:17" hidden="1">
       <c r="A96" s="22" t="str">
         <f ca="1">IF(H96&lt;&gt;"",IF(AND(A95&lt;&gt;"",ISNUMBER(A95)=TRUE),A95+1,IF(AND(OR(A95="",AND(A95&lt;&gt;"",ISNUMBER(A95)=FALSE))),MAX(OFFSET(A96,1-ROW(),0):OFFSET(A96,-1,0))+1)),"")</f>
         <v/>
@@ -4565,7 +4545,7 @@
       <c r="P96" s="33"/>
       <c r="Q96" s="25"/>
     </row>
-    <row r="97" spans="1:17">
+    <row r="97" spans="1:17" hidden="1">
       <c r="A97" s="22" t="str">
         <f ca="1">IF(H97&lt;&gt;"",IF(AND(A96&lt;&gt;"",ISNUMBER(A96)=TRUE),A96+1,IF(AND(OR(A96="",AND(A96&lt;&gt;"",ISNUMBER(A96)=FALSE))),MAX(OFFSET(A97,1-ROW(),0):OFFSET(A97,-1,0))+1)),"")</f>
         <v/>
@@ -4593,7 +4573,7 @@
       <c r="P97" s="33"/>
       <c r="Q97" s="25"/>
     </row>
-    <row r="98" spans="1:17">
+    <row r="98" spans="1:17" hidden="1">
       <c r="A98" s="22" t="str">
         <f ca="1">IF(H98&lt;&gt;"",IF(AND(A97&lt;&gt;"",ISNUMBER(A97)=TRUE),A97+1,IF(AND(OR(A97="",AND(A97&lt;&gt;"",ISNUMBER(A97)=FALSE))),MAX(OFFSET(A98,1-ROW(),0):OFFSET(A98,-1,0))+1)),"")</f>
         <v/>
@@ -4625,37 +4605,41 @@
   <autoFilter ref="A1:Q98">
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
-    <filterColumn colId="7"/>
+    <filterColumn colId="7">
+      <filters>
+        <filter val="需求"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="13"/>
   </autoFilter>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="A2:Q98">
-    <cfRule type="expression" dxfId="8" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
       <formula>AND($J2="完成")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
       <formula>AND($J14="完成")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>AND($J23="完成")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12">
-    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
       <formula>AND($H12="完成")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13">
-    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>AND($H13="完成")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14">
-    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>AND($H14="完成")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>

--- a/docs/6课题/课题一览.xlsx
+++ b/docs/6课题/课题一览.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="139">
   <si>
     <t>课题
 编号</t>
@@ -536,10 +536,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>待定，portal未有这些规则，这些风险规则需要和portal数据组讨论，建立这些规则</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>未知</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -558,10 +554,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>中小板公司、创业版公司条件是什么</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>没有风险的框的表示数据是否显示</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -607,6 +599,27 @@
   </si>
   <si>
     <t>需要建表</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>区内显示的公司数如何判断</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>监管者如何获得</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要数据组确认</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>中小板公司、创业版公司条件是什么，需要数据组确认</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定，portal未有这些规则，这些风险规则需要和portal数据组讨论，建立这些规则，
+需要数据组确认</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -968,7 +981,21 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1352,14 +1379,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I21" sqref="I21"/>
+      <selection pane="bottomRight" activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1428,7 +1454,7 @@
         <v>10</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P1" s="28" t="s">
         <v>11</v>
@@ -1569,7 +1595,7 @@
         <v>43129</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="63" hidden="1" customHeight="1">
+    <row r="5" spans="1:17" ht="63" customHeight="1">
       <c r="A5" s="22">
         <f ca="1">IF(H5&lt;&gt;"",IF(AND(A4&lt;&gt;"",ISNUMBER(A4)=TRUE),A4+1,IF(AND(OR(A4="",AND(A4&lt;&gt;"",ISNUMBER(A4)=FALSE))),MAX(OFFSET(A5,1-ROW(),0):OFFSET(A5,-1,0))+1)),"")</f>
         <v>4</v>
@@ -1657,7 +1683,7 @@
         <v>43132</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="48" hidden="1">
+    <row r="7" spans="1:17" ht="48">
       <c r="A7" s="22">
         <f ca="1">IF(H7&lt;&gt;"",IF(AND(A6&lt;&gt;"",ISNUMBER(A6)=TRUE),A6+1,IF(AND(OR(A6="",AND(A6&lt;&gt;"",ISNUMBER(A6)=FALSE))),MAX(OFFSET(A7,1-ROW(),0):OFFSET(A7,-1,0))+1)),"")</f>
         <v>6</v>
@@ -1812,7 +1838,7 @@
         <v>51</v>
       </c>
       <c r="I10" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J10" s="27" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1826,10 +1852,10 @@
       <c r="M10" s="24"/>
       <c r="N10" s="23"/>
       <c r="O10" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P10" s="33" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="Q10" s="25"/>
     </row>
@@ -1877,7 +1903,7 @@
         <v>43132</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="57.75" hidden="1" customHeight="1">
+    <row r="12" spans="1:17" ht="57.75" customHeight="1">
       <c r="A12" s="22">
         <f ca="1">IF(H12&lt;&gt;"",IF(AND(A11&lt;&gt;"",ISNUMBER(A11)=TRUE),A11+1,IF(AND(OR(A11="",AND(A11&lt;&gt;"",ISNUMBER(A11)=FALSE))),MAX(OFFSET(A12,1-ROW(),0):OFFSET(A12,-1,0))+1)),"")</f>
         <v>11</v>
@@ -1921,7 +1947,7 @@
         <v>43132</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="57.75" hidden="1" customHeight="1">
+    <row r="13" spans="1:17" ht="57.75" customHeight="1">
       <c r="A13" s="22">
         <f ca="1">IF(H13&lt;&gt;"",IF(AND(A12&lt;&gt;"",ISNUMBER(A12)=TRUE),A12+1,IF(AND(OR(A12="",AND(A12&lt;&gt;"",ISNUMBER(A12)=FALSE))),MAX(OFFSET(A13,1-ROW(),0):OFFSET(A13,-1,0))+1)),"")</f>
         <v>12</v>
@@ -1965,7 +1991,7 @@
         <v>43132</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="57.75" hidden="1" customHeight="1">
+    <row r="14" spans="1:17" ht="57.75" customHeight="1">
       <c r="A14" s="22">
         <f ca="1">IF(H14&lt;&gt;"",IF(AND(A13&lt;&gt;"",ISNUMBER(A13)=TRUE),A13+1,IF(AND(OR(A13="",AND(A13&lt;&gt;"",ISNUMBER(A13)=FALSE))),MAX(OFFSET(A14,1-ROW(),0):OFFSET(A14,-1,0))+1)),"")</f>
         <v>13</v>
@@ -2273,7 +2299,7 @@
         <v>43133</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="24">
+    <row r="21" spans="1:17" ht="36">
       <c r="A21" s="22">
         <f ca="1">IF(H21&lt;&gt;"",IF(AND(A20&lt;&gt;"",ISNUMBER(A20)=TRUE),A20+1,IF(AND(OR(A20="",AND(A20&lt;&gt;"",ISNUMBER(A20)=FALSE))),MAX(OFFSET(A21,1-ROW(),0):OFFSET(A21,-1,0))+1)),"")</f>
         <v>20</v>
@@ -2310,10 +2336,10 @@
       <c r="M21" s="24"/>
       <c r="N21" s="23"/>
       <c r="O21" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P21" s="33" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="Q21" s="25"/>
     </row>
@@ -2355,7 +2381,7 @@
       <c r="N22" s="23"/>
       <c r="O22" s="23"/>
       <c r="P22" s="33" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Q22" s="25">
         <v>43136</v>
@@ -2487,7 +2513,7 @@
       <c r="N25" s="23"/>
       <c r="O25" s="23"/>
       <c r="P25" s="33" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Q25" s="25">
         <v>43136</v>
@@ -2516,7 +2542,7 @@
         <v>51</v>
       </c>
       <c r="I26" s="26" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J26" s="27" t="str">
         <f t="shared" si="3"/>
@@ -2531,7 +2557,7 @@
       <c r="N26" s="23"/>
       <c r="O26" s="23"/>
       <c r="P26" s="33" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Q26" s="25">
         <v>43136</v>
@@ -2575,7 +2601,7 @@
       <c r="N27" s="23"/>
       <c r="O27" s="23"/>
       <c r="P27" s="33" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q27" s="25">
         <v>43136</v>
@@ -2604,7 +2630,7 @@
         <v>51</v>
       </c>
       <c r="I28" s="26" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J28" s="27" t="str">
         <f t="shared" si="3"/>
@@ -2619,7 +2645,7 @@
       <c r="N28" s="23"/>
       <c r="O28" s="23"/>
       <c r="P28" s="33" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q28" s="25">
         <v>43136</v>
@@ -2631,13 +2657,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="41" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C29" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" s="23" t="s">
         <v>127</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>129</v>
       </c>
       <c r="E29" s="24"/>
       <c r="F29" s="24"/>
@@ -2648,7 +2674,7 @@
         <v>51</v>
       </c>
       <c r="I29" s="26" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J29" s="27" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2662,26 +2688,38 @@
       <c r="M29" s="24"/>
       <c r="N29" s="23"/>
       <c r="O29" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P29" s="33" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q29" s="25"/>
     </row>
-    <row r="30" spans="1:17" hidden="1">
-      <c r="A30" s="22" t="str">
+    <row r="30" spans="1:17" ht="24">
+      <c r="A30" s="22">
         <f ca="1">IF(H30&lt;&gt;"",IF(AND(A29&lt;&gt;"",ISNUMBER(A29)=TRUE),A29+1,IF(AND(OR(A29="",AND(A29&lt;&gt;"",ISNUMBER(A29)=FALSE))),MAX(OFFSET(A30,1-ROW(),0):OFFSET(A30,-1,0))+1)),"")</f>
-        <v/>
-      </c>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="23"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>68</v>
+      </c>
       <c r="E30" s="24"/>
       <c r="F30" s="24"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="26"/>
+      <c r="G30" s="25">
+        <v>43136</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="I30" s="26" t="s">
+        <v>134</v>
+      </c>
       <c r="J30" s="27" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
@@ -2694,22 +2732,36 @@
       <c r="M30" s="24"/>
       <c r="N30" s="23"/>
       <c r="O30" s="23"/>
-      <c r="P30" s="37"/>
+      <c r="P30" s="33" t="s">
+        <v>136</v>
+      </c>
       <c r="Q30" s="25"/>
     </row>
-    <row r="31" spans="1:17" hidden="1">
-      <c r="A31" s="22" t="str">
+    <row r="31" spans="1:17" ht="24">
+      <c r="A31" s="22">
         <f ca="1">IF(H31&lt;&gt;"",IF(AND(A30&lt;&gt;"",ISNUMBER(A30)=TRUE),A30+1,IF(AND(OR(A30="",AND(A30&lt;&gt;"",ISNUMBER(A30)=FALSE))),MAX(OFFSET(A31,1-ROW(),0):OFFSET(A31,-1,0))+1)),"")</f>
-        <v/>
-      </c>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="23"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>90</v>
+      </c>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="26"/>
+      <c r="G31" s="25">
+        <v>43136</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="I31" s="26" t="s">
+        <v>135</v>
+      </c>
       <c r="J31" s="27" t="str">
         <f t="shared" ca="1" si="3"/>
         <v/>
@@ -2722,16 +2774,15 @@
       <c r="M31" s="24"/>
       <c r="N31" s="23"/>
       <c r="O31" s="23"/>
-      <c r="P31" s="37"/>
+      <c r="P31" s="33" t="s">
+        <v>136</v>
+      </c>
       <c r="Q31" s="25"/>
     </row>
-    <row r="32" spans="1:17" hidden="1">
-      <c r="A32" s="22" t="str">
-        <f ca="1">IF(H32&lt;&gt;"",IF(AND(A31&lt;&gt;"",ISNUMBER(A31)=TRUE),A31+1,IF(AND(OR(A31="",AND(A31&lt;&gt;"",ISNUMBER(A31)=FALSE))),MAX(OFFSET(A32,1-ROW(),0):OFFSET(A32,-1,0))+1)),"")</f>
-        <v/>
-      </c>
+    <row r="32" spans="1:17">
+      <c r="A32" s="22"/>
       <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
+      <c r="C32" s="43"/>
       <c r="D32" s="23"/>
       <c r="E32" s="24"/>
       <c r="F32" s="24"/>
@@ -2753,7 +2804,7 @@
       <c r="P32" s="37"/>
       <c r="Q32" s="25"/>
     </row>
-    <row r="33" spans="1:17" hidden="1">
+    <row r="33" spans="1:17">
       <c r="A33" s="22" t="str">
         <f ca="1">IF(H33&lt;&gt;"",IF(AND(A32&lt;&gt;"",ISNUMBER(A32)=TRUE),A32+1,IF(AND(OR(A32="",AND(A32&lt;&gt;"",ISNUMBER(A32)=FALSE))),MAX(OFFSET(A33,1-ROW(),0):OFFSET(A33,-1,0))+1)),"")</f>
         <v/>
@@ -2781,7 +2832,7 @@
       <c r="P33" s="37"/>
       <c r="Q33" s="25"/>
     </row>
-    <row r="34" spans="1:17" hidden="1">
+    <row r="34" spans="1:17">
       <c r="A34" s="22" t="str">
         <f ca="1">IF(H34&lt;&gt;"",IF(AND(A33&lt;&gt;"",ISNUMBER(A33)=TRUE),A33+1,IF(AND(OR(A33="",AND(A33&lt;&gt;"",ISNUMBER(A33)=FALSE))),MAX(OFFSET(A34,1-ROW(),0):OFFSET(A34,-1,0))+1)),"")</f>
         <v/>
@@ -2809,7 +2860,7 @@
       <c r="P34" s="37"/>
       <c r="Q34" s="25"/>
     </row>
-    <row r="35" spans="1:17" hidden="1">
+    <row r="35" spans="1:17">
       <c r="A35" s="22" t="str">
         <f ca="1">IF(H35&lt;&gt;"",IF(AND(A34&lt;&gt;"",ISNUMBER(A34)=TRUE),A34+1,IF(AND(OR(A34="",AND(A34&lt;&gt;"",ISNUMBER(A34)=FALSE))),MAX(OFFSET(A35,1-ROW(),0):OFFSET(A35,-1,0))+1)),"")</f>
         <v/>
@@ -2837,7 +2888,7 @@
       <c r="P35" s="37"/>
       <c r="Q35" s="25"/>
     </row>
-    <row r="36" spans="1:17" hidden="1">
+    <row r="36" spans="1:17">
       <c r="A36" s="22" t="str">
         <f ca="1">IF(H36&lt;&gt;"",IF(AND(A35&lt;&gt;"",ISNUMBER(A35)=TRUE),A35+1,IF(AND(OR(A35="",AND(A35&lt;&gt;"",ISNUMBER(A35)=FALSE))),MAX(OFFSET(A36,1-ROW(),0):OFFSET(A36,-1,0))+1)),"")</f>
         <v/>
@@ -2865,7 +2916,7 @@
       <c r="P36" s="37"/>
       <c r="Q36" s="25"/>
     </row>
-    <row r="37" spans="1:17" hidden="1">
+    <row r="37" spans="1:17">
       <c r="A37" s="22" t="str">
         <f ca="1">IF(H37&lt;&gt;"",IF(AND(A36&lt;&gt;"",ISNUMBER(A36)=TRUE),A36+1,IF(AND(OR(A36="",AND(A36&lt;&gt;"",ISNUMBER(A36)=FALSE))),MAX(OFFSET(A37,1-ROW(),0):OFFSET(A37,-1,0))+1)),"")</f>
         <v/>
@@ -2893,7 +2944,7 @@
       <c r="P37" s="37"/>
       <c r="Q37" s="25"/>
     </row>
-    <row r="38" spans="1:17" hidden="1">
+    <row r="38" spans="1:17">
       <c r="A38" s="22" t="str">
         <f ca="1">IF(H38&lt;&gt;"",IF(AND(A37&lt;&gt;"",ISNUMBER(A37)=TRUE),A37+1,IF(AND(OR(A37="",AND(A37&lt;&gt;"",ISNUMBER(A37)=FALSE))),MAX(OFFSET(A38,1-ROW(),0):OFFSET(A38,-1,0))+1)),"")</f>
         <v/>
@@ -2921,7 +2972,7 @@
       <c r="P38" s="37"/>
       <c r="Q38" s="25"/>
     </row>
-    <row r="39" spans="1:17" hidden="1">
+    <row r="39" spans="1:17">
       <c r="A39" s="22" t="str">
         <f ca="1">IF(H39&lt;&gt;"",IF(AND(A38&lt;&gt;"",ISNUMBER(A38)=TRUE),A38+1,IF(AND(OR(A38="",AND(A38&lt;&gt;"",ISNUMBER(A38)=FALSE))),MAX(OFFSET(A39,1-ROW(),0):OFFSET(A39,-1,0))+1)),"")</f>
         <v/>
@@ -2949,7 +3000,7 @@
       <c r="P39" s="37"/>
       <c r="Q39" s="25"/>
     </row>
-    <row r="40" spans="1:17" hidden="1">
+    <row r="40" spans="1:17">
       <c r="A40" s="22" t="str">
         <f ca="1">IF(H40&lt;&gt;"",IF(AND(A39&lt;&gt;"",ISNUMBER(A39)=TRUE),A39+1,IF(AND(OR(A39="",AND(A39&lt;&gt;"",ISNUMBER(A39)=FALSE))),MAX(OFFSET(A40,1-ROW(),0):OFFSET(A40,-1,0))+1)),"")</f>
         <v/>
@@ -2977,7 +3028,7 @@
       <c r="P40" s="37"/>
       <c r="Q40" s="25"/>
     </row>
-    <row r="41" spans="1:17" hidden="1">
+    <row r="41" spans="1:17">
       <c r="A41" s="22" t="str">
         <f ca="1">IF(H41&lt;&gt;"",IF(AND(A40&lt;&gt;"",ISNUMBER(A40)=TRUE),A40+1,IF(AND(OR(A40="",AND(A40&lt;&gt;"",ISNUMBER(A40)=FALSE))),MAX(OFFSET(A41,1-ROW(),0):OFFSET(A41,-1,0))+1)),"")</f>
         <v/>
@@ -3005,7 +3056,7 @@
       <c r="P41" s="33"/>
       <c r="Q41" s="25"/>
     </row>
-    <row r="42" spans="1:17" hidden="1">
+    <row r="42" spans="1:17">
       <c r="A42" s="22" t="str">
         <f ca="1">IF(H42&lt;&gt;"",IF(AND(A41&lt;&gt;"",ISNUMBER(A41)=TRUE),A41+1,IF(AND(OR(A41="",AND(A41&lt;&gt;"",ISNUMBER(A41)=FALSE))),MAX(OFFSET(A42,1-ROW(),0):OFFSET(A42,-1,0))+1)),"")</f>
         <v/>
@@ -3033,7 +3084,7 @@
       <c r="P42" s="33"/>
       <c r="Q42" s="38"/>
     </row>
-    <row r="43" spans="1:17" hidden="1">
+    <row r="43" spans="1:17">
       <c r="A43" s="22" t="str">
         <f ca="1">IF(H43&lt;&gt;"",IF(AND(A42&lt;&gt;"",ISNUMBER(A42)=TRUE),A42+1,IF(AND(OR(A42="",AND(A42&lt;&gt;"",ISNUMBER(A42)=FALSE))),MAX(OFFSET(A43,1-ROW(),0):OFFSET(A43,-1,0))+1)),"")</f>
         <v/>
@@ -3061,7 +3112,7 @@
       <c r="P43" s="37"/>
       <c r="Q43" s="25"/>
     </row>
-    <row r="44" spans="1:17" hidden="1">
+    <row r="44" spans="1:17">
       <c r="A44" s="22" t="str">
         <f ca="1">IF(H44&lt;&gt;"",IF(AND(A43&lt;&gt;"",ISNUMBER(A43)=TRUE),A43+1,IF(AND(OR(A43="",AND(A43&lt;&gt;"",ISNUMBER(A43)=FALSE))),MAX(OFFSET(A44,1-ROW(),0):OFFSET(A44,-1,0))+1)),"")</f>
         <v/>
@@ -3089,7 +3140,7 @@
       <c r="P44" s="37"/>
       <c r="Q44" s="25"/>
     </row>
-    <row r="45" spans="1:17" hidden="1">
+    <row r="45" spans="1:17">
       <c r="A45" s="22" t="str">
         <f ca="1">IF(H45&lt;&gt;"",IF(AND(A44&lt;&gt;"",ISNUMBER(A44)=TRUE),A44+1,IF(AND(OR(A44="",AND(A44&lt;&gt;"",ISNUMBER(A44)=FALSE))),MAX(OFFSET(A45,1-ROW(),0):OFFSET(A45,-1,0))+1)),"")</f>
         <v/>
@@ -3117,7 +3168,7 @@
       <c r="P45" s="37"/>
       <c r="Q45" s="25"/>
     </row>
-    <row r="46" spans="1:17" hidden="1">
+    <row r="46" spans="1:17">
       <c r="A46" s="22" t="str">
         <f ca="1">IF(H46&lt;&gt;"",IF(AND(A45&lt;&gt;"",ISNUMBER(A45)=TRUE),A45+1,IF(AND(OR(A45="",AND(A45&lt;&gt;"",ISNUMBER(A45)=FALSE))),MAX(OFFSET(A46,1-ROW(),0):OFFSET(A46,-1,0))+1)),"")</f>
         <v/>
@@ -3145,7 +3196,7 @@
       <c r="P46" s="37"/>
       <c r="Q46" s="25"/>
     </row>
-    <row r="47" spans="1:17" hidden="1">
+    <row r="47" spans="1:17">
       <c r="A47" s="22" t="str">
         <f ca="1">IF(H47&lt;&gt;"",IF(AND(A46&lt;&gt;"",ISNUMBER(A46)=TRUE),A46+1,IF(AND(OR(A46="",AND(A46&lt;&gt;"",ISNUMBER(A46)=FALSE))),MAX(OFFSET(A47,1-ROW(),0):OFFSET(A47,-1,0))+1)),"")</f>
         <v/>
@@ -3173,7 +3224,7 @@
       <c r="P47" s="37"/>
       <c r="Q47" s="25"/>
     </row>
-    <row r="48" spans="1:17" hidden="1">
+    <row r="48" spans="1:17">
       <c r="A48" s="22" t="str">
         <f ca="1">IF(H48&lt;&gt;"",IF(AND(A47&lt;&gt;"",ISNUMBER(A47)=TRUE),A47+1,IF(AND(OR(A47="",AND(A47&lt;&gt;"",ISNUMBER(A47)=FALSE))),MAX(OFFSET(A48,1-ROW(),0):OFFSET(A48,-1,0))+1)),"")</f>
         <v/>
@@ -3201,7 +3252,7 @@
       <c r="P48" s="37"/>
       <c r="Q48" s="25"/>
     </row>
-    <row r="49" spans="1:17" hidden="1">
+    <row r="49" spans="1:17">
       <c r="A49" s="22" t="str">
         <f ca="1">IF(H49&lt;&gt;"",IF(AND(A48&lt;&gt;"",ISNUMBER(A48)=TRUE),A48+1,IF(AND(OR(A48="",AND(A48&lt;&gt;"",ISNUMBER(A48)=FALSE))),MAX(OFFSET(A49,1-ROW(),0):OFFSET(A49,-1,0))+1)),"")</f>
         <v/>
@@ -3229,7 +3280,7 @@
       <c r="P49" s="37"/>
       <c r="Q49" s="25"/>
     </row>
-    <row r="50" spans="1:17" hidden="1">
+    <row r="50" spans="1:17">
       <c r="A50" s="22" t="str">
         <f ca="1">IF(H50&lt;&gt;"",IF(AND(A49&lt;&gt;"",ISNUMBER(A49)=TRUE),A49+1,IF(AND(OR(A49="",AND(A49&lt;&gt;"",ISNUMBER(A49)=FALSE))),MAX(OFFSET(A50,1-ROW(),0):OFFSET(A50,-1,0))+1)),"")</f>
         <v/>
@@ -3257,7 +3308,7 @@
       <c r="P50" s="37"/>
       <c r="Q50" s="25"/>
     </row>
-    <row r="51" spans="1:17" hidden="1">
+    <row r="51" spans="1:17">
       <c r="A51" s="22" t="str">
         <f ca="1">IF(H51&lt;&gt;"",IF(AND(A50&lt;&gt;"",ISNUMBER(A50)=TRUE),A50+1,IF(AND(OR(A50="",AND(A50&lt;&gt;"",ISNUMBER(A50)=FALSE))),MAX(OFFSET(A51,1-ROW(),0):OFFSET(A51,-1,0))+1)),"")</f>
         <v/>
@@ -3285,7 +3336,7 @@
       <c r="P51" s="37"/>
       <c r="Q51" s="25"/>
     </row>
-    <row r="52" spans="1:17" hidden="1">
+    <row r="52" spans="1:17">
       <c r="A52" s="22" t="str">
         <f ca="1">IF(H52&lt;&gt;"",IF(AND(A51&lt;&gt;"",ISNUMBER(A51)=TRUE),A51+1,IF(AND(OR(A51="",AND(A51&lt;&gt;"",ISNUMBER(A51)=FALSE))),MAX(OFFSET(A52,1-ROW(),0):OFFSET(A52,-1,0))+1)),"")</f>
         <v/>
@@ -3313,7 +3364,7 @@
       <c r="P52" s="33"/>
       <c r="Q52" s="25"/>
     </row>
-    <row r="53" spans="1:17" hidden="1">
+    <row r="53" spans="1:17">
       <c r="A53" s="22" t="str">
         <f ca="1">IF(H53&lt;&gt;"",IF(AND(A52&lt;&gt;"",ISNUMBER(A52)=TRUE),A52+1,IF(AND(OR(A52="",AND(A52&lt;&gt;"",ISNUMBER(A52)=FALSE))),MAX(OFFSET(A53,1-ROW(),0):OFFSET(A53,-1,0))+1)),"")</f>
         <v/>
@@ -3341,7 +3392,7 @@
       <c r="P53" s="33"/>
       <c r="Q53" s="25"/>
     </row>
-    <row r="54" spans="1:17" hidden="1">
+    <row r="54" spans="1:17">
       <c r="A54" s="22" t="str">
         <f ca="1">IF(H54&lt;&gt;"",IF(AND(A53&lt;&gt;"",ISNUMBER(A53)=TRUE),A53+1,IF(AND(OR(A53="",AND(A53&lt;&gt;"",ISNUMBER(A53)=FALSE))),MAX(OFFSET(A54,1-ROW(),0):OFFSET(A54,-1,0))+1)),"")</f>
         <v/>
@@ -3369,7 +3420,7 @@
       <c r="P54" s="33"/>
       <c r="Q54" s="25"/>
     </row>
-    <row r="55" spans="1:17" hidden="1">
+    <row r="55" spans="1:17">
       <c r="A55" s="22" t="str">
         <f ca="1">IF(H55&lt;&gt;"",IF(AND(A54&lt;&gt;"",ISNUMBER(A54)=TRUE),A54+1,IF(AND(OR(A54="",AND(A54&lt;&gt;"",ISNUMBER(A54)=FALSE))),MAX(OFFSET(A55,1-ROW(),0):OFFSET(A55,-1,0))+1)),"")</f>
         <v/>
@@ -3397,7 +3448,7 @@
       <c r="P55" s="33"/>
       <c r="Q55" s="25"/>
     </row>
-    <row r="56" spans="1:17" hidden="1">
+    <row r="56" spans="1:17">
       <c r="A56" s="22" t="str">
         <f ca="1">IF(H56&lt;&gt;"",IF(AND(A55&lt;&gt;"",ISNUMBER(A55)=TRUE),A55+1,IF(AND(OR(A55="",AND(A55&lt;&gt;"",ISNUMBER(A55)=FALSE))),MAX(OFFSET(A56,1-ROW(),0):OFFSET(A56,-1,0))+1)),"")</f>
         <v/>
@@ -3425,7 +3476,7 @@
       <c r="P56" s="33"/>
       <c r="Q56" s="25"/>
     </row>
-    <row r="57" spans="1:17" hidden="1">
+    <row r="57" spans="1:17">
       <c r="A57" s="22" t="str">
         <f ca="1">IF(H57&lt;&gt;"",IF(AND(A56&lt;&gt;"",ISNUMBER(A56)=TRUE),A56+1,IF(AND(OR(A56="",AND(A56&lt;&gt;"",ISNUMBER(A56)=FALSE))),MAX(OFFSET(A57,1-ROW(),0):OFFSET(A57,-1,0))+1)),"")</f>
         <v/>
@@ -3453,7 +3504,7 @@
       <c r="P57" s="33"/>
       <c r="Q57" s="25"/>
     </row>
-    <row r="58" spans="1:17" hidden="1">
+    <row r="58" spans="1:17">
       <c r="A58" s="22" t="str">
         <f ca="1">IF(H58&lt;&gt;"",IF(AND(A57&lt;&gt;"",ISNUMBER(A57)=TRUE),A57+1,IF(AND(OR(A57="",AND(A57&lt;&gt;"",ISNUMBER(A57)=FALSE))),MAX(OFFSET(A58,1-ROW(),0):OFFSET(A58,-1,0))+1)),"")</f>
         <v/>
@@ -3481,7 +3532,7 @@
       <c r="P58" s="33"/>
       <c r="Q58" s="25"/>
     </row>
-    <row r="59" spans="1:17" hidden="1">
+    <row r="59" spans="1:17">
       <c r="A59" s="22" t="str">
         <f ca="1">IF(H59&lt;&gt;"",IF(AND(A58&lt;&gt;"",ISNUMBER(A58)=TRUE),A58+1,IF(AND(OR(A58="",AND(A58&lt;&gt;"",ISNUMBER(A58)=FALSE))),MAX(OFFSET(A59,1-ROW(),0):OFFSET(A59,-1,0))+1)),"")</f>
         <v/>
@@ -3509,7 +3560,7 @@
       <c r="P59" s="33"/>
       <c r="Q59" s="25"/>
     </row>
-    <row r="60" spans="1:17" hidden="1">
+    <row r="60" spans="1:17">
       <c r="A60" s="22" t="str">
         <f ca="1">IF(H60&lt;&gt;"",IF(AND(A59&lt;&gt;"",ISNUMBER(A59)=TRUE),A59+1,IF(AND(OR(A59="",AND(A59&lt;&gt;"",ISNUMBER(A59)=FALSE))),MAX(OFFSET(A60,1-ROW(),0):OFFSET(A60,-1,0))+1)),"")</f>
         <v/>
@@ -3537,7 +3588,7 @@
       <c r="P60" s="33"/>
       <c r="Q60" s="25"/>
     </row>
-    <row r="61" spans="1:17" hidden="1">
+    <row r="61" spans="1:17">
       <c r="A61" s="22" t="str">
         <f ca="1">IF(H61&lt;&gt;"",IF(AND(A60&lt;&gt;"",ISNUMBER(A60)=TRUE),A60+1,IF(AND(OR(A60="",AND(A60&lt;&gt;"",ISNUMBER(A60)=FALSE))),MAX(OFFSET(A61,1-ROW(),0):OFFSET(A61,-1,0))+1)),"")</f>
         <v/>
@@ -3565,7 +3616,7 @@
       <c r="P61" s="33"/>
       <c r="Q61" s="25"/>
     </row>
-    <row r="62" spans="1:17" hidden="1">
+    <row r="62" spans="1:17">
       <c r="A62" s="22" t="str">
         <f ca="1">IF(H62&lt;&gt;"",IF(AND(A61&lt;&gt;"",ISNUMBER(A61)=TRUE),A61+1,IF(AND(OR(A61="",AND(A61&lt;&gt;"",ISNUMBER(A61)=FALSE))),MAX(OFFSET(A62,1-ROW(),0):OFFSET(A62,-1,0))+1)),"")</f>
         <v/>
@@ -3593,7 +3644,7 @@
       <c r="P62" s="33"/>
       <c r="Q62" s="25"/>
     </row>
-    <row r="63" spans="1:17" hidden="1">
+    <row r="63" spans="1:17">
       <c r="A63" s="22" t="str">
         <f ca="1">IF(H63&lt;&gt;"",IF(AND(A62&lt;&gt;"",ISNUMBER(A62)=TRUE),A62+1,IF(AND(OR(A62="",AND(A62&lt;&gt;"",ISNUMBER(A62)=FALSE))),MAX(OFFSET(A63,1-ROW(),0):OFFSET(A63,-1,0))+1)),"")</f>
         <v/>
@@ -3621,7 +3672,7 @@
       <c r="P63" s="33"/>
       <c r="Q63" s="25"/>
     </row>
-    <row r="64" spans="1:17" hidden="1">
+    <row r="64" spans="1:17">
       <c r="A64" s="22" t="str">
         <f ca="1">IF(H64&lt;&gt;"",IF(AND(A63&lt;&gt;"",ISNUMBER(A63)=TRUE),A63+1,IF(AND(OR(A63="",AND(A63&lt;&gt;"",ISNUMBER(A63)=FALSE))),MAX(OFFSET(A64,1-ROW(),0):OFFSET(A64,-1,0))+1)),"")</f>
         <v/>
@@ -3649,7 +3700,7 @@
       <c r="P64" s="33"/>
       <c r="Q64" s="25"/>
     </row>
-    <row r="65" spans="1:17" hidden="1">
+    <row r="65" spans="1:17">
       <c r="A65" s="22" t="str">
         <f ca="1">IF(H65&lt;&gt;"",IF(AND(A64&lt;&gt;"",ISNUMBER(A64)=TRUE),A64+1,IF(AND(OR(A64="",AND(A64&lt;&gt;"",ISNUMBER(A64)=FALSE))),MAX(OFFSET(A65,1-ROW(),0):OFFSET(A65,-1,0))+1)),"")</f>
         <v/>
@@ -3677,7 +3728,7 @@
       <c r="P65" s="33"/>
       <c r="Q65" s="25"/>
     </row>
-    <row r="66" spans="1:17" hidden="1">
+    <row r="66" spans="1:17">
       <c r="A66" s="22" t="str">
         <f ca="1">IF(H66&lt;&gt;"",IF(AND(A65&lt;&gt;"",ISNUMBER(A65)=TRUE),A65+1,IF(AND(OR(A65="",AND(A65&lt;&gt;"",ISNUMBER(A65)=FALSE))),MAX(OFFSET(A66,1-ROW(),0):OFFSET(A66,-1,0))+1)),"")</f>
         <v/>
@@ -3705,7 +3756,7 @@
       <c r="P66" s="33"/>
       <c r="Q66" s="25"/>
     </row>
-    <row r="67" spans="1:17" hidden="1">
+    <row r="67" spans="1:17">
       <c r="A67" s="22" t="str">
         <f ca="1">IF(H67&lt;&gt;"",IF(AND(A66&lt;&gt;"",ISNUMBER(A66)=TRUE),A66+1,IF(AND(OR(A66="",AND(A66&lt;&gt;"",ISNUMBER(A66)=FALSE))),MAX(OFFSET(A67,1-ROW(),0):OFFSET(A67,-1,0))+1)),"")</f>
         <v/>
@@ -3733,7 +3784,7 @@
       <c r="P67" s="33"/>
       <c r="Q67" s="25"/>
     </row>
-    <row r="68" spans="1:17" hidden="1">
+    <row r="68" spans="1:17">
       <c r="A68" s="22" t="str">
         <f ca="1">IF(H68&lt;&gt;"",IF(AND(A67&lt;&gt;"",ISNUMBER(A67)=TRUE),A67+1,IF(AND(OR(A67="",AND(A67&lt;&gt;"",ISNUMBER(A67)=FALSE))),MAX(OFFSET(A68,1-ROW(),0):OFFSET(A68,-1,0))+1)),"")</f>
         <v/>
@@ -3761,7 +3812,7 @@
       <c r="P68" s="33"/>
       <c r="Q68" s="25"/>
     </row>
-    <row r="69" spans="1:17" hidden="1">
+    <row r="69" spans="1:17">
       <c r="A69" s="22" t="str">
         <f ca="1">IF(H69&lt;&gt;"",IF(AND(A68&lt;&gt;"",ISNUMBER(A68)=TRUE),A68+1,IF(AND(OR(A68="",AND(A68&lt;&gt;"",ISNUMBER(A68)=FALSE))),MAX(OFFSET(A69,1-ROW(),0):OFFSET(A69,-1,0))+1)),"")</f>
         <v/>
@@ -3789,7 +3840,7 @@
       <c r="P69" s="33"/>
       <c r="Q69" s="25"/>
     </row>
-    <row r="70" spans="1:17" hidden="1">
+    <row r="70" spans="1:17">
       <c r="A70" s="22" t="str">
         <f ca="1">IF(H70&lt;&gt;"",IF(AND(A69&lt;&gt;"",ISNUMBER(A69)=TRUE),A69+1,IF(AND(OR(A69="",AND(A69&lt;&gt;"",ISNUMBER(A69)=FALSE))),MAX(OFFSET(A70,1-ROW(),0):OFFSET(A70,-1,0))+1)),"")</f>
         <v/>
@@ -3817,7 +3868,7 @@
       <c r="P70" s="33"/>
       <c r="Q70" s="25"/>
     </row>
-    <row r="71" spans="1:17" hidden="1">
+    <row r="71" spans="1:17">
       <c r="A71" s="22" t="str">
         <f ca="1">IF(H71&lt;&gt;"",IF(AND(A70&lt;&gt;"",ISNUMBER(A70)=TRUE),A70+1,IF(AND(OR(A70="",AND(A70&lt;&gt;"",ISNUMBER(A70)=FALSE))),MAX(OFFSET(A71,1-ROW(),0):OFFSET(A71,-1,0))+1)),"")</f>
         <v/>
@@ -3845,7 +3896,7 @@
       <c r="P71" s="33"/>
       <c r="Q71" s="25"/>
     </row>
-    <row r="72" spans="1:17" hidden="1">
+    <row r="72" spans="1:17">
       <c r="A72" s="22" t="str">
         <f ca="1">IF(H72&lt;&gt;"",IF(AND(A71&lt;&gt;"",ISNUMBER(A71)=TRUE),A71+1,IF(AND(OR(A71="",AND(A71&lt;&gt;"",ISNUMBER(A71)=FALSE))),MAX(OFFSET(A72,1-ROW(),0):OFFSET(A72,-1,0))+1)),"")</f>
         <v/>
@@ -3873,7 +3924,7 @@
       <c r="P72" s="33"/>
       <c r="Q72" s="25"/>
     </row>
-    <row r="73" spans="1:17" hidden="1">
+    <row r="73" spans="1:17">
       <c r="A73" s="22" t="str">
         <f ca="1">IF(H73&lt;&gt;"",IF(AND(A72&lt;&gt;"",ISNUMBER(A72)=TRUE),A72+1,IF(AND(OR(A72="",AND(A72&lt;&gt;"",ISNUMBER(A72)=FALSE))),MAX(OFFSET(A73,1-ROW(),0):OFFSET(A73,-1,0))+1)),"")</f>
         <v/>
@@ -3901,7 +3952,7 @@
       <c r="P73" s="33"/>
       <c r="Q73" s="25"/>
     </row>
-    <row r="74" spans="1:17" hidden="1">
+    <row r="74" spans="1:17">
       <c r="A74" s="22" t="str">
         <f ca="1">IF(H74&lt;&gt;"",IF(AND(A73&lt;&gt;"",ISNUMBER(A73)=TRUE),A73+1,IF(AND(OR(A73="",AND(A73&lt;&gt;"",ISNUMBER(A73)=FALSE))),MAX(OFFSET(A74,1-ROW(),0):OFFSET(A74,-1,0))+1)),"")</f>
         <v/>
@@ -3929,7 +3980,7 @@
       <c r="P74" s="33"/>
       <c r="Q74" s="25"/>
     </row>
-    <row r="75" spans="1:17" hidden="1">
+    <row r="75" spans="1:17">
       <c r="A75" s="22" t="str">
         <f ca="1">IF(H75&lt;&gt;"",IF(AND(A74&lt;&gt;"",ISNUMBER(A74)=TRUE),A74+1,IF(AND(OR(A74="",AND(A74&lt;&gt;"",ISNUMBER(A74)=FALSE))),MAX(OFFSET(A75,1-ROW(),0):OFFSET(A75,-1,0))+1)),"")</f>
         <v/>
@@ -3957,7 +4008,7 @@
       <c r="P75" s="33"/>
       <c r="Q75" s="25"/>
     </row>
-    <row r="76" spans="1:17" hidden="1">
+    <row r="76" spans="1:17">
       <c r="A76" s="22" t="str">
         <f ca="1">IF(H76&lt;&gt;"",IF(AND(A75&lt;&gt;"",ISNUMBER(A75)=TRUE),A75+1,IF(AND(OR(A75="",AND(A75&lt;&gt;"",ISNUMBER(A75)=FALSE))),MAX(OFFSET(A76,1-ROW(),0):OFFSET(A76,-1,0))+1)),"")</f>
         <v/>
@@ -3985,7 +4036,7 @@
       <c r="P76" s="33"/>
       <c r="Q76" s="25"/>
     </row>
-    <row r="77" spans="1:17" hidden="1">
+    <row r="77" spans="1:17">
       <c r="A77" s="22" t="str">
         <f ca="1">IF(H77&lt;&gt;"",IF(AND(A76&lt;&gt;"",ISNUMBER(A76)=TRUE),A76+1,IF(AND(OR(A76="",AND(A76&lt;&gt;"",ISNUMBER(A76)=FALSE))),MAX(OFFSET(A77,1-ROW(),0):OFFSET(A77,-1,0))+1)),"")</f>
         <v/>
@@ -4013,7 +4064,7 @@
       <c r="P77" s="33"/>
       <c r="Q77" s="25"/>
     </row>
-    <row r="78" spans="1:17" hidden="1">
+    <row r="78" spans="1:17">
       <c r="A78" s="22" t="str">
         <f ca="1">IF(H78&lt;&gt;"",IF(AND(A77&lt;&gt;"",ISNUMBER(A77)=TRUE),A77+1,IF(AND(OR(A77="",AND(A77&lt;&gt;"",ISNUMBER(A77)=FALSE))),MAX(OFFSET(A78,1-ROW(),0):OFFSET(A78,-1,0))+1)),"")</f>
         <v/>
@@ -4041,7 +4092,7 @@
       <c r="P78" s="33"/>
       <c r="Q78" s="25"/>
     </row>
-    <row r="79" spans="1:17" hidden="1">
+    <row r="79" spans="1:17">
       <c r="A79" s="22" t="str">
         <f ca="1">IF(H79&lt;&gt;"",IF(AND(A78&lt;&gt;"",ISNUMBER(A78)=TRUE),A78+1,IF(AND(OR(A78="",AND(A78&lt;&gt;"",ISNUMBER(A78)=FALSE))),MAX(OFFSET(A79,1-ROW(),0):OFFSET(A79,-1,0))+1)),"")</f>
         <v/>
@@ -4069,7 +4120,7 @@
       <c r="P79" s="33"/>
       <c r="Q79" s="25"/>
     </row>
-    <row r="80" spans="1:17" hidden="1">
+    <row r="80" spans="1:17">
       <c r="A80" s="22" t="str">
         <f ca="1">IF(H80&lt;&gt;"",IF(AND(A79&lt;&gt;"",ISNUMBER(A79)=TRUE),A79+1,IF(AND(OR(A79="",AND(A79&lt;&gt;"",ISNUMBER(A79)=FALSE))),MAX(OFFSET(A80,1-ROW(),0):OFFSET(A80,-1,0))+1)),"")</f>
         <v/>
@@ -4097,7 +4148,7 @@
       <c r="P80" s="33"/>
       <c r="Q80" s="25"/>
     </row>
-    <row r="81" spans="1:17" hidden="1">
+    <row r="81" spans="1:17">
       <c r="A81" s="22" t="str">
         <f ca="1">IF(H81&lt;&gt;"",IF(AND(A80&lt;&gt;"",ISNUMBER(A80)=TRUE),A80+1,IF(AND(OR(A80="",AND(A80&lt;&gt;"",ISNUMBER(A80)=FALSE))),MAX(OFFSET(A81,1-ROW(),0):OFFSET(A81,-1,0))+1)),"")</f>
         <v/>
@@ -4125,7 +4176,7 @@
       <c r="P81" s="33"/>
       <c r="Q81" s="25"/>
     </row>
-    <row r="82" spans="1:17" hidden="1">
+    <row r="82" spans="1:17">
       <c r="A82" s="22" t="str">
         <f ca="1">IF(H82&lt;&gt;"",IF(AND(A81&lt;&gt;"",ISNUMBER(A81)=TRUE),A81+1,IF(AND(OR(A81="",AND(A81&lt;&gt;"",ISNUMBER(A81)=FALSE))),MAX(OFFSET(A82,1-ROW(),0):OFFSET(A82,-1,0))+1)),"")</f>
         <v/>
@@ -4153,7 +4204,7 @@
       <c r="P82" s="33"/>
       <c r="Q82" s="25"/>
     </row>
-    <row r="83" spans="1:17" hidden="1">
+    <row r="83" spans="1:17">
       <c r="A83" s="22" t="str">
         <f ca="1">IF(H83&lt;&gt;"",IF(AND(A82&lt;&gt;"",ISNUMBER(A82)=TRUE),A82+1,IF(AND(OR(A82="",AND(A82&lt;&gt;"",ISNUMBER(A82)=FALSE))),MAX(OFFSET(A83,1-ROW(),0):OFFSET(A83,-1,0))+1)),"")</f>
         <v/>
@@ -4181,7 +4232,7 @@
       <c r="P83" s="33"/>
       <c r="Q83" s="25"/>
     </row>
-    <row r="84" spans="1:17" hidden="1">
+    <row r="84" spans="1:17">
       <c r="A84" s="22" t="str">
         <f ca="1">IF(H84&lt;&gt;"",IF(AND(A83&lt;&gt;"",ISNUMBER(A83)=TRUE),A83+1,IF(AND(OR(A83="",AND(A83&lt;&gt;"",ISNUMBER(A83)=FALSE))),MAX(OFFSET(A84,1-ROW(),0):OFFSET(A84,-1,0))+1)),"")</f>
         <v/>
@@ -4209,7 +4260,7 @@
       <c r="P84" s="33"/>
       <c r="Q84" s="25"/>
     </row>
-    <row r="85" spans="1:17" hidden="1">
+    <row r="85" spans="1:17">
       <c r="A85" s="22" t="str">
         <f ca="1">IF(H85&lt;&gt;"",IF(AND(A84&lt;&gt;"",ISNUMBER(A84)=TRUE),A84+1,IF(AND(OR(A84="",AND(A84&lt;&gt;"",ISNUMBER(A84)=FALSE))),MAX(OFFSET(A85,1-ROW(),0):OFFSET(A85,-1,0))+1)),"")</f>
         <v/>
@@ -4237,7 +4288,7 @@
       <c r="P85" s="33"/>
       <c r="Q85" s="25"/>
     </row>
-    <row r="86" spans="1:17" hidden="1">
+    <row r="86" spans="1:17">
       <c r="A86" s="22" t="str">
         <f ca="1">IF(H86&lt;&gt;"",IF(AND(A85&lt;&gt;"",ISNUMBER(A85)=TRUE),A85+1,IF(AND(OR(A85="",AND(A85&lt;&gt;"",ISNUMBER(A85)=FALSE))),MAX(OFFSET(A86,1-ROW(),0):OFFSET(A86,-1,0))+1)),"")</f>
         <v/>
@@ -4265,7 +4316,7 @@
       <c r="P86" s="33"/>
       <c r="Q86" s="25"/>
     </row>
-    <row r="87" spans="1:17" hidden="1">
+    <row r="87" spans="1:17">
       <c r="A87" s="22" t="str">
         <f ca="1">IF(H87&lt;&gt;"",IF(AND(A86&lt;&gt;"",ISNUMBER(A86)=TRUE),A86+1,IF(AND(OR(A86="",AND(A86&lt;&gt;"",ISNUMBER(A86)=FALSE))),MAX(OFFSET(A87,1-ROW(),0):OFFSET(A87,-1,0))+1)),"")</f>
         <v/>
@@ -4293,7 +4344,7 @@
       <c r="P87" s="33"/>
       <c r="Q87" s="25"/>
     </row>
-    <row r="88" spans="1:17" hidden="1">
+    <row r="88" spans="1:17">
       <c r="A88" s="22" t="str">
         <f ca="1">IF(H88&lt;&gt;"",IF(AND(A87&lt;&gt;"",ISNUMBER(A87)=TRUE),A87+1,IF(AND(OR(A87="",AND(A87&lt;&gt;"",ISNUMBER(A87)=FALSE))),MAX(OFFSET(A88,1-ROW(),0):OFFSET(A88,-1,0))+1)),"")</f>
         <v/>
@@ -4321,7 +4372,7 @@
       <c r="P88" s="33"/>
       <c r="Q88" s="25"/>
     </row>
-    <row r="89" spans="1:17" hidden="1">
+    <row r="89" spans="1:17">
       <c r="A89" s="22" t="str">
         <f ca="1">IF(H89&lt;&gt;"",IF(AND(A88&lt;&gt;"",ISNUMBER(A88)=TRUE),A88+1,IF(AND(OR(A88="",AND(A88&lt;&gt;"",ISNUMBER(A88)=FALSE))),MAX(OFFSET(A89,1-ROW(),0):OFFSET(A89,-1,0))+1)),"")</f>
         <v/>
@@ -4349,7 +4400,7 @@
       <c r="P89" s="33"/>
       <c r="Q89" s="25"/>
     </row>
-    <row r="90" spans="1:17" hidden="1">
+    <row r="90" spans="1:17">
       <c r="A90" s="22" t="str">
         <f ca="1">IF(H90&lt;&gt;"",IF(AND(A89&lt;&gt;"",ISNUMBER(A89)=TRUE),A89+1,IF(AND(OR(A89="",AND(A89&lt;&gt;"",ISNUMBER(A89)=FALSE))),MAX(OFFSET(A90,1-ROW(),0):OFFSET(A90,-1,0))+1)),"")</f>
         <v/>
@@ -4377,7 +4428,7 @@
       <c r="P90" s="33"/>
       <c r="Q90" s="25"/>
     </row>
-    <row r="91" spans="1:17" hidden="1">
+    <row r="91" spans="1:17">
       <c r="A91" s="22" t="str">
         <f ca="1">IF(H91&lt;&gt;"",IF(AND(A90&lt;&gt;"",ISNUMBER(A90)=TRUE),A90+1,IF(AND(OR(A90="",AND(A90&lt;&gt;"",ISNUMBER(A90)=FALSE))),MAX(OFFSET(A91,1-ROW(),0):OFFSET(A91,-1,0))+1)),"")</f>
         <v/>
@@ -4405,7 +4456,7 @@
       <c r="P91" s="33"/>
       <c r="Q91" s="25"/>
     </row>
-    <row r="92" spans="1:17" hidden="1">
+    <row r="92" spans="1:17">
       <c r="A92" s="22" t="str">
         <f ca="1">IF(H92&lt;&gt;"",IF(AND(A91&lt;&gt;"",ISNUMBER(A91)=TRUE),A91+1,IF(AND(OR(A91="",AND(A91&lt;&gt;"",ISNUMBER(A91)=FALSE))),MAX(OFFSET(A92,1-ROW(),0):OFFSET(A92,-1,0))+1)),"")</f>
         <v/>
@@ -4433,7 +4484,7 @@
       <c r="P92" s="33"/>
       <c r="Q92" s="25"/>
     </row>
-    <row r="93" spans="1:17" hidden="1">
+    <row r="93" spans="1:17">
       <c r="A93" s="22" t="str">
         <f ca="1">IF(H93&lt;&gt;"",IF(AND(A92&lt;&gt;"",ISNUMBER(A92)=TRUE),A92+1,IF(AND(OR(A92="",AND(A92&lt;&gt;"",ISNUMBER(A92)=FALSE))),MAX(OFFSET(A93,1-ROW(),0):OFFSET(A93,-1,0))+1)),"")</f>
         <v/>
@@ -4461,7 +4512,7 @@
       <c r="P93" s="33"/>
       <c r="Q93" s="25"/>
     </row>
-    <row r="94" spans="1:17" hidden="1">
+    <row r="94" spans="1:17">
       <c r="A94" s="22" t="str">
         <f ca="1">IF(H94&lt;&gt;"",IF(AND(A93&lt;&gt;"",ISNUMBER(A93)=TRUE),A93+1,IF(AND(OR(A93="",AND(A93&lt;&gt;"",ISNUMBER(A93)=FALSE))),MAX(OFFSET(A94,1-ROW(),0):OFFSET(A94,-1,0))+1)),"")</f>
         <v/>
@@ -4489,7 +4540,7 @@
       <c r="P94" s="33"/>
       <c r="Q94" s="25"/>
     </row>
-    <row r="95" spans="1:17" hidden="1">
+    <row r="95" spans="1:17">
       <c r="A95" s="22" t="str">
         <f ca="1">IF(H95&lt;&gt;"",IF(AND(A94&lt;&gt;"",ISNUMBER(A94)=TRUE),A94+1,IF(AND(OR(A94="",AND(A94&lt;&gt;"",ISNUMBER(A94)=FALSE))),MAX(OFFSET(A95,1-ROW(),0):OFFSET(A95,-1,0))+1)),"")</f>
         <v/>
@@ -4517,7 +4568,7 @@
       <c r="P95" s="33"/>
       <c r="Q95" s="25"/>
     </row>
-    <row r="96" spans="1:17" hidden="1">
+    <row r="96" spans="1:17">
       <c r="A96" s="22" t="str">
         <f ca="1">IF(H96&lt;&gt;"",IF(AND(A95&lt;&gt;"",ISNUMBER(A95)=TRUE),A95+1,IF(AND(OR(A95="",AND(A95&lt;&gt;"",ISNUMBER(A95)=FALSE))),MAX(OFFSET(A96,1-ROW(),0):OFFSET(A96,-1,0))+1)),"")</f>
         <v/>
@@ -4545,7 +4596,7 @@
       <c r="P96" s="33"/>
       <c r="Q96" s="25"/>
     </row>
-    <row r="97" spans="1:17" hidden="1">
+    <row r="97" spans="1:17">
       <c r="A97" s="22" t="str">
         <f ca="1">IF(H97&lt;&gt;"",IF(AND(A96&lt;&gt;"",ISNUMBER(A96)=TRUE),A96+1,IF(AND(OR(A96="",AND(A96&lt;&gt;"",ISNUMBER(A96)=FALSE))),MAX(OFFSET(A97,1-ROW(),0):OFFSET(A97,-1,0))+1)),"")</f>
         <v/>
@@ -4573,7 +4624,7 @@
       <c r="P97" s="33"/>
       <c r="Q97" s="25"/>
     </row>
-    <row r="98" spans="1:17" hidden="1">
+    <row r="98" spans="1:17">
       <c r="A98" s="22" t="str">
         <f ca="1">IF(H98&lt;&gt;"",IF(AND(A97&lt;&gt;"",ISNUMBER(A97)=TRUE),A97+1,IF(AND(OR(A97="",AND(A97&lt;&gt;"",ISNUMBER(A97)=FALSE))),MAX(OFFSET(A98,1-ROW(),0):OFFSET(A98,-1,0))+1)),"")</f>
         <v/>
@@ -4605,42 +4656,43 @@
   <autoFilter ref="A1:Q98">
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
-    <filterColumn colId="7">
-      <filters>
-        <filter val="需求"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="7"/>
     <filterColumn colId="13"/>
   </autoFilter>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="A2:Q98">
-    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="7" stopIfTrue="1">
       <formula>AND($J2="完成")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
       <formula>AND($J14="完成")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
       <formula>AND($J23="完成")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12">
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
       <formula>AND($H12="完成")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
       <formula>AND($H13="完成")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
       <formula>AND($H14="完成")=TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+      <formula>AND($J32="完成")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">

--- a/docs/6课题/课题一览.xlsx
+++ b/docs/6课题/课题一览.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="140">
   <si>
     <t>课题
 编号</t>
@@ -598,19 +598,11 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>需要建表</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>区内显示的公司数如何判断</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>监管者如何获得</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要数据组确认</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -620,6 +612,18 @@
   <si>
     <t>待定，portal未有这些规则，这些风险规则需要和portal数据组讨论，建立这些规则，
 需要数据组确认</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为是独立于portal库，所以可以建表</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于企业表基数不会很大，所以暂时用注册地判断</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>本系统建表</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -981,14 +985,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1382,10 +1379,10 @@
   <dimension ref="A1:Q98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P22" sqref="P22"/>
+      <selection pane="bottomRight" activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1855,7 +1852,7 @@
         <v>118</v>
       </c>
       <c r="P10" s="33" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Q10" s="25"/>
     </row>
@@ -2339,7 +2336,7 @@
         <v>119</v>
       </c>
       <c r="P21" s="33" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Q21" s="25"/>
     </row>
@@ -2677,8 +2674,8 @@
         <v>126</v>
       </c>
       <c r="J29" s="27" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
       <c r="K29" s="27" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2687,13 +2684,13 @@
       <c r="L29" s="32"/>
       <c r="M29" s="24"/>
       <c r="N29" s="23"/>
-      <c r="O29" s="23" t="s">
-        <v>119</v>
-      </c>
+      <c r="O29" s="23"/>
       <c r="P29" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q29" s="25"/>
+        <v>137</v>
+      </c>
+      <c r="Q29" s="25">
+        <v>43140</v>
+      </c>
     </row>
     <row r="30" spans="1:17" ht="24">
       <c r="A30" s="22">
@@ -2718,11 +2715,11 @@
         <v>51</v>
       </c>
       <c r="I30" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J30" s="27" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
       <c r="K30" s="27" t="str">
         <f t="shared" ref="K30:K61" ca="1" si="6">IF(L30="-","",IF(L30&lt;&gt;"",IF(Q30&lt;&gt;"","",IF(AND((L30-TODAY())&gt;=1,(L30-TODAY())&lt;=3),"注意",IF((L30-TODAY())&lt;0,"超过",IF(L30=TODAY(),"当日",L30-TODAY())))),""))</f>
@@ -2733,9 +2730,11 @@
       <c r="N30" s="23"/>
       <c r="O30" s="23"/>
       <c r="P30" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q30" s="25"/>
+        <v>138</v>
+      </c>
+      <c r="Q30" s="25">
+        <v>43140</v>
+      </c>
     </row>
     <row r="31" spans="1:17" ht="24">
       <c r="A31" s="22">
@@ -2760,11 +2759,11 @@
         <v>51</v>
       </c>
       <c r="I31" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J31" s="27" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>完成</v>
       </c>
       <c r="K31" s="27" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -2775,9 +2774,11 @@
       <c r="N31" s="23"/>
       <c r="O31" s="23"/>
       <c r="P31" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q31" s="25"/>
+        <v>139</v>
+      </c>
+      <c r="Q31" s="25">
+        <v>43140</v>
+      </c>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="22"/>
@@ -4661,37 +4662,37 @@
   </autoFilter>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="A2:Q98">
-    <cfRule type="expression" dxfId="7" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
       <formula>AND($J2="完成")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
       <formula>AND($J14="完成")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
       <formula>AND($J23="完成")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12">
-    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>AND($H12="完成")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13">
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
       <formula>AND($H13="完成")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14">
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>AND($H14="完成")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>AND($J32="完成")=TRUE</formula>
     </cfRule>
   </conditionalFormatting>

--- a/docs/6课题/课题一览.xlsx
+++ b/docs/6课题/课题一览.xlsx
@@ -488,10 +488,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>与portal一致，查近一个月的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>风险类别里包含的各种风险的个数</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -624,6 +620,10 @@
   </si>
   <si>
     <t>本系统建表</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>与portal一致，无条件则查询所有</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1379,10 +1379,10 @@
   <dimension ref="A1:Q98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="G21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q32" sqref="Q32"/>
+      <selection pane="bottomRight" activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -1451,7 +1451,7 @@
         <v>10</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P1" s="28" t="s">
         <v>11</v>
@@ -1674,7 +1674,7 @@
       <c r="N6" s="23"/>
       <c r="O6" s="23"/>
       <c r="P6" s="33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q6" s="25">
         <v>43132</v>
@@ -1718,7 +1718,7 @@
       <c r="N7" s="23"/>
       <c r="O7" s="23"/>
       <c r="P7" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q7" s="25">
         <v>43132</v>
@@ -1835,7 +1835,7 @@
         <v>51</v>
       </c>
       <c r="I10" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J10" s="27" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1849,10 +1849,10 @@
       <c r="M10" s="24"/>
       <c r="N10" s="23"/>
       <c r="O10" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P10" s="33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q10" s="25"/>
     </row>
@@ -2114,7 +2114,7 @@
       <c r="N16" s="23"/>
       <c r="O16" s="23"/>
       <c r="P16" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="25">
         <v>43132</v>
@@ -2158,7 +2158,7 @@
       <c r="N17" s="23"/>
       <c r="O17" s="23"/>
       <c r="P17" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q17" s="25">
         <v>43132</v>
@@ -2202,7 +2202,7 @@
       <c r="N18" s="23"/>
       <c r="O18" s="23"/>
       <c r="P18" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q18" s="25">
         <v>43132</v>
@@ -2246,7 +2246,7 @@
       <c r="N19" s="23"/>
       <c r="O19" s="23"/>
       <c r="P19" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q19" s="25">
         <v>43132</v>
@@ -2333,10 +2333,10 @@
       <c r="M21" s="24"/>
       <c r="N21" s="23"/>
       <c r="O21" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P21" s="33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q21" s="25"/>
     </row>
@@ -2363,7 +2363,7 @@
         <v>51</v>
       </c>
       <c r="I22" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J22" s="27" t="str">
         <f t="shared" ref="J22:J23" si="4">IF(Q22&lt;&gt;"","完成",IF(L22="-","调整中",IF(K22="超过","需确认","")))</f>
@@ -2378,7 +2378,7 @@
       <c r="N22" s="23"/>
       <c r="O22" s="23"/>
       <c r="P22" s="33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q22" s="25">
         <v>43136</v>
@@ -2422,7 +2422,7 @@
       <c r="N23" s="23"/>
       <c r="O23" s="23"/>
       <c r="P23" s="33" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="Q23" s="25">
         <v>43133</v>
@@ -2466,7 +2466,7 @@
       <c r="N24" s="23"/>
       <c r="O24" s="23"/>
       <c r="P24" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q24" s="25">
         <v>43133</v>
@@ -2484,7 +2484,7 @@
         <v>72</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
@@ -2495,7 +2495,7 @@
         <v>51</v>
       </c>
       <c r="I25" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J25" s="27" t="str">
         <f t="shared" si="3"/>
@@ -2510,7 +2510,7 @@
       <c r="N25" s="23"/>
       <c r="O25" s="23"/>
       <c r="P25" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q25" s="25">
         <v>43136</v>
@@ -2528,7 +2528,7 @@
         <v>72</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
@@ -2539,7 +2539,7 @@
         <v>51</v>
       </c>
       <c r="I26" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J26" s="27" t="str">
         <f t="shared" si="3"/>
@@ -2554,7 +2554,7 @@
       <c r="N26" s="23"/>
       <c r="O26" s="23"/>
       <c r="P26" s="33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q26" s="25">
         <v>43136</v>
@@ -2572,7 +2572,7 @@
         <v>66</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
@@ -2583,7 +2583,7 @@
         <v>51</v>
       </c>
       <c r="I27" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J27" s="27" t="str">
         <f t="shared" si="3"/>
@@ -2598,7 +2598,7 @@
       <c r="N27" s="23"/>
       <c r="O27" s="23"/>
       <c r="P27" s="33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q27" s="25">
         <v>43136</v>
@@ -2627,7 +2627,7 @@
         <v>51</v>
       </c>
       <c r="I28" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J28" s="27" t="str">
         <f t="shared" si="3"/>
@@ -2642,7 +2642,7 @@
       <c r="N28" s="23"/>
       <c r="O28" s="23"/>
       <c r="P28" s="33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q28" s="25">
         <v>43136</v>
@@ -2654,13 +2654,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="C29" s="41" t="s">
-        <v>125</v>
-      </c>
       <c r="D29" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E29" s="24"/>
       <c r="F29" s="24"/>
@@ -2671,7 +2671,7 @@
         <v>51</v>
       </c>
       <c r="I29" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J29" s="27" t="str">
         <f t="shared" si="3"/>
@@ -2686,7 +2686,7 @@
       <c r="N29" s="23"/>
       <c r="O29" s="23"/>
       <c r="P29" s="33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q29" s="25">
         <v>43140</v>
@@ -2715,7 +2715,7 @@
         <v>51</v>
       </c>
       <c r="I30" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J30" s="27" t="str">
         <f t="shared" si="3"/>
@@ -2730,7 +2730,7 @@
       <c r="N30" s="23"/>
       <c r="O30" s="23"/>
       <c r="P30" s="33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q30" s="25">
         <v>43140</v>
@@ -2759,7 +2759,7 @@
         <v>51</v>
       </c>
       <c r="I31" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J31" s="27" t="str">
         <f t="shared" si="3"/>
@@ -2774,7 +2774,7 @@
       <c r="N31" s="23"/>
       <c r="O31" s="23"/>
       <c r="P31" s="33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q31" s="25">
         <v>43140</v>
